--- a/familias_identificadas_filtradas.xlsx
+++ b/familias_identificadas_filtradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lafabrilsa-my.sharepoint.com/personal/eeras_lafabril_com_ec/Documents/Escritorio/Python/Python Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_7CFD5F71D74AC40E62355476585DCE3A8745FEE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3BBD4B-4271-4F70-A114-09ABBC3DC5A8}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_1A2D0732156E4A0E62355476585DCE3A87454908" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08FBB37D-539E-4E2D-9842-B3CF29B83816}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$366</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1103">
   <si>
     <t>Identificador de familiar</t>
   </si>
@@ -43,10 +43,10 @@
     <t>FAM001</t>
   </si>
   <si>
-    <t>1311649311-1305900456</t>
-  </si>
-  <si>
-    <t>ALVARADO LOPEZ FRANCISCA CAROLINA, ALVARADO CHALEN JOHNNY MIGUEL</t>
+    <t>1305900456-1311649311</t>
+  </si>
+  <si>
+    <t>ALVARADO CHALEN JOHNNY MIGUEL, ALVARADO LOPEZ FRANCISCA CAROLINA</t>
   </si>
   <si>
     <t>BAJO</t>
@@ -55,10 +55,10 @@
     <t>FAM002</t>
   </si>
   <si>
-    <t>1312285834-1313936484-1309020186</t>
-  </si>
-  <si>
-    <t>MENDOZA MIRANDA MANUEL EDUARDO, MENDOZA MIRANDA PRISCILA KATHERINE, AVALOS ZAMBRANO GARY ALEJANDRO</t>
+    <t>1313936484-1309020186-1312285834</t>
+  </si>
+  <si>
+    <t>MENDOZA MIRANDA PRISCILA KATHERINE, AVALOS ZAMBRANO GARY ALEJANDRO, MENDOZA MIRANDA MANUEL EDUARDO</t>
   </si>
   <si>
     <t>MEDIO</t>
@@ -76,10 +76,10 @@
     <t>FAM004</t>
   </si>
   <si>
-    <t>1307309375-1303832016</t>
-  </si>
-  <si>
-    <t>TORO LOOR RICHARD GONZALO, TORO LOOR FREDY ORLANDO</t>
+    <t>1303832016-1307309375</t>
+  </si>
+  <si>
+    <t>TORO LOOR FREDY ORLANDO, TORO LOOR RICHARD GONZALO</t>
   </si>
   <si>
     <t>FAM005</t>
@@ -103,19 +103,19 @@
     <t>FAM007</t>
   </si>
   <si>
-    <t>1307032076-1309953881-1307509784</t>
-  </si>
-  <si>
-    <t>CHINGA GARCIA EDISON ANTONIO, QUITO ALCIVAR JORGE RODRIGO, CHINGA GARCIA JAIRO DEL QUINCHE</t>
+    <t>1309953881-1307509784-1307032076</t>
+  </si>
+  <si>
+    <t>QUITO ALCIVAR JORGE RODRIGO, CHINGA GARCIA JAIRO DEL QUINCHE, CHINGA GARCIA EDISON ANTONIO</t>
   </si>
   <si>
     <t>FAM008</t>
   </si>
   <si>
-    <t>1313467415-1311757569</t>
-  </si>
-  <si>
-    <t>CORNEJO ALCIVAR DENNYS EDUARDO, ALCIVAR MERCHAN MAURICIO HELEODORO</t>
+    <t>1311757569-1313467415</t>
+  </si>
+  <si>
+    <t>ALCIVAR MERCHAN MAURICIO HELEODORO, CORNEJO ALCIVAR DENNYS EDUARDO</t>
   </si>
   <si>
     <t>FAM009</t>
@@ -130,64 +130,64 @@
     <t>FAM010</t>
   </si>
   <si>
-    <t>909054991-1308529716</t>
-  </si>
-  <si>
-    <t>MARCILLO JARAMILLO ELIZABETH LUISA, MERA MACIAS ALBERTO FABIAN</t>
+    <t>1308529716-909054991</t>
+  </si>
+  <si>
+    <t>MERA MACIAS ALBERTO FABIAN, MARCILLO JARAMILLO ELIZABETH LUISA</t>
   </si>
   <si>
     <t>FAM011</t>
   </si>
   <si>
-    <t>1311574915-959066010-1311755589</t>
-  </si>
-  <si>
-    <t>QUESADA MARTINEZ CARLOS ALBERTO, PEREZ QUESADA JULIAN, QUESADA TORRES WINDRY TATIANA</t>
+    <t>1311755589-1311574915-959066010</t>
+  </si>
+  <si>
+    <t>QUESADA TORRES WINDRY TATIANA, QUESADA MARTINEZ CARLOS ALBERTO, PEREZ QUESADA JULIAN</t>
   </si>
   <si>
     <t>FAM012</t>
   </si>
   <si>
-    <t>1303943011-1306655695-1307683290</t>
-  </si>
-  <si>
-    <t>MANZANO GRANDA CARLOS, REYES MACIAS LUIS FERNANDO, MANZANO GRANDA MAGDALENA</t>
+    <t>1307683290-1306655695-1303943011</t>
+  </si>
+  <si>
+    <t>MANZANO GRANDA MAGDALENA, REYES MACIAS LUIS FERNANDO, MANZANO GRANDA CARLOS</t>
   </si>
   <si>
     <t>FAM013</t>
   </si>
   <si>
-    <t>2300391592-1313864819</t>
-  </si>
-  <si>
-    <t>DUENAS GUERRERO RUCELA JUDITH, GARCIA CEDENO CRISTINA ANDREINA</t>
+    <t>1313864819-2300391592</t>
+  </si>
+  <si>
+    <t>GARCIA CEDENO CRISTINA ANDREINA, DUENAS GUERRERO RUCELA JUDITH</t>
   </si>
   <si>
     <t>FAM014</t>
   </si>
   <si>
-    <t>1306023449-1306291822</t>
-  </si>
-  <si>
-    <t>CHACON PICO PATRICIA, FERNANDEZ MENDOZA RENZO DARWIN</t>
+    <t>1306291822-1306023449</t>
+  </si>
+  <si>
+    <t>FERNANDEZ MENDOZA RENZO DARWIN, CHACON PICO PATRICIA</t>
   </si>
   <si>
     <t>FAM015</t>
   </si>
   <si>
-    <t>1307389732-1310080468-SIN_CED</t>
-  </si>
-  <si>
-    <t>QUIJIJE PONCE MARIA ESTELBINA, LOPEZ CHEBE NELSON JAVIER, LOPEZ CHEBE XAVIER</t>
+    <t>1307389732-SIN_CED-1310080468</t>
+  </si>
+  <si>
+    <t>QUIJIJE PONCE MARIA ESTELBINA, LOPEZ CHEBE XAVIER, LOPEZ CHEBE NELSON JAVIER</t>
   </si>
   <si>
     <t>FAM016</t>
   </si>
   <si>
-    <t>1309599056-1311589277</t>
-  </si>
-  <si>
-    <t>VALLE VINCES EUCLIDES ALEXANDER, BAYAS ZAMBRANO ANTONIO RAFAEL</t>
+    <t>1311589277-1309599056</t>
+  </si>
+  <si>
+    <t>BAYAS ZAMBRANO ANTONIO RAFAEL, VALLE VINCES EUCLIDES ALEXANDER</t>
   </si>
   <si>
     <t>FAM017</t>
@@ -202,10 +202,10 @@
     <t>FAM018</t>
   </si>
   <si>
-    <t>1315139665-1307224368</t>
-  </si>
-  <si>
-    <t>PONCE LOOR ALESSA THAIS, PONCE MIELES FERDINAND EUSTACIO</t>
+    <t>1307224368-1315139665</t>
+  </si>
+  <si>
+    <t>PONCE MIELES FERDINAND EUSTACIO, PONCE LOOR ALESSA THAIS</t>
   </si>
   <si>
     <t>FAM019</t>
@@ -229,10 +229,10 @@
     <t>FAM021</t>
   </si>
   <si>
-    <t>1703873859-1716510076</t>
-  </si>
-  <si>
-    <t>PEREZ HECTOR RAMIRO, PEREZ ALAVA RAMIRO</t>
+    <t>1716510076-1703873859</t>
+  </si>
+  <si>
+    <t>PEREZ ALAVA RAMIRO, PEREZ HECTOR RAMIRO</t>
   </si>
   <si>
     <t>FAM022</t>
@@ -247,19 +247,19 @@
     <t>FAM023</t>
   </si>
   <si>
-    <t>1315298123-1305985861-1313937615</t>
-  </si>
-  <si>
-    <t>PARRALES HERNANDEZ MARIA FERNANDA, CASTILLO PARRALES FABIAN LEONARDO, FLORES PARRALES RUTH LISETH</t>
+    <t>1315298123-1313937615-1305985861</t>
+  </si>
+  <si>
+    <t>PARRALES HERNANDEZ MARIA FERNANDA, FLORES PARRALES RUTH LISETH, CASTILLO PARRALES FABIAN LEONARDO</t>
   </si>
   <si>
     <t>FAM024</t>
   </si>
   <si>
-    <t>1311669046-1718889759-1312279845</t>
-  </si>
-  <si>
-    <t>GUERRERO BARROS LUIS XAVIER, MENDOZA ANGULO PABLO CESAR, COOX ANGULO JUAN CARLOS</t>
+    <t>1311669046-1312279845-1718889759</t>
+  </si>
+  <si>
+    <t>GUERRERO BARROS LUIS XAVIER, COOX ANGULO JUAN CARLOS, MENDOZA ANGULO PABLO CESAR</t>
   </si>
   <si>
     <t>FAM025</t>
@@ -274,19 +274,19 @@
     <t>FAM026</t>
   </si>
   <si>
-    <t>1308291655-1309700761-1309700753-1302187974</t>
-  </si>
-  <si>
-    <t>CANARTE CHIRIBOGA JUAN CARLOS, CANARTE ZAMBRANO ESTEFANIA, CANARTE ZAMBRANO PAOLA, CANARTE BRIONES EDUARDO</t>
+    <t>1309700761-1309700753-1308291655-1302187974</t>
+  </si>
+  <si>
+    <t>CANARTE ZAMBRANO ESTEFANIA, CANARTE ZAMBRANO PAOLA, CANARTE CHIRIBOGA JUAN CARLOS, CANARTE BRIONES EDUARDO</t>
   </si>
   <si>
     <t>FAM027</t>
   </si>
   <si>
-    <t>1311753865-1308679503-1308663762-1307907673-1312445321-1313748830-1307854248-1311968661-1313933507-931767198-1304346404-1306105626-1314502194-1309954095-1311845851-1308732633</t>
-  </si>
-  <si>
-    <t>PARRAGA MERA JORGE IVAN, ANCHUNDIA SORNOZA JOSE, MENESES MOREIRA VICTOR EFREN, MANTUANO QUIJIJE RUBEN DARIO, ALVIA ANCHUNDIA ERWIN GABRIEL, LUCAS LUCAS FREDDY GEOVANNY, ANCHUNDIA LUIS EDUARDO, ANCHUNDIA LUCAS VICTOR ALFONSO, ANCHUNDIA LUCAS DANIEL ANTONIO, ANCHUNDIA ANCHUNDIA RUBEN, PALMA DELGADO ERNESTO MARIANO, MANTUANO QUIJIJE EDUARDO ISIDRO, ALVIA ANCHUNDIA FERNANDO, MERA RAMIREZ ANDIS YASMANI, ANCHUNDIA ANCHUNDIA LUIS EDUARDO, PALMA LUCAS VICTOR MARIANO</t>
+    <t>1312445321-1311968661-1313748830-1307741585-1308726155-1313933507-1312502071-1307223790-1304346404-SIN_CED</t>
+  </si>
+  <si>
+    <t>ALVIA ANCHUNDIA ERWIN GABRIEL, ANCHUNDIA LUCAS VICTOR ALFONSO, LUCAS LUCAS FREDDY GEOVANNY, PANTA ANCHUNDIA JOSE RICARDO, PANTA ANCHUNDIA MANUEL ALBERTO, ANCHUNDIA LUCAS DANIEL ANTONIO, ANCHUNDIA ANCHUNDIA RUBEN, ANCHUNDIA NEVAREZ LUIS GREGORIO, PALMA DELGADO ERNESTO MARIANO, ANCHUNDIA PALMA ALBERTO</t>
   </si>
   <si>
     <t>ALTO</t>
@@ -295,64 +295,64 @@
     <t>FAM028</t>
   </si>
   <si>
-    <t>1309540985-1802622157-1306306380-1307495885</t>
-  </si>
-  <si>
-    <t>MOREIRA VELEZ ANTONIO ROLANDO, ROMERO FREIRE AIDA PAULINA, DELGADO MOREIRA BERNABE, MERA MOREIRA HOLGER ALEXANDER</t>
+    <t>1307495885-1802622157-1306306380-1309540985</t>
+  </si>
+  <si>
+    <t>MERA MOREIRA HOLGER ALEXANDER, ROMERO FREIRE AIDA PAULINA, DELGADO MOREIRA BERNABE, MOREIRA VELEZ ANTONIO ROLANDO</t>
   </si>
   <si>
     <t>FAM029</t>
   </si>
   <si>
-    <t>SIN_CED-1307207181</t>
-  </si>
-  <si>
-    <t>GONZALES EMEN CARLOS ESTEBAN, CEDENO LOOR JUAN PABLO</t>
+    <t>1307207181-SIN_CED</t>
+  </si>
+  <si>
+    <t>CEDENO LOOR JUAN PABLO, GONZALES EMEN CARLOS ESTEBAN</t>
   </si>
   <si>
     <t>FAM030</t>
   </si>
   <si>
-    <t>1316500006-1308580156-SIN_CED</t>
-  </si>
-  <si>
-    <t>MACIAS SANCHEZ JOEL, CHOEZ DELGADO JOSE ANTONIO, CHOEZ DELGADO ANTONIO</t>
+    <t>1308580156-SIN_CED-1316500006</t>
+  </si>
+  <si>
+    <t>CHOEZ DELGADO JOSE ANTONIO, CHOEZ DELGADO ANTONIO, MACIAS SANCHEZ JOEL</t>
   </si>
   <si>
     <t>FAM031</t>
   </si>
   <si>
-    <t>1310065105-1312845926</t>
-  </si>
-  <si>
-    <t>MOREIRA ARTEAGA GARY JORGE, TELLO RIVERA KENIA GABRIELA</t>
+    <t>1312845926-1310065105</t>
+  </si>
+  <si>
+    <t>TELLO RIVERA KENIA GABRIELA, MOREIRA ARTEAGA GARY JORGE</t>
   </si>
   <si>
     <t>FAM032</t>
   </si>
   <si>
-    <t>1719918177-1310808579</t>
-  </si>
-  <si>
-    <t>ALCIVAR ACOSTA DIANA PAMELA, MACIAS BRIONES VICTOR HUGO</t>
+    <t>1310808579-1719918177</t>
+  </si>
+  <si>
+    <t>MACIAS BRIONES VICTOR HUGO, ALCIVAR ACOSTA DIANA PAMELA</t>
   </si>
   <si>
     <t>FAM033</t>
   </si>
   <si>
-    <t>802493619-1721898466</t>
-  </si>
-  <si>
-    <t>VIDAL VERA PROSPERO HORTENCIO, VIDAL VERA PEDRO WILFRIDO</t>
+    <t>1721898466-802493619</t>
+  </si>
+  <si>
+    <t>VIDAL VERA PEDRO WILFRIDO, VIDAL VERA PROSPERO HORTENCIO</t>
   </si>
   <si>
     <t>FAM034</t>
   </si>
   <si>
-    <t>909731952-1313411009-1305587865</t>
-  </si>
-  <si>
-    <t>BOLANOS MARIA ISABEL, BELLO BOLANOS MARIO FERNANDO, BELLO MACIAS JHONNY ALBERTO</t>
+    <t>909731952-1305587865-1313411009</t>
+  </si>
+  <si>
+    <t>BOLANOS MARIA ISABEL, BELLO MACIAS JHONNY ALBERTO, BELLO BOLANOS MARIO FERNANDO</t>
   </si>
   <si>
     <t>FAM035</t>
@@ -367,139 +367,148 @@
     <t>FAM036</t>
   </si>
   <si>
-    <t>1310845506-1308258605-1309663050</t>
-  </si>
-  <si>
-    <t>MENDOZA CHIQUITO JOSE MARIA, MENDOZA CHIQUITO GEOVANY, FIGUEROA CASTRO JORGE JAVIER</t>
+    <t>1308258605-1309663050-1310845506</t>
+  </si>
+  <si>
+    <t>MENDOZA CHIQUITO GEOVANY, FIGUEROA CASTRO JORGE JAVIER, MENDOZA CHIQUITO JOSE MARIA</t>
   </si>
   <si>
     <t>FAM037</t>
   </si>
   <si>
-    <t>804017671-802929729-803570357</t>
-  </si>
-  <si>
-    <t>RIVADENEIRA CENTENO JESSENIA ANABEL, CHILA COX RAMON GABRIEL, MERCHAN CHILA PATRICO</t>
+    <t>1308663762-1307254902-1314502194-1306105626-1313062349-1309954095-1311753865-1308732633-1308679503-1314678507-1307907673-SIN_CED-1312313545-1307854248</t>
+  </si>
+  <si>
+    <t>MENESES MOREIRA VICTOR EFREN, ANCHUNDIA DELGADO CALIXTO MARCIAL, ALVIA ANCHUNDIA FERNANDO, MANTUANO QUIJIJE ISIDRO EDUARDO, ANCHUNDIA DELGADO JORGE LUIS, MERA RAMIREZ ANDIS YASMANI, PARRAGA MERA JORGE IVAN, PALMA LUCAS VICTOR MARIANO, ANCHUNDIA SORNOZA JOSE, ANCHUNDIA ANCHUNDIA RAUL EDUARDO, MANTUANO QUIJIJE RUBEN DARIO, ANCHUNDIA LUIS EDUARDO, ANCHUNDIA ANCHUNDIA GEOVANNY, ANCHUNDIA SORNOZA CESAR EDUARDO</t>
   </si>
   <si>
     <t>FAM038</t>
   </si>
   <si>
-    <t>1306305564-1306309368-1309900965-1309150074-910038892-1306308022</t>
-  </si>
-  <si>
-    <t>BRIONES GRAIN JOSE HERMOGENES, BAILON SANTANA ROSA ELIZABETH, RIVAS ORMAZA GABRIELA, BAILON GRAIN GUSTAVO, REMACHE FELIZ ANTONIO, RIVAS BAILON ANDRES ENRIQUE</t>
+    <t>802929729-803570357-804017671</t>
+  </si>
+  <si>
+    <t>CHILA COX RAMON GABRIEL, MERCHAN CHILA PATRICO, RIVADENEIRA CENTENO JESSENIA ANABEL</t>
   </si>
   <si>
     <t>FAM039</t>
   </si>
   <si>
-    <t>1311742553-1312330614</t>
-  </si>
-  <si>
-    <t>MENDOZA AGUAYO FERNANDO JAVIER, CASTRO DELGADO JUANA PILAR</t>
+    <t>1309150074-910038892-1306308022-1309900965-1306305564-1306309368</t>
+  </si>
+  <si>
+    <t>BAILON GRAIN GUSTAVO, REMACHE FELIZ ANTONIO, RIVAS BAILON ANDRES ENRIQUE, RIVAS ORMAZA GABRIELA, BRIONES GRAIN JOSE HERMOGENES, BAILON SANTANA ROSA ELIZABETH</t>
   </si>
   <si>
     <t>FAM040</t>
   </si>
   <si>
+    <t>1312330614-1311742553</t>
+  </si>
+  <si>
+    <t>CASTRO DELGADO JUANA PILAR, MENDOZA AGUAYO FERNANDO JAVIER</t>
+  </si>
+  <si>
+    <t>FAM041</t>
+  </si>
+  <si>
     <t>1309902052-1309844304</t>
   </si>
   <si>
     <t>MOLINA ALCIVAR VICENTE GONZALO, MOLINA ALCIVAR KATIUSCA</t>
   </si>
   <si>
-    <t>FAM041</t>
-  </si>
-  <si>
-    <t>1310580384-1310532468-1314859164</t>
-  </si>
-  <si>
-    <t>QUIROZ ZAMBRANO ROCIO JOHANA, CANAR TINITANA FREDDY GIOVANNY, CANAR TINITANA ELIZABETH</t>
-  </si>
-  <si>
     <t>FAM042</t>
   </si>
   <si>
-    <t>1309197232-1313245431-1311921827-SIN_CED-1311024390</t>
-  </si>
-  <si>
-    <t>ALCIVAR CHAVEZ DANNY MAXIMILIANO, MOREIRA MORALES JAVIER, CHAVEZ BAZURTO MARICELA, ALCIVAR SALTOS VALENTIN, CHAVEZ BAZURTO ANTONIO</t>
+    <t>1314859164-1310532468-1310580384</t>
+  </si>
+  <si>
+    <t>CANAR TINITANA ELIZABETH, CANAR TINITANA FREDDY GIOVANNY, QUIROZ ZAMBRANO ROCIO JOHANA</t>
   </si>
   <si>
     <t>FAM043</t>
   </si>
   <si>
-    <t>1306210608-1313712653</t>
-  </si>
-  <si>
-    <t>LOOR GANCHOZO ERNALDO WILFRIDO, LOOR PAZMINO CRISTIAN WILFRIDO</t>
+    <t>SIN_CED-1309197232-1311024390-1311921827-1313245431</t>
+  </si>
+  <si>
+    <t>ALCIVAR SALTOS VALENTIN, ALCIVAR CHAVEZ DANNY MAXIMILIANO, CHAVEZ BAZURTO ANTONIO, CHAVEZ BAZURTO MARICELA, MOREIRA MORALES JAVIER</t>
   </si>
   <si>
     <t>FAM044</t>
   </si>
   <si>
+    <t>1313712653-1306210608</t>
+  </si>
+  <si>
+    <t>LOOR PAZMINO CRISTIAN WILFRIDO, LOOR GANCHOZO ERNALDO WILFRIDO</t>
+  </si>
+  <si>
+    <t>FAM045</t>
+  </si>
+  <si>
     <t>1312649781-911687176</t>
   </si>
   <si>
-    <t>ALCIVAR CEVALLOS LEONARDO RICHARD, MARTRUS CEVALLOS FRANZ RONALD</t>
-  </si>
-  <si>
-    <t>FAM045</t>
-  </si>
-  <si>
-    <t>1306579267-1307285609</t>
-  </si>
-  <si>
-    <t>ROBLES CASTRO GONZALO, ROBLES CASTRO JOFRE RODOLFO</t>
+    <t>ALCIVAR CEBALLOS LEONARDO RICHARD, MARTRUS CEVALLOS FRANZ RONALD</t>
   </si>
   <si>
     <t>FAM046</t>
   </si>
   <si>
-    <t>1305261263-1310501224-1308564374-1313784256-1312001660-1312005562-1307859361</t>
-  </si>
-  <si>
-    <t>QUIJIJE ANCHUNDIA JOSE GUILLERMO, LOPEZ PALMA FRANCISCO, PALMA PIONCE KLEVER HUMBERTO, LOPEZ PALMA JUAN CARLOS, PALMA MURILLO FERNANDO, PALMA QUIJIJE ANTONIO, PALMA DELGADO VICENTE</t>
+    <t>1307285609-1306579267</t>
+  </si>
+  <si>
+    <t>ROBLES CASTRO JOFRE RODOLFO, ROBLES CASTRO GONZALO</t>
   </si>
   <si>
     <t>FAM047</t>
   </si>
   <si>
-    <t>1307447035-1313749697</t>
-  </si>
-  <si>
-    <t>REYES MERO XAVIER GUSTAVO, VILLA CHICAIZA PIEDAD</t>
+    <t>1310501224-1308564374-1312005562-1307859361-1305261263-1313784256-1312001660</t>
+  </si>
+  <si>
+    <t>LOPEZ PALMA FRANCISCO, PALMA PIONCE KLEVER HUMBERTO, PALMA QUIJIJE ANTONIO, PALMA DELGADO VICENTE, QUIJIJE ANCHUNDIA JOSE GUILLERMO, LOPEZ PALMA JUAN CARLOS, PALMA MURILLO FERNANDO</t>
   </si>
   <si>
     <t>FAM048</t>
   </si>
   <si>
-    <t>1314509900-1308561107-1309629986</t>
-  </si>
-  <si>
-    <t>LOPEZ PALMA MANUEL, PALMA ANCHUNDIA VICTOR YOVANNY, LOPEZ QUIMIS EUCLIDES TEODORO</t>
+    <t>1313749697-1307447035</t>
+  </si>
+  <si>
+    <t>VILLA CHICAIZA PIEDAD, REYES MERO XAVIER GUSTAVO</t>
   </si>
   <si>
     <t>FAM049</t>
   </si>
   <si>
-    <t>1308676764-1310500051</t>
-  </si>
-  <si>
-    <t>BASURTO SALTOS ROLANDO, SALAZAR VERA KATIUSCA ELIZABETH</t>
+    <t>1308561107-1309629986-1314509900</t>
+  </si>
+  <si>
+    <t>PALMA ANCHUNDIA VICTOR YOVANNY, LOPEZ QUIMIS EUCLIDES TEODORO, LOPEZ PALMA MANUEL</t>
   </si>
   <si>
     <t>FAM050</t>
   </si>
   <si>
+    <t>1310500051-1308676764</t>
+  </si>
+  <si>
+    <t>SALAZAR VERA KATIUSCA ELIZABETH, BASURTO SALTOS ROLANDO</t>
+  </si>
+  <si>
+    <t>FAM051</t>
+  </si>
+  <si>
     <t>803296615-1003077193</t>
   </si>
   <si>
     <t>ARROYO JAMA ANTONIO ALFREDO, CASTILLO PAIZ GINA MARITZA</t>
   </si>
   <si>
-    <t>FAM051</t>
+    <t>FAM052</t>
   </si>
   <si>
     <t>1307571297-1308072618</t>
@@ -508,133 +517,133 @@
     <t>MACIAS ALAVA MAGNO NOEL, MACIAS ALAVA ANTONIO</t>
   </si>
   <si>
-    <t>FAM052</t>
-  </si>
-  <si>
-    <t>803625938-1308639101-1309916664</t>
-  </si>
-  <si>
-    <t>ZAMBRANO CASTILLO ANTHONY BRIAN, DELGADO FLORES BOLIVAR GONZALO, DELGADO FLORES XAVIER</t>
-  </si>
-  <si>
     <t>FAM053</t>
   </si>
   <si>
-    <t>1311813883-1310187628-917872038</t>
-  </si>
-  <si>
-    <t>HOLGUIN MERO ERICK SEBASTIAN, HOLGUIN MERO ALEX RUBEN, ZAMBRANO QUIROZ LUVER DAMIAN</t>
+    <t>803625938-1309916664-1308639101</t>
+  </si>
+  <si>
+    <t>ZAMBRANO CASTILLO ANTHONY BRIAN, DELGADO FLORES XAVIER, DELGADO FLORES BOLIVAR GONZALO</t>
   </si>
   <si>
     <t>FAM054</t>
   </si>
   <si>
+    <t>1310187628-917872038-1311813883</t>
+  </si>
+  <si>
+    <t>HOLGUIN MERO ALEX RUBEN, ZAMBRANO QUIROZ LUVER DAMIAN, HOLGUIN MERO ERICK SEBASTIAN</t>
+  </si>
+  <si>
+    <t>FAM055</t>
+  </si>
+  <si>
     <t>1314530294-1306279108</t>
   </si>
   <si>
     <t>MOLINA LOOR CARLOS ANDRES, DELGADO ANCHUNDIA CARLOS GUSTAVO</t>
   </si>
   <si>
-    <t>FAM055</t>
-  </si>
-  <si>
-    <t>1302420649-1307127249</t>
-  </si>
-  <si>
-    <t>INTRIAGO VEGA JOSE MONSERRATE, INTRIAGO MEZA RUBEN ELIAS</t>
-  </si>
-  <si>
     <t>FAM056</t>
   </si>
   <si>
-    <t>801836875-803757434</t>
-  </si>
-  <si>
-    <t>VERA MOREIRA DENIS ORLANDO, MENDOZA VERA JANELA</t>
+    <t>1307127249-1302420649</t>
+  </si>
+  <si>
+    <t>INTRIAGO MEZA RUBEN ELIAS, INTRIAGO VEGA JOSE MONSERRATE</t>
   </si>
   <si>
     <t>FAM057</t>
   </si>
   <si>
-    <t>1309618534-1309297511</t>
-  </si>
-  <si>
-    <t>HOLGUIN ESPINOZA FABRICIO ALBERTO, HOLGUIN ESPINOZA FERNANDO FRANCISCO</t>
+    <t>803757434-801836875</t>
+  </si>
+  <si>
+    <t>MENDOZA VERA JANELA, VERA MOREIRA DENIS ORLANDO</t>
   </si>
   <si>
     <t>FAM058</t>
   </si>
   <si>
-    <t>1312641614-1313832048-1313680629</t>
-  </si>
-  <si>
-    <t>VELIZ ALVAREZ NEY NABOR, ANDRADE HOLGUIN GABRIEL, PINARGOTE ALCIVAR GABRIEL</t>
+    <t>1309297511-1309618534</t>
+  </si>
+  <si>
+    <t>HOLGUIN ESPINOZA FERNANDO FRANCISCO, HOLGUIN ESPINOZA FABRICIO ALBERTO</t>
   </si>
   <si>
     <t>FAM059</t>
   </si>
   <si>
+    <t>1313680629-1312641614-1313832048</t>
+  </si>
+  <si>
+    <t>PINARGOTE ALCIVAR GABRIEL, VELIZ ALVAREZ NEY NABOR, ANDRADE HOLGUIN GABRIEL</t>
+  </si>
+  <si>
+    <t>FAM060</t>
+  </si>
+  <si>
     <t>2300026230-1723831085</t>
   </si>
   <si>
     <t>GAIBOR GOMEZ ADRIAN, GOMEZ OMAR GAIBOR</t>
   </si>
   <si>
-    <t>FAM060</t>
-  </si>
-  <si>
-    <t>1305212332-1311523375</t>
-  </si>
-  <si>
-    <t>CEVALLOS MERA WALBERTO RICARDO, CEVALLOS QUIROZ MIGUEL ANGEL</t>
-  </si>
-  <si>
     <t>FAM061</t>
   </si>
   <si>
-    <t>1307542587-1306305762</t>
-  </si>
-  <si>
-    <t>LEON TRAVERSO MANUEL EDUARDO, TRAVERSO MONTALVO VICTOR HUGO</t>
+    <t>1311523375-1305212332</t>
+  </si>
+  <si>
+    <t>CEVALLOS QUIROZ MIGUEL ANGEL, CEVALLOS MERA WALBERTO RICARDO</t>
   </si>
   <si>
     <t>FAM062</t>
   </si>
   <si>
-    <t>1309514691-SIN_CED</t>
-  </si>
-  <si>
-    <t>MERO CHAVEZ RENE RICARDO, MERO JOSE</t>
+    <t>1306305762-1307542587</t>
+  </si>
+  <si>
+    <t>TRAVERSO MONTALVO VICTOR HUGO, LEON TRAVERSO MANUEL EDUARDO</t>
   </si>
   <si>
     <t>FAM063</t>
   </si>
   <si>
+    <t>SIN_CED-1309514691</t>
+  </si>
+  <si>
+    <t>MERO JOSE, MERO CHAVEZ RENE RICARDO</t>
+  </si>
+  <si>
+    <t>FAM064</t>
+  </si>
+  <si>
     <t>SIN_CED-1312520842</t>
   </si>
   <si>
     <t>PALMA EDGAR, PALMA MACIAS JONATHAN RAMON</t>
   </si>
   <si>
-    <t>FAM064</t>
-  </si>
-  <si>
-    <t>1308780624-SIN_CED</t>
-  </si>
-  <si>
-    <t>MEZA ALCIVAR JOFFRE HERNAN, ALCIVAR JAVIER</t>
-  </si>
-  <si>
     <t>FAM065</t>
   </si>
   <si>
+    <t>SIN_CED-1308780624</t>
+  </si>
+  <si>
+    <t>ALCIVAR JAVIER, MEZA ALCIVAR JOFFRE HERNAN</t>
+  </si>
+  <si>
+    <t>FAM066</t>
+  </si>
+  <si>
     <t>SIN_CED-1715166169</t>
   </si>
   <si>
     <t>GUAMAN ALISON, INAPANTA INAPANTA LUIS HUMBERTO</t>
   </si>
   <si>
-    <t>FAM066</t>
+    <t>FAM067</t>
   </si>
   <si>
     <t>1309237863-1309814752</t>
@@ -643,121 +652,112 @@
     <t>BARBERAN ZAMBRANO ELIAS, TIGUA GUTIERRES LEONIDAS JAVIER</t>
   </si>
   <si>
-    <t>FAM067</t>
-  </si>
-  <si>
-    <t>1310841364-1309899225-1310102304-1307694990</t>
-  </si>
-  <si>
-    <t>BOZADA GARCIA ALEXANDER XAVIER, OROZCO DELGADO CESAR GONZALO, PENAFIEL PEREZ ANGEL EDDER, LUCAS ROSADO DARWIN JAVIER</t>
-  </si>
-  <si>
     <t>FAM068</t>
   </si>
   <si>
-    <t>1312242785-1307522233-1311305302</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA LOPEZ KARINA ROCIO, ANCHUNDIA PILLIGUA JOSE ANTONIO, ANCHUNDIA LOPEZ DANIEL MODESTO</t>
+    <t>1309899225-1307694990-1310102304-1310841364</t>
+  </si>
+  <si>
+    <t>OROZCO DELGADO CESAR GONZALO, LUCAS ROSADO DARWIN JAVIER, PENAFIEL PEREZ ANGEL EDDER, BOZADA GARCIA ALEXANDER XAVIER</t>
   </si>
   <si>
     <t>FAM069</t>
   </si>
   <si>
-    <t>1312276684-1306309897-1308360922</t>
-  </si>
-  <si>
-    <t>PINARGOTE CANO PATRICIO, ALAVA CANO WASHINGTON JOEL, PINARGOTE ZAMORA AUGUSTO WALBERTO</t>
+    <t>1311305302-1312242785-1307522233</t>
+  </si>
+  <si>
+    <t>ANCHUNDIA LOPEZ DANIEL MODESTO, ANCHUNDIA LOPEZ KARINA ROCIO, ANCHUNDIA PILLIGUA JOSE ANTONIO</t>
   </si>
   <si>
     <t>FAM070</t>
   </si>
   <si>
-    <t>1309475992-1312509316-SIN_CED</t>
-  </si>
-  <si>
-    <t>PELAEZ SILVA JAVIER AUGUSTO, PELAEZ SANCHEZ LEONARDO JAVIER, PELAEZ SANCHEZ EDUARDO JAVIER</t>
+    <t>1312276684-1308360922-1306309897</t>
+  </si>
+  <si>
+    <t>PINARGOTE CANO PATRICIO, PINARGOTE ZAMORA AUGUSTO WALBERTO, ALAVA CANO WASHINGTON JOEL</t>
   </si>
   <si>
     <t>FAM071</t>
   </si>
   <si>
-    <t>1307542231-1304228891</t>
-  </si>
-  <si>
-    <t>PALMA GARCIA ALBERTO FABRICIO, BARCIA PALMA JOSE BALDOMERO</t>
+    <t>1312509316-SIN_CED-1309475992</t>
+  </si>
+  <si>
+    <t>PELAEZ SANCHEZ LEONARDO JAVIER, PELAEZ SANCHEZ EDUARDO JAVIER, PELAEZ SILVA JAVIER AUGUSTO</t>
   </si>
   <si>
     <t>FAM072</t>
   </si>
   <si>
-    <t>1309438925-1709259319-1204970196</t>
-  </si>
-  <si>
-    <t>MOREIRA VITE JOSE, CORONEL INTRIAGO JOSE VICENTE, CORONEL INTRIAGO MARTIN</t>
+    <t>1304228891-1307542231</t>
+  </si>
+  <si>
+    <t>BARCIA PALMA JOSE BALDOMERO, PALMA GARCIA ALBERTO FABRICIO</t>
   </si>
   <si>
     <t>FAM073</t>
   </si>
   <si>
-    <t>1720650603-1205785239-1718768656-929032019</t>
-  </si>
-  <si>
-    <t>CAMPANA CHIRIBOGA ROMULO FERNANDO, BARRE SALTOS JOSE LEONARDO, CAMPANA CHIRIBOGA NANCY MARIBEL, BARRE ZAMORA BRYAN EDUARDO</t>
+    <t>1709259319-1204970196-1309438925</t>
+  </si>
+  <si>
+    <t>CORONEL INTRIAGO JOSE VICENTE, CORONEL INTRIAGO MARTIN, MOREIRA VITE JOSE</t>
   </si>
   <si>
     <t>FAM074</t>
   </si>
   <si>
-    <t>1309746863-130755151</t>
-  </si>
-  <si>
-    <t>SALTOS BRAVO ASUNCION, SAFADI PALACIOS GONZALO</t>
+    <t>1205785239-929032019-1718768656-1720650603</t>
+  </si>
+  <si>
+    <t>BARRE SALTOS JOSE LEONARDO, BARRE ZAMORA BRYAN EDUARDO, CAMPANA CHIRIBOGA NANCY MARIBEL, CAMPANA CHIRIBOGA ROMULO FERNANDO</t>
   </si>
   <si>
     <t>FAM075</t>
   </si>
   <si>
+    <t>130755151-1309746863</t>
+  </si>
+  <si>
+    <t>SAFADI PALACIOS GONZALO, SALTOS BRAVO ASUNCION</t>
+  </si>
+  <si>
+    <t>FAM076</t>
+  </si>
+  <si>
     <t>1306023563-1309021473</t>
   </si>
   <si>
     <t>QUIMIS GUTIERREZ ASDRUBAL, PIN QUIMIS JOSE SEGUNDO</t>
   </si>
   <si>
-    <t>FAM076</t>
-  </si>
-  <si>
-    <t>1311438764-1308264421</t>
-  </si>
-  <si>
-    <t>COTERA INTRIAGO FRANCISCO ANTONIO, RIOS CARVAJAL AGUSTIN</t>
-  </si>
-  <si>
     <t>FAM077</t>
   </si>
   <si>
-    <t>1307415099-1309666913-1309915013</t>
-  </si>
-  <si>
-    <t>ROCA LUCAS RAFFELO AGUSTIN, MERO LUCAS ALBERTO, LUCAS FLORES JOSE LUIS</t>
+    <t>1308264421-1311438764</t>
+  </si>
+  <si>
+    <t>RIOS CARVAJAL AGUSTIN, COTERA INTRIAGO FRANCISCO ANTONIO</t>
   </si>
   <si>
     <t>FAM078</t>
   </si>
   <si>
-    <t>1312502071-1308726155-1307223790-1307741585</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA ANCHUNDIA MANUEL RUBEN, PANTA ANCHUNDIA ALBERTO, ANCHUNDIA NEVAREZ LUIS GREGORIO, PANTA ANCHUNDIA JOSE RICARDO</t>
+    <t>1309915013-1307415099-1309666913</t>
+  </si>
+  <si>
+    <t>LUCAS FLORES JOSE LUIS, ROCA LUCAS RAFFELO AGUSTIN, MERO LUCAS ALBERTO</t>
   </si>
   <si>
     <t>FAM079</t>
   </si>
   <si>
-    <t>SIN_CED-1711029551-1712397130</t>
-  </si>
-  <si>
-    <t>ANDRADE VERA HOMERO, PAULO HOMERO VERA, ANDRADE VERA ANGELA EVELIN</t>
+    <t>1712397130-1711029551</t>
+  </si>
+  <si>
+    <t>ANDRADE VERA ANGELA EVELIN, PAULO HOMERO VERA</t>
   </si>
   <si>
     <t>FAM080</t>
@@ -772,19 +772,19 @@
     <t>FAM081</t>
   </si>
   <si>
-    <t>1308445533-1306323567</t>
-  </si>
-  <si>
-    <t>SANTANA FLORES MARCOS ANTONIO, SANTANA PIGUAVE VICENTE RIGOBERTO</t>
+    <t>1306323567-1308445533</t>
+  </si>
+  <si>
+    <t>SANTANA PIGUAVE VICENTE RIGOBERTO, SANTANA FLORES MARCOS ANTONIO</t>
   </si>
   <si>
     <t>FAM082</t>
   </si>
   <si>
-    <t>1306291590-1311343469-1309943593</t>
-  </si>
-  <si>
-    <t>MERO PALMA MAXIMILIANO, BOTINES CARRENO ALEJANDRO JEREMIAS, PENAFIEL MACIAS JOSE LEONEL</t>
+    <t>1311343469-1309943593-1306291590</t>
+  </si>
+  <si>
+    <t>BOTINES CARRENO ALEJANDRO JEREMIAS, PENAFIEL MACIAS JOSE LEONEL, MERO PALMA MAXIMILIANO</t>
   </si>
   <si>
     <t>FAM083</t>
@@ -793,7 +793,7 @@
     <t>SIN_CED-1306474436</t>
   </si>
   <si>
-    <t>MERO WILLIAM, CASTRO MOREIRA WASHINGTON ORLEY</t>
+    <t>MERO WILLIAM, CASTRO MOREIRA ORLEY WASHINGTON</t>
   </si>
   <si>
     <t>FAM084</t>
@@ -817,19 +817,19 @@
     <t>FAM086</t>
   </si>
   <si>
-    <t>1304271123-1306294164</t>
-  </si>
-  <si>
-    <t>CHAVEZ SANTANA RAMON ENRIQUE, VERA TOALA GLADYS DOLORES</t>
+    <t>1306294164-1304271123</t>
+  </si>
+  <si>
+    <t>VERA TOALA GLADYS DOLORES, CHAVEZ SANTANA RAMON ENRIQUE</t>
   </si>
   <si>
     <t>FAM087</t>
   </si>
   <si>
-    <t>1309951265-941407041-1315330819</t>
-  </si>
-  <si>
-    <t>PIGUAVE FLORES RAFAEL, MERA LEON LUIS FERNANDO, CASTRO PIGUAVE FABRICIO ALBERTO</t>
+    <t>941407041-1309951265-1315330819</t>
+  </si>
+  <si>
+    <t>MERA LEON LUIS FERNANDO, PIGUAVE FLORES RAFAEL, CASTRO PIGUAVE FABRICIO ALBERTO</t>
   </si>
   <si>
     <t>FAM088</t>
@@ -844,10 +844,10 @@
     <t>FAM089</t>
   </si>
   <si>
-    <t>1710919182-1712462173</t>
-  </si>
-  <si>
-    <t>CHUGCHILAN LARA ANGEL ARCADIO, CHUGCHILAN CHAVEZ MARIA GRETA</t>
+    <t>1712462173-1710919182</t>
+  </si>
+  <si>
+    <t>CHUGCHILAN CHAVEZ MARIA GRETA, CHUGCHILAN LARA ANGEL ARCADIO</t>
   </si>
   <si>
     <t>FAM090</t>
@@ -862,28 +862,28 @@
     <t>FAM091</t>
   </si>
   <si>
-    <t>1312001900-1313597278-1312001918-1312266297</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA ACOSTA JOSE CELESTINO, MANTUANOS CARLOS LUCAS, ANCHUNDIA ACOSTA GABRIEL, ANCHUNDIA ANCHUNDIA LUIS ALBERTO</t>
+    <t>1313597278-1312266297-1312001900-1312001918</t>
+  </si>
+  <si>
+    <t>MANTUANOS CARLOS LUCAS, ANCHUNDIA ANCHUNDIA LUIS ALBERTO, ANCHUNDIA ACOSTA JOSE CELESTINO, ANCHUNDIA ACOSTA GABRIEL</t>
   </si>
   <si>
     <t>FAM092</t>
   </si>
   <si>
-    <t>SIN_CED-1306603117-401564653-1307352722-SIN_CED</t>
-  </si>
-  <si>
-    <t>BRIONES BERMELLO JOSE ISAIAS, BRIONES BERMELLO VICTOR JULIAN, MORILLO CARDENAS NATHALIE SARAHI, BRIONES BRIONES DEXI LILI, BRIONES BERMELLO JOSE LAURO</t>
+    <t>SIN_CED-SIN_CED-401564653-1307352722-1306603117</t>
+  </si>
+  <si>
+    <t>BRIONES BERMELLO JOSE ISAIAS, BRIONES BERMELLO JOSE LAURO, MORILLO CARDENAS NATHALIE SARAHI, BRIONES BRIONES DEXI LILI, BRIONES BERMELLO VICTOR JULIAN</t>
   </si>
   <si>
     <t>FAM093</t>
   </si>
   <si>
-    <t>1310954340-1311786204-SIN_CED</t>
-  </si>
-  <si>
-    <t>RIVERA ALONZO FERNANDO, VELEZ VERA VINICIO VICENTE, ADOLFO FERNANDO ALONZO</t>
+    <t>1311786204-SIN_CED-1310954340</t>
+  </si>
+  <si>
+    <t>VELEZ VERA VINICIO VICENTE, ADOLFO FERNANDO ALONZO, RIVERA ALONZO FERNANDO</t>
   </si>
   <si>
     <t>FAM094</t>
@@ -910,16 +910,16 @@
     <t>1718147802-1309246070-1207209634-1708408750</t>
   </si>
   <si>
-    <t>ZAMBRANO COBENA EDGAR ANTONIO, ZAMBRANO COBENA WASHINGTON FERNANDO, PATINO IZA JAVIER VICENTE, SOLORZANO GUSMAN ANDRES GERALDO</t>
+    <t>ZAMBRANO COBENA EDGAR ANTONIO, ZAMBRANO COBENA WASHINGTON FERNANDO, PATINO IZA VICENTE JAVIER, SOLORZANO GUZMAN ANDRES GERALDO</t>
   </si>
   <si>
     <t>FAM097</t>
   </si>
   <si>
-    <t>SIN_CED-1309659991-1308993557</t>
-  </si>
-  <si>
-    <t>CANTOS CUENCA RAMON, MACIAS CANTOS JUAN CAMILO, CANTOS CUENCAS ALADINO</t>
+    <t>1308993557-1309659991</t>
+  </si>
+  <si>
+    <t>CANTOS CUENCA RAMON, MACIAS CANTOS JUAN CAMILO</t>
   </si>
   <si>
     <t>FAM098</t>
@@ -934,10 +934,10 @@
     <t>FAM099</t>
   </si>
   <si>
-    <t>1308731908-1310496136-SIN_CED</t>
-  </si>
-  <si>
-    <t>SANTIAGO QUIROZ GEOVANNY, PIGUAVE SUAREZ ESMERITA, QUIROZ ALCIVAR SANTIAGO</t>
+    <t>1308731908-1310496136</t>
+  </si>
+  <si>
+    <t>QUIROZ ALCIVAR SANTIAGO, PIGUAVE SUAREZ ESMERITA</t>
   </si>
   <si>
     <t>FAM100</t>
@@ -952,37 +952,37 @@
     <t>FAM101</t>
   </si>
   <si>
-    <t>1303854861-1306298298</t>
-  </si>
-  <si>
-    <t>POSLIGUA TAPIA JOSE EUFEMIA, POSLIGUA HOLGUIN WILSON ENRIQUE</t>
+    <t>1306298298-1303854861</t>
+  </si>
+  <si>
+    <t>POSLIGUA HOLGUIN WILSON ENRIQUE, POSLIGUA TAPIA JOSE EUFEMIA</t>
   </si>
   <si>
     <t>FAM102</t>
   </si>
   <si>
-    <t>1312045972-1715780027-SIN_CED-2300420078-2300821499</t>
-  </si>
-  <si>
-    <t>MENDOZA CEVALLOS LUIS GABRIEL, LOOR COOL ROLANDO MAURICIO, LOOR GUTIERREZ MAURICIO, LOOR GUTIERREZ ROSA MICHELLE, ALCIVAR QUINONEZ MIGUEL ANGEL</t>
+    <t>2300821499-1312045972-1715780027-2300420078</t>
+  </si>
+  <si>
+    <t>ALCIVAR QUINONEZ MIGUEL ANGEL, MENDOZA CEVALLOS LUIS GABRIEL, LOOR COOL ROLANDO MAURICIO, LOOR GUTIERREZ ROSA MICHELLE</t>
   </si>
   <si>
     <t>FAM103</t>
   </si>
   <si>
-    <t>1313669366-1313191205-1312158668</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA LUCAS MANUEL, ANCHUNDIA LUCAS ALEXI, MERO ANCHUNDIA JUAN CARLOS</t>
+    <t>1312158668-1313669366-1313191205</t>
+  </si>
+  <si>
+    <t>MERO ANCHUNDIA JUAN CARLOS, ANCHUNDIA LUCAS MANUEL, ANCHUNDIA LUCAS ALEXI</t>
   </si>
   <si>
     <t>FAM104</t>
   </si>
   <si>
-    <t>1305635847-1305170803-SIN_CED</t>
-  </si>
-  <si>
-    <t>MERA SORNOZA LAUDINO MARCELINO, MERA ALCIVAR FILE, MERA ALCIVAR N</t>
+    <t>1305170803-1305635847-SIN_CED</t>
+  </si>
+  <si>
+    <t>MERA ALCIVAR FILE, MERA SORNOZA LAUDINO MARCELINO, MERA ALCIVAR N</t>
   </si>
   <si>
     <t>FAM105</t>
@@ -997,55 +997,55 @@
     <t>FAM106</t>
   </si>
   <si>
-    <t>1306377845-1307347508</t>
-  </si>
-  <si>
-    <t>ANDRADE PALMA LEONIDAS, PALMA CARRENO JIMMY LEONARDO</t>
+    <t>1307347508-1306377845</t>
+  </si>
+  <si>
+    <t>PALMA CARRENO JIMMY LEONARDO, ANDRADE PALMA LEONIDAS</t>
   </si>
   <si>
     <t>FAM107</t>
   </si>
   <si>
-    <t>1314613983-1305601203</t>
-  </si>
-  <si>
-    <t>LOPEZ ANCHUNDIA JONNY MANUEL, LOPEZ PALMA PABLO ELOY</t>
+    <t>1305601203-1314613983</t>
+  </si>
+  <si>
+    <t>LOPEZ PALMA PABLO ELOY, LOPEZ ANCHUNDIA JONNY MANUEL</t>
   </si>
   <si>
     <t>FAM108</t>
   </si>
   <si>
-    <t>1715399067-1721721940</t>
-  </si>
-  <si>
-    <t>GILER PARRALES RUTH VERONICA, GILER PARRALES HUMBERTO</t>
+    <t>1721721940-1715399067</t>
+  </si>
+  <si>
+    <t>GILER PARRALES HUMBERTO, GILER PARRALES RUTH VERONICA</t>
   </si>
   <si>
     <t>FAM109</t>
   </si>
   <si>
-    <t>1315209534-SIN_CED-1304852203</t>
-  </si>
-  <si>
-    <t>PALMA TUAREZ KENNEDY ALEXANDER, PALMA JHONNY, LOPEZ FLORES ROBERTO IGNACIO</t>
+    <t>1304852203-SIN_CED-1315209534</t>
+  </si>
+  <si>
+    <t>LOPEZ FLORES ROBERTO IGNACIO, PALMA JHONNY, PALMA TUAREZ KENNEDY ALEXANDER</t>
   </si>
   <si>
     <t>FAM110</t>
   </si>
   <si>
-    <t>1309943858-SIN_CED-1713094504-1310591464</t>
-  </si>
-  <si>
-    <t>CEVALLOS QUIMI SIXTO NERY, CEVALLOS QUIMI NERY CEVALLOS, PAREDES ALONSO FRANKLIN DIONICIO, CEVALLOS QUIMI DIMAS OMAR</t>
+    <t>1309943858-1310591464-SIN_CED-1713094504</t>
+  </si>
+  <si>
+    <t>CEVALLOS QUIMI SIXTO NERY, CEVALLOS QUIMI DIMAS OMAR, CEVALLOS QUIMI NERY CEVALLOS, PAREDES ALONSO FRANKLIN DIONICIO</t>
   </si>
   <si>
     <t>FAM111</t>
   </si>
   <si>
-    <t>1310387327-1308291887</t>
-  </si>
-  <si>
-    <t>PALMA AGUAYO NESTOR REMBERTO, ESPINAL PALMA RAFFAEL</t>
+    <t>1308291887-1310387327</t>
+  </si>
+  <si>
+    <t>ESPINAL PALMA RAFFAEL, PALMA AGUAYO NESTOR REMBERTO</t>
   </si>
   <si>
     <t>FAM112</t>
@@ -1069,10 +1069,10 @@
     <t>FAM114</t>
   </si>
   <si>
-    <t>1314530989-1312465097</t>
-  </si>
-  <si>
-    <t>PALMA FLORES GISSELLA, DELGADO BORRERO JONATHAN MIGUEL</t>
+    <t>1312465097-1314530989</t>
+  </si>
+  <si>
+    <t>DELGADO BORRERO JONATHAN MIGUEL, PALMA FLORES GISSELLA</t>
   </si>
   <si>
     <t>FAM115</t>
@@ -1087,10 +1087,10 @@
     <t>FAM116</t>
   </si>
   <si>
-    <t>1309956777-SIN_CED</t>
-  </si>
-  <si>
-    <t>TIGUA BAILON ITALO WILMER, CAIZA VELOZ ANIVAL</t>
+    <t>SIN_CED-1309956777</t>
+  </si>
+  <si>
+    <t>CAIZA VELOZ ANIVAL, TIGUA BAILON ITALO WILMER</t>
   </si>
   <si>
     <t>FAM117</t>
@@ -1108,7 +1108,7 @@
     <t>1308173606-1308852761</t>
   </si>
   <si>
-    <t>BRIONES MOSQUERA ERNESTO NICANOR, BAILON CUENCA PAULO CESAR</t>
+    <t>BRIONES MOSQUERA ERNESTO NICANOR, BAILON CUENTA PAULO CESAR</t>
   </si>
   <si>
     <t>FAM119</t>
@@ -1132,37 +1132,37 @@
     <t>FAM121</t>
   </si>
   <si>
-    <t>1306567585-SIN_CED</t>
-  </si>
-  <si>
-    <t>AMPUERO MANTUANO ENA HERMILDA, QUIJIJE ELVIS</t>
+    <t>SIN_CED-1306567585</t>
+  </si>
+  <si>
+    <t>QUIJIJE ELVIS, AMPUERO MANTUANO ENA HERMILDA</t>
   </si>
   <si>
     <t>FAM122</t>
   </si>
   <si>
-    <t>SIN_CED-1102743992-1716321243</t>
-  </si>
-  <si>
-    <t>TANIA DOLORES SABANDO, HERRERA LALANGUI SIDNEY, SINCHIGUANO SABANDO DOLORES</t>
+    <t>1716321243-SIN_CED-1102743992</t>
+  </si>
+  <si>
+    <t>SINCHIGUANO SABANDO DOLORES, TANIA DOLORES SABANDO, HERRERA LALANGUI SIDNEY</t>
   </si>
   <si>
     <t>FAM123</t>
   </si>
   <si>
-    <t>1309037370-1313197632</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA QUIJIJE LEOPOLDO, LOPEZ ANCHUNDIA VICTOR ERASMO</t>
+    <t>1313197632-1309037370</t>
+  </si>
+  <si>
+    <t>LOPEZ ANCHUNDIA VICTOR ERASMO, ANCHUNDIA QUIJIJE LEOPOLDO</t>
   </si>
   <si>
     <t>FAM124</t>
   </si>
   <si>
-    <t>928516509-1711409043</t>
-  </si>
-  <si>
-    <t>DEMERA ZAMBRANO MANUEL GABRIEL, ZAMBRANO PARRAGA MARIBEL</t>
+    <t>1711409043-928516509</t>
+  </si>
+  <si>
+    <t>ZAMBRANO PARRAGA MARIBEL, DEMERA ZAMBRANO MANUEL GABRIEL</t>
   </si>
   <si>
     <t>FAM125</t>
@@ -1186,1207 +1186,1207 @@
     <t>FAM127</t>
   </si>
   <si>
-    <t>1309991667-SIN_CED-1313244624</t>
-  </si>
-  <si>
-    <t>LOPEZ LOOR LEONARDO, LOOEZ LOOR CARLOS ANTONIO, LOPEZ LOOR ANTONIO</t>
+    <t>SIN_CED-1313244624-1309991667</t>
+  </si>
+  <si>
+    <t>LOOEZ LOOR CARLOS ANTONIO, LOPEZ LOOR ANTONIO, LOPEZ LOOR LEONARDO</t>
   </si>
   <si>
     <t>FAM128</t>
   </si>
   <si>
-    <t>1313463083-1313594309</t>
-  </si>
-  <si>
-    <t>MACIAS SOLEDISPA JOAO ANDRES, PONCE CARRILLO RAMON JOSE</t>
+    <t>1313594309-1313463083</t>
+  </si>
+  <si>
+    <t>PONCE CARRILLO RAMON JOSE, MACIAS SOLEDISPA JOAO ANDRES</t>
   </si>
   <si>
     <t>FAM129</t>
   </si>
   <si>
-    <t>1313062349-1310450273-1307254902</t>
-  </si>
-  <si>
-    <t>DELGADO ANCHUNDIA LUIS JAVIER, ANCHUNDIA ANCHUNDIA VICTOR EDUARDO, ANCHUNDIA DELGADO CALIXTO MARCIAL</t>
+    <t>1314466523-1314892249</t>
+  </si>
+  <si>
+    <t>PALMA ANCHUNDIA STALIN ALEXI, ALVIA LUCAS ANDRES</t>
   </si>
   <si>
     <t>FAM130</t>
   </si>
   <si>
-    <t>1314466523-1314892249</t>
-  </si>
-  <si>
-    <t>PALMA ANCHUNDIA STALIN ALEXI, ALVIA LUCAS ANDRES</t>
+    <t>1312331646-1312273038-SIN_CED</t>
+  </si>
+  <si>
+    <t>ZAMBRANO PONCE CINTHIA, ZAMBRANO MERO DAVID FERNANDO, ZAMBRAMO CINTIA</t>
   </si>
   <si>
     <t>FAM131</t>
   </si>
   <si>
-    <t>SIN_CED-1312331646-1312273038</t>
-  </si>
-  <si>
-    <t>ZAMBRAMO CINTIA, ZAMBRANO PONCE CINTHIA, ZAMBRANO MERO DAVID FERNANDO</t>
+    <t>SIN_CED-2350457442-1724711443</t>
+  </si>
+  <si>
+    <t>MERO MERO RICHARD VINICIO, SOLORZANO ZAMBRANO KATHERINE ALEJANDRA, MOLINA MERO CRISTHIAN WASHINGTON</t>
   </si>
   <si>
     <t>FAM132</t>
   </si>
   <si>
-    <t>1724711443-2350457442-SIN_CED</t>
-  </si>
-  <si>
-    <t>MOLINA MERO CRISTHIAN WASHINGTON, SOLORZANO ZAMBRANO KATHERINE ALEJANDRA, MERO MERO RICHARD VINICIO</t>
+    <t>1309624185-1309198925-1311725699</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ SALAZAR OSCAR, SALAZAR MERA RAMON, PINOARGOTE SALAZAR FAUSTO JAVIER</t>
   </si>
   <si>
     <t>FAM133</t>
   </si>
   <si>
-    <t>1311725699-1309624185-1309198925</t>
-  </si>
-  <si>
-    <t>PINOARGOTE SALAZAR FAUSTO JAVIER, RODRIGUEZ SALAZAR OSCAR, SALAZAR MERA RAMON</t>
+    <t>SIN_CED-1714528807-SIN_CED-1714771191</t>
+  </si>
+  <si>
+    <t>DAVILA JARAMILLO MANUEL MARCELO, MERA CABO KLEVER JAVIER, MERA DAVILA JAVIER, DAVILA JARAMILLO JIMENA MARGARITA</t>
   </si>
   <si>
     <t>FAM134</t>
   </si>
   <si>
-    <t>SIN_CED-1714528807-1714771191-SIN_CED</t>
-  </si>
-  <si>
-    <t>DAVILA JARAMILLO MANUEL MARCELO, MERA CABO KLEBER JAVIER, DAVILA JARAMILLO JIMENA MARGARITA, MERA DAVILA JAVIER</t>
+    <t>1715392633-2350599292</t>
+  </si>
+  <si>
+    <t>PALMA MARCILLO ORLEY FABIAN, GOROZABEL PALMA ROBINSON JOSE</t>
   </si>
   <si>
     <t>FAM135</t>
   </si>
   <si>
-    <t>2350599292-1715392633</t>
-  </si>
-  <si>
-    <t>GOROZABEL PALMA ROBINSON JOSE, PALMA MARCILLO ORLEY FABIAN</t>
+    <t>1205565938-SIN_CED</t>
+  </si>
+  <si>
+    <t>OLIVO VIDAL STEVEN EFRAIN, OLIVO NIETO RUBEN</t>
   </si>
   <si>
     <t>FAM136</t>
   </si>
   <si>
-    <t>SIN_CED-1205565938</t>
-  </si>
-  <si>
-    <t>OLIVO NIETO RUBEN, OLIVO VIDAL STEVEN EFRAIN</t>
+    <t>1723777510-1313175596</t>
+  </si>
+  <si>
+    <t>SALTOS CEVALLOS ERMENCIA, ALCIVAR CEVALLOS ALEJANDRO</t>
   </si>
   <si>
     <t>FAM137</t>
   </si>
   <si>
-    <t>1313175596-1723777510</t>
-  </si>
-  <si>
-    <t>ALCIVAR CEVALLOS ALEJANDRO, SALTOS CEVALLOS ERMENCIA</t>
+    <t>1716497381-804605137-1717860108</t>
+  </si>
+  <si>
+    <t>VELEZ SANCLEMENTE MIGUEL, VELEZ VEAS BRYAN ANTHONY, BRIONES VELEZ CRISTIAN ALEXANDER</t>
   </si>
   <si>
     <t>FAM138</t>
   </si>
   <si>
-    <t>804605137-1716497381-1717860108</t>
-  </si>
-  <si>
-    <t>VELEZ VEAS BRYAN ANTHONY, VELEZ SANCLEMENTE MIGUEL, BRIONES VELEZ CRISTIAN ALEXANDER</t>
+    <t>1715324529-1719789065</t>
+  </si>
+  <si>
+    <t>PULLUPAXI TIRADO HUMBERTO, PULLUPAXI TIRADO ROLANDO</t>
   </si>
   <si>
     <t>FAM139</t>
   </si>
   <si>
-    <t>1715324529-1719789065</t>
-  </si>
-  <si>
-    <t>PULLUPAXI TIRADO HUMBERTO, PULLUPAXI TIRADO ROLANDO</t>
+    <t>1718669334-1709561169</t>
+  </si>
+  <si>
+    <t>CHAVEZ PULIAS ALEXANDER RUBEN, CHAVEZ LOPEZ RUBEN</t>
   </si>
   <si>
     <t>FAM140</t>
   </si>
   <si>
-    <t>1718669334-1709561169</t>
-  </si>
-  <si>
-    <t>CHAVEZ PULIAS ALEXANDER RUBEN, CHAVEZ LOPEZ RUBEN</t>
+    <t>804201051-1308909546-SIN_CED</t>
+  </si>
+  <si>
+    <t>REYES CARBO LEONARDO, PEREZ ACOSTA DIOMEDES AUGUSTO, REYES CARBO ISMAEL RICARDO</t>
   </si>
   <si>
     <t>FAM141</t>
   </si>
   <si>
-    <t>1308909546-SIN_CED-804201051</t>
-  </si>
-  <si>
-    <t>PEREZ ACOSTA DIOMEDES AUGUSTO, REYES CARBO ISMAEL RICARDO, REYES CARBO LEONARDO</t>
+    <t>1719669143-1715873343</t>
+  </si>
+  <si>
+    <t>MASACHE SARANGO ENRIQUE, MASACHE SARANGO LORENZO</t>
   </si>
   <si>
     <t>FAM142</t>
   </si>
   <si>
-    <t>1719669143-1715873343</t>
-  </si>
-  <si>
-    <t>MASACHE SARANGO ENRIQUE, MASACHE SARANGO LORENZO</t>
+    <t>802439133-802439174</t>
+  </si>
+  <si>
+    <t>BRAVO CEVALLOS GUSTAVO, BRAVO CEVALLOS RAFAEL</t>
   </si>
   <si>
     <t>FAM143</t>
   </si>
   <si>
-    <t>802439174-802439133</t>
-  </si>
-  <si>
-    <t>BRAVO CEVALLOS RAFAEL, BRAVO CEVALLOS GUSTAVO</t>
+    <t>1308284692-1310133747</t>
+  </si>
+  <si>
+    <t>ZAMBRANO REYNA ESTENIO LENNY, MACIAS QUIROZ JOSE MAVILO</t>
   </si>
   <si>
     <t>FAM144</t>
   </si>
   <si>
-    <t>1310133747-1308284692</t>
-  </si>
-  <si>
-    <t>MACIAS QUIROZ JOSE MAVILO, ZAMBRANO REYNA ESTENIO LENNY</t>
+    <t>1309196606-1306477645-1312924085</t>
+  </si>
+  <si>
+    <t>MACIAS DELGADO CARLOS ALBERTO, MACIAS QUIROZ ROMY BRYAN, ZAMORA MACIAS ARIEL ALEXANDER</t>
   </si>
   <si>
     <t>FAM145</t>
   </si>
   <si>
-    <t>1309196606-SIN_CED-803989979-SIN_CED-1712543725-1306477645-802990440-1312924085-802942987</t>
-  </si>
-  <si>
-    <t>MACIAS DELGADO CARLOS ALBERTO, DELGADO MINA EDUARDO LUIS, SANTOS GONZALEZ RICARDO ALBERTO, DELGADO MINA LANDYS YOJANA, DELGADO MINA HILDA YANET, MACIAS QUIROZ ROMY BRYAN, RUA CAICEDO FREEDY ALBERTO, ZAMORA MACIAS ARIEL ALEXANDER, VACA ANGULO GUIDO FERNANDO</t>
+    <t>1312843665-1306328640</t>
+  </si>
+  <si>
+    <t>MOREIRA BARCIA DOUGLAS, BARBERAN ORTEGA WILLIAM</t>
   </si>
   <si>
     <t>FAM146</t>
   </si>
   <si>
-    <t>1306328640-1312843665</t>
-  </si>
-  <si>
-    <t>BARBERAN ORTEGA WILIIAM, MOREIRA BARCIA DOUGLAS</t>
+    <t>1309637567-1717289316</t>
+  </si>
+  <si>
+    <t>VELIZ PARRAGA DIMAS EUDORO, TOAREZ CEDENO ANTONIO</t>
   </si>
   <si>
     <t>FAM147</t>
   </si>
   <si>
-    <t>1717289316-1309637567</t>
-  </si>
-  <si>
-    <t>TOAREZ CEDENO ANTONIO, VELIZ PARRAGA DIMAS EUDORO</t>
+    <t>1307063295-802065425</t>
+  </si>
+  <si>
+    <t>PUENTES INTRIAGO HOMERO, PUENTE INTRIAGO HOMERO</t>
   </si>
   <si>
     <t>FAM148</t>
   </si>
   <si>
-    <t>802065425-1307063295</t>
-  </si>
-  <si>
-    <t>PUENTE INTRIAGO HOMERO, PUENTES INTRIEGO ERNESTO</t>
+    <t>1312284209-1310778558</t>
+  </si>
+  <si>
+    <t>MACIAS VILLEGAS TAYRON STALIN, ALONZO VILLEGAS MIGUEL</t>
   </si>
   <si>
     <t>FAM149</t>
   </si>
   <si>
-    <t>1312284209-1310778558</t>
-  </si>
-  <si>
-    <t>MACIAS VILLEGAS TAYRON STALIN, ALONZO VILLEGAS MIGUEL</t>
+    <t>1723101877-804227627-804225811-802140921-801818105</t>
+  </si>
+  <si>
+    <t>TAPIA CHAVEZ JOSE LUIS, CEDENO TOALA CRISTINA CECILIA, GARCIA CHAVEZ KELVIN RENAN, CEDENO ESTRADA DAVID ENRIQUE, TAPIA PALACIOS EDGAR HORACIO</t>
   </si>
   <si>
     <t>FAM150</t>
   </si>
   <si>
-    <t>801818105-802140921-804227627-804225811-1723101877</t>
-  </si>
-  <si>
-    <t>TAPIA PALACIOS EDGAR HORACIO, CEDENO ESTRADA DAVID ENRIQUE, CEDENO TOALA CRISTINA CECILIA, GARCIA CHAVEZ KELVIN RENAN, TAPIA CHAVEZ JOSE LUIS</t>
+    <t>1724091390-1309248928-SIN_CED-1724091408</t>
+  </si>
+  <si>
+    <t>CALVA PARDO LUIS ALFREDO, ARAUZ BRAVO EUGENIO RAFAEL, MONCAYO GILER ETTY MONSERRATE, SACON CALVA IGNACIO</t>
   </si>
   <si>
     <t>FAM151</t>
   </si>
   <si>
-    <t>1724091408-SIN_CED-1724091390-1309248928</t>
-  </si>
-  <si>
-    <t>SACON CALVA IGNACIO, MONCAYO GILER ETTY MONSERRATE, CALVA PARDO LUIS ALFREDO, ARAUZ BRAVO EUGENIO RAFAEL</t>
+    <t>SIN_CED-SIN_CED-SIN_CED-1308731924-1307675072</t>
+  </si>
+  <si>
+    <t>COOX CONFORME CARMEN, CONFORME VALENCIA NEGAR NOLBERTO, CONFORME VALENCIA LENNY, MARCILLO CHOEZ MIGUEL ANGEL, CONFORME VALENCIA EUSEBIO</t>
   </si>
   <si>
     <t>FAM152</t>
   </si>
   <si>
-    <t>SIN_CED-1307675072-SIN_CED-SIN_CED-1308731924</t>
-  </si>
-  <si>
-    <t>CONFORME VALENCIA NEGAR NOLBERTO, CONFORME VALENCIA EUSEBIO, COOX CONFORME CARMEN, CONFORME VALENCIA LENNY, MARCILLO CHOEZ MIGUEL ANGEL</t>
+    <t>1309173068-2300587702-1207730027-1205791054</t>
+  </si>
+  <si>
+    <t>FIGUEROA REYNA GONZALO ADALBERTO, AREVALO FIGUEROA FERNANDO, LLUMIGUANO GUAMBUGUETE MARIO ALEX, LLUMIGUANO GUAMBUGUETE WELINTON SANTIAGO</t>
   </si>
   <si>
     <t>FAM153</t>
   </si>
   <si>
-    <t>1309173068-1207730027-2300587702-1205791054</t>
-  </si>
-  <si>
-    <t>FIGUEROA REYNA GONZALO ADALBERTO, LLUMIGUANO GUAMBUGUETE MARIO ALEX, FIGUEROA AREVALO FERNANDO, LLUMIGUANO GUAMBUGUETE WELINTON SANTIAGO</t>
+    <t>1317100087-1717244717</t>
+  </si>
+  <si>
+    <t>MENDOZA VERA FABIAN, MENDOZA FIGUEROA HARRISON FABIAN</t>
   </si>
   <si>
     <t>FAM154</t>
   </si>
   <si>
-    <t>1717244717-1317100087</t>
-  </si>
-  <si>
-    <t>MENDOZA FIGUEROA HARRISON FABIAN, MENDOZA VERA FABIAN</t>
+    <t>941629677-928245042</t>
+  </si>
+  <si>
+    <t>ZAMBRANO ZAMBRANO JOSE, ACOSTA CARRANZA ORLANDO</t>
   </si>
   <si>
     <t>FAM155</t>
   </si>
   <si>
-    <t>941629677-2350092496-928245042</t>
-  </si>
-  <si>
-    <t>ZAMBRANO ZAMBRANO JOSE, MARTINEZ ZAMBRANO NICOLE MARICELA, ACOSTA CARRANZA ORLANDO</t>
+    <t>503814477-503814493</t>
+  </si>
+  <si>
+    <t>MORAN CHOEZ NELSON, MORAN CHOEZ EDISON ANDRES</t>
   </si>
   <si>
     <t>FAM156</t>
   </si>
   <si>
-    <t>503814493-503814477</t>
-  </si>
-  <si>
-    <t>MORAN CHOEZ EDISON ANDRES, MORAN CHOEZ NELSON</t>
+    <t>1205406166-1205406133-1205402801-1205396912</t>
+  </si>
+  <si>
+    <t>ALCIVAR AGUAYO ANDRES MAXIMILIANO, ESPINOZA ALCIVAR HOLGER EDUARDO, ZAMBRANO ALCIVAR EDISON ANDRES, ALONZO PENA CARLOS JAVIER</t>
   </si>
   <si>
     <t>FAM157</t>
   </si>
   <si>
-    <t>1205396912-1205406166-1205402801-1205406133</t>
-  </si>
-  <si>
-    <t>ALONZO PENA CARLOS JAVIER, ALCIVAR AGUAYO ANDRES MAXIMILIANO, ZAMBRANO ALCIVAR EDISON ANDRES, ESPINOZA ALCIVAR HOLGER EDUARDO</t>
+    <t>1205561093-1207851930</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ VERGARA LUIS, RODRIGUEZ VERGARA CESAR</t>
   </si>
   <si>
     <t>FAM158</t>
   </si>
   <si>
-    <t>1207851930-1205561093</t>
-  </si>
-  <si>
-    <t>VERGARA RENDON JULIO CESAR, RODRIGUEZ VERGARA LUIS</t>
+    <t>1724509649-1723322861</t>
+  </si>
+  <si>
+    <t>AJILA ZAMBRANO OSWALDO, AJILA ZAMBRANO HENRY RICARDO</t>
   </si>
   <si>
     <t>FAM159</t>
   </si>
   <si>
-    <t>1724509649-1723322861</t>
-  </si>
-  <si>
-    <t>AJILA ZAMBRANO OSWALDO, AJILA ZAMBRANO HENRY RICARDO</t>
+    <t>1005161177-1206883728-1311818106-1205351750-1307641587-1207256155-1711346476-1711346468-2300519358</t>
+  </si>
+  <si>
+    <t>NAVARRETE RODRIGUEZ DANIEL MESIAS, LOPEZ BARZOLA LUIS, ORMAZA VILLAMAR FRANCISCO, BARZOLA BAJANA WILFRIDO ALBERTO, ORMAZA BERMUDEZ LUIS LEONARDO, VELEZ BARZOLA ALFREDO, GARCIA VERA BENIGNO, GARCIA VERA MIGUEL ZENON, MACIAS INTRIAGO PEDRO DANIEL</t>
   </si>
   <si>
     <t>FAM160</t>
   </si>
   <si>
-    <t>1711346468-1311818106-1005161177-1206883728-2300519358-1207256155-1307641587-1711346476-1205351750</t>
-  </si>
-  <si>
-    <t>GARCIA VERA MIGUEL ZENON, ORMAZA VILLAMAR FRANCISCO, NAVARRETE RODRIGUEZ DANIEL MESIAS, LOPEZ BARZOLA LUIS, MACIAS INTRIAGO PEDRO DANIEL, VELEZ BARZOLA ALFREDO, ORMAZA BERMUDEZ LUIS LEONARDO, GARCIA VERA BENIGNO, BARZOLA BAJANA WILFRIDO ALBERTO</t>
+    <t>1723109326-1205526146</t>
+  </si>
+  <si>
+    <t>NEGRETE ORTIZ FLAVIO SILBERIO, VILLAFUERTE CARPIO ARTURO ERNESTO</t>
   </si>
   <si>
     <t>FAM161</t>
   </si>
   <si>
-    <t>1723109326-1205526146</t>
-  </si>
-  <si>
-    <t>NEGRETE ORTIZ FLAVIO SILBERIO, VILLAFUERTE CARPIO ARTURO ERNESTO</t>
+    <t>928911429-1205368382-SIN_CED</t>
+  </si>
+  <si>
+    <t>FAJARDO SIXTO JIMENEZ, LUCAS JIMENEZ CRISTOPHER DONATO, CRISTHOFFER LUCAS R LUCAS</t>
   </si>
   <si>
     <t>FAM162</t>
   </si>
   <si>
-    <t>928911429-SIN_CED-1205368382</t>
-  </si>
-  <si>
-    <t>FAJARDO SIXTO JIMENEZ, CRISTHOFFER LUCAS R LUCAS, LUCAS JIMENEZ CRISTOPHER DONATO</t>
+    <t>1724906456-1312357138</t>
+  </si>
+  <si>
+    <t>VARGAS TRUJILLO ALEXANDRA, MENENDEZ MOREIRA VICTOR HENRRY</t>
   </si>
   <si>
     <t>FAM163</t>
   </si>
   <si>
-    <t>1312357138-1724906456</t>
-  </si>
-  <si>
-    <t>MENENDEZ MOREIRA VICTOR HENRRY, VARGAS TRUJILLO ALEXANDRA</t>
+    <t>1709216590-SIN_CED-1711508208-1703855625-1711191641-1755863485</t>
+  </si>
+  <si>
+    <t>GONZALEZ ARTIGAS POLANCO JAIME RAMON, GONZALEZ ARTIGAS EMEN CARLOS, GONZALEZ ARTIGAS BUSTAMANTE FELIPE, DIAZ MERCHAN FRANKLIN ENRIQUE, BUSTAMANTE SALVADOR JOAQUIN, SUPERVIELLE GONZALEZ JUAN JOSE</t>
   </si>
   <si>
     <t>FAM164</t>
   </si>
   <si>
-    <t>1711508208-1709216590-1711191641-SIN_CED-1703855625-1755863485</t>
-  </si>
-  <si>
-    <t>GONZALEZ ARTIGAS BUSTAMANTE FELIPE, GONZALEZ ARTIGAS POLANCO JAIME RAMON, BUSTAMANTE SALVADOR JOAQUIN, GONZALEZ ARTIGAS EMEN CARLOS, DIAZ MERCHAN FRANKLIN ENRIQUE, SUPERVIELLE GONZALEZ JUAN JOSE</t>
+    <t>SIN_CED-1205514951-504340209</t>
+  </si>
+  <si>
+    <t>ORTEGA SANCHEZ ALEXANDER, MORA SANCHEZ RICHARD ALEXANDER, BARCO SANCHEZ MANUEL</t>
   </si>
   <si>
     <t>FAM165</t>
   </si>
   <si>
-    <t>1205514951-504340209-SIN_CED</t>
-  </si>
-  <si>
-    <t>MORA SANCHEZ RICHARD ALEXANDER, BARCO SANCHEZ MANUEL, ORTEGA SANCHEZ ALEXANDER</t>
+    <t>802094516-802326397-804087617-804088284</t>
+  </si>
+  <si>
+    <t>MERCADO QUINTERO FABRICIO EDWIN, MERCADO QUINTERO HERNAN LEONARDO, SALAZAR MERCADO TYRONE ALEJANDRO, VIVAS MERCADO ELVIS LEONARDO</t>
   </si>
   <si>
     <t>FAM166</t>
   </si>
   <si>
-    <t>804088284-802326397-804087617-802094516</t>
-  </si>
-  <si>
-    <t>VIVAS MERCADO ELVIS LEONARDO, MERCADO QUINTERO HERNAN LEONARDO, SALAZAR MERCADO TYRONE ALEJANDRO, MERCADO QUINTERO FABRICIO EDWIN</t>
+    <t>802615492-1309741898</t>
+  </si>
+  <si>
+    <t>IBARRA CANCHINGRE DANIEL, MACIAS IBARRA RODRIGO FABIAN</t>
   </si>
   <si>
     <t>FAM167</t>
   </si>
   <si>
-    <t>802615492-1309741898</t>
-  </si>
-  <si>
-    <t>IBARRA CANCHINGRE DANIEL, MACIAS IBARRA RODRIGO FABIAN</t>
+    <t>802828582-2300807225</t>
+  </si>
+  <si>
+    <t>SUAREZ GUTIERREZ RAQUEL, PATA GRACIA MAURICIO ARMANDO</t>
   </si>
   <si>
     <t>FAM168</t>
   </si>
   <si>
-    <t>802828582-SIN_CED-2300807225</t>
-  </si>
-  <si>
-    <t>SUAREZ GUTIERREZ JESSENIA, SUAREZ GUTIERREZ RAQUEL, PATA GRACIA MAURICIO ARMANDO</t>
+    <t>1722837257-1311777831</t>
+  </si>
+  <si>
+    <t>ALCALDE TORRES ANDRES, SALDARRIAGA VELASCO ERIKA DENNISSE</t>
   </si>
   <si>
     <t>FAM169</t>
   </si>
   <si>
-    <t>1722837257-1311777831</t>
-  </si>
-  <si>
-    <t>ALCALDE TORRES ANDRES, SALDARRIAGA VELASCO ERIKA DENNISSE</t>
+    <t>916728041-SIN_CED-913636478</t>
+  </si>
+  <si>
+    <t>SALTOS BOHORQUEZ JULIO, SALTOS BOHORQUEZ ALFREDO, SALTOS BOHORQUEZ MIRELLA MARIA</t>
   </si>
   <si>
     <t>FAM170</t>
   </si>
   <si>
-    <t>SIN_CED-913636478-916728041</t>
-  </si>
-  <si>
-    <t>SALTOS BOHORQUEZ JULIO, SALTOS BOHORQUEZ MIRELLA MARIA, SALTOS BOHORQUEZ ALFREDO</t>
+    <t>802097501-803505684</t>
+  </si>
+  <si>
+    <t>TARIRA BANGUERA ANGELINA, TARIRA BANGUERA EDUARDO</t>
   </si>
   <si>
     <t>FAM171</t>
   </si>
   <si>
-    <t>802097501-803505684</t>
-  </si>
-  <si>
-    <t>TARIRA BANGUERA ANGELINA, TARIRA BANGUERA EDUARDO</t>
+    <t>1307657963-SIN_CED-1204189227</t>
+  </si>
+  <si>
+    <t>TUBAY VINCES ANASTACIO, MOREIRA PILAY MISTERIO, PARRALES PINCAY OSCAR MANUEL</t>
   </si>
   <si>
     <t>FAM172</t>
   </si>
   <si>
-    <t>1307657963-1204189227-SIN_CED</t>
-  </si>
-  <si>
-    <t>TUBAY VINCES ANASTACIO, PARRALES PINCAY OSCAR MANUEL, MOREIRA PILAY MISTERIO</t>
+    <t>1712978608-1207533207-2300571763-1208733087</t>
+  </si>
+  <si>
+    <t>PLUAS RODRIGUEZ MARCO EDISON, PLUAS LLANOS EDISON RODOLFO, GRANDA LLANOS LEONARDO, ROSADO GRANDA LUIS EDUARDO</t>
   </si>
   <si>
     <t>FAM173</t>
   </si>
   <si>
-    <t>1207533207-1712978608-1208733087-2300571763</t>
-  </si>
-  <si>
-    <t>PLUAS LLANOS EDISON RODOLFO, PLUAS RODRIGUEZ MARCO EDISON, ROSADO GRANDA LUIS EDUARDO, GRANDA LLANOS LEONARDO</t>
+    <t>1312043670-SIN_CED-1308362191</t>
+  </si>
+  <si>
+    <t>BARREIRO MIGUEL ANGEL, BARREIRO LINO MIGUEL, BARRETO DELGADO RAFAEL</t>
   </si>
   <si>
     <t>FAM174</t>
   </si>
   <si>
-    <t>SIN_CED-1308362191-1312043670</t>
-  </si>
-  <si>
-    <t>BARREIRO MIGUEL ANGEL, BARRETO DELGADO RAFAEL, BARREIRO LINO MIGUEL</t>
+    <t>803420546-2300214281</t>
+  </si>
+  <si>
+    <t>MOREIRA ALAVA ANGELICA MARIA, LALANGUI DELGADO DARWIN ANTONIO</t>
   </si>
   <si>
     <t>FAM175</t>
   </si>
   <si>
-    <t>2300214281-803420546</t>
-  </si>
-  <si>
-    <t>LALANGUI DELGADO DARWIN ANTONIO, MOREIRA ALAVA ANGELICA MARIA</t>
+    <t>910635879-1208493914</t>
+  </si>
+  <si>
+    <t>SANCHEZ ELIZANDRO ISEL MARIA, LIZAME SANCHEZ LIMBER ALBERTO</t>
   </si>
   <si>
     <t>FAM176</t>
   </si>
   <si>
-    <t>1208493914-910635879</t>
-  </si>
-  <si>
-    <t>LISAME SANCHEZ LIMBER ALBERTO, SANCHEZ ELISANDRO ISEL MARIA</t>
+    <t>1205872243-1250398268-1723913990-940800790</t>
+  </si>
+  <si>
+    <t>GUERRERO MOREIRA ESTUARDO, CEDENO ZAMBRANO DAVID JOEL, PINCAY VELEZ CRISTIAN ROBERTO, MEJIA ZAMBRANO AGUSTIN ALEXI</t>
   </si>
   <si>
     <t>FAM177</t>
   </si>
   <si>
-    <t>1250398268-940800790-1205872243-1723913990</t>
-  </si>
-  <si>
-    <t>CEDENO ZAMBRANO DAVID JOEL, MEJIA ZAMBRANO AGUSTIN ALEXI, GUERRERO MOREIRA ESTUARDO, PINCAY VELEZ CRISTIAN ROBERTO</t>
+    <t>942727587-1313251736</t>
+  </si>
+  <si>
+    <t>CHAVEZ PARRAGA RICHARD JAIR, VARELA SABANDO HERNAN</t>
   </si>
   <si>
     <t>FAM178</t>
   </si>
   <si>
-    <t>942727587-1313251736</t>
-  </si>
-  <si>
-    <t>CHAVEZ PARRAGA RICHARD JAIR, VARELA SABANDO HERNAN</t>
+    <t>1204455511-2300352495</t>
+  </si>
+  <si>
+    <t>ZAMBRANO MARCILLO AGAPITO, ZAMBRANO ORTEGA DAMIAN</t>
   </si>
   <si>
     <t>FAM179</t>
   </si>
   <si>
-    <t>2300352495-1204455511</t>
-  </si>
-  <si>
-    <t>ZAMBRANO ORTEGA DAMIAN, ZAMBRANO MARCILLO AGAPITO</t>
+    <t>1723147219-1203049265</t>
+  </si>
+  <si>
+    <t>SALTOS PALMA CARLOS, BAQUE PEREZ SERGIO</t>
   </si>
   <si>
     <t>FAM180</t>
   </si>
   <si>
-    <t>1203049265-1723147219</t>
-  </si>
-  <si>
-    <t>BAQUE PEREZ SERGIO, SALTOS PALMA CARLOS</t>
+    <t>1310720949-1314747864</t>
+  </si>
+  <si>
+    <t>MENDOZA CANTOS CARLOS FRANCISCO, VALLE CANTOS BORIS</t>
   </si>
   <si>
     <t>FAM181</t>
   </si>
   <si>
-    <t>1314747864-1310720949</t>
-  </si>
-  <si>
-    <t>VALLE CANTOS BORIS, MENDOZA CANTOS CARLOS FRANCISCO</t>
+    <t>801325341-803426139</t>
+  </si>
+  <si>
+    <t>ARROYO CLAVIJO VICENTE, FERRIN QUINONEZ ANGEL YIXON</t>
   </si>
   <si>
     <t>FAM182</t>
   </si>
   <si>
-    <t>801325341-803426139</t>
-  </si>
-  <si>
-    <t>ARROYO CLAVIJO VICENTE, FERRIN QUINONEZ ANGEL YIXON</t>
+    <t>1724413560-1305279794-2300274665</t>
+  </si>
+  <si>
+    <t>BURGOS MENDOZA SICYAENN TATIANA, BURGOS MENDOZA RANYER JAVIER, RAMIREZ SEGARRA ADRIAN</t>
   </si>
   <si>
     <t>FAM183</t>
   </si>
   <si>
-    <t>1724413560-1305279794-2300274665</t>
-  </si>
-  <si>
-    <t>BURGOS MENDOZA SICYAENN TATIANA, BURGOS MENDOZA RANYER JAVIER, RAMIREZ SEGARRA ADRIAN</t>
+    <t>1708659915-2350975997</t>
+  </si>
+  <si>
+    <t>FREIRE SANCHEZ RAMIRO, FREIRE GUILLEN ANTONIO</t>
   </si>
   <si>
     <t>FAM184</t>
   </si>
   <si>
-    <t>1708659915-2350975997</t>
-  </si>
-  <si>
-    <t>FREIRE SANCHEZ RAMIRO, FREIRE GUILLEN ANTONIO</t>
+    <t>1309074811-2100657267</t>
+  </si>
+  <si>
+    <t>ZAMBRANO CEDENO NERY, ZAMBRANO RODRIGUEZ JHONDER</t>
   </si>
   <si>
     <t>FAM185</t>
   </si>
   <si>
-    <t>1309074811-2100657267</t>
-  </si>
-  <si>
-    <t>ZAMBRANO CEDENO NERY, ZAMBRANO RODRIGUEZ JHONDER</t>
+    <t>1311755225-SIN_CED</t>
+  </si>
+  <si>
+    <t>ZAMORA VALENCIA BYRON AGUSTIN, MOREIRA ZAMORA GEOVANY</t>
   </si>
   <si>
     <t>FAM186</t>
   </si>
   <si>
-    <t>SIN_CED-1311755225</t>
-  </si>
-  <si>
-    <t>MOREIRA ZAMORA GEOVANY, ZAMORA VALENCIA BYRON AGUSTIN</t>
+    <t>925292674-916842529</t>
+  </si>
+  <si>
+    <t>ARREAGA ARREAGA JAIRON JACINTO, LARROSA ARREAGA MANUEL HUGO</t>
   </si>
   <si>
     <t>FAM187</t>
   </si>
   <si>
-    <t>916842529-925292674</t>
-  </si>
-  <si>
-    <t>LARROSA ARREAGA MANUEL HUGO, ARREAGA ARREAGA JAIRON JACINTO</t>
+    <t>1722098363-800949224</t>
+  </si>
+  <si>
+    <t>MINA BRAVO LENIN DAVID, MINA MERCADO BOLIVAR</t>
   </si>
   <si>
     <t>FAM188</t>
   </si>
   <si>
-    <t>1722098363-800949224</t>
-  </si>
-  <si>
-    <t>MINA BRAVO LENIN DAVID, MINA MERCADO BOLIVAR</t>
+    <t>1304536178-SIN_CED</t>
+  </si>
+  <si>
+    <t>CEDENO SOLORZANO JORGE ARTURO, CEDENO ARGENI ALCIVAR</t>
   </si>
   <si>
     <t>FAM189</t>
   </si>
   <si>
-    <t>1304536178-SIN_CED</t>
-  </si>
-  <si>
-    <t>CEDENO SOLORZANO JORGE ARTURO, CEDENO ARGENI ALCIVAR</t>
+    <t>1311543837-1309709994</t>
+  </si>
+  <si>
+    <t>VINCES PONCE ABEL, CEDENO PONCE CRISTHIAN XAVIER</t>
   </si>
   <si>
     <t>FAM190</t>
   </si>
   <si>
-    <t>1311543837-1309709994</t>
-  </si>
-  <si>
-    <t>VINCES PONCE ABEL, CEDENO PONCE CRISTHIAN XAVIER</t>
+    <t>1313990838-1314859339</t>
+  </si>
+  <si>
+    <t>SORNOZA BRAVO OSWALDO, MOLINA BRAVO KLEVER ALEXANDER</t>
   </si>
   <si>
     <t>FAM191</t>
   </si>
   <si>
-    <t>1314859339-1313990838</t>
-  </si>
-  <si>
-    <t>MOLINA BRAVO KLEVER ALEXANDER, SORNOZA BRAVO OSWALDO</t>
+    <t>922422704-1312643453</t>
+  </si>
+  <si>
+    <t>RAMIREZ LOPEZ FRANCISCO EDUARDO, ALVAREZ SANTANA ADRIAN</t>
   </si>
   <si>
     <t>FAM192</t>
   </si>
   <si>
-    <t>1312643453-922422704</t>
-  </si>
-  <si>
-    <t>ALVAREZ SANTANA ADRIAN, RAMIREZ LOPEZ FRANCISCO EDUARDO</t>
+    <t>SIN_CED-SIN_CED-927161802</t>
+  </si>
+  <si>
+    <t>JAMA CHILA FLERIDA, MANZABA JAMA DARIO, CAICEDO ORTIZ JHON ISRAEL</t>
   </si>
   <si>
     <t>FAM193</t>
   </si>
   <si>
-    <t>927161802-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>CAICEDO ORTIZ JHON ISRAEL, JAMA CHILA FLERIDA, MANZABA JAMA DARIO</t>
+    <t>1311962714-SIN_CED-1308724119</t>
+  </si>
+  <si>
+    <t>PAREDES MERA JENNIFER, PAREDES BARCIA JENNIFER, SANTANA DUENAS HUMBERTO</t>
   </si>
   <si>
     <t>FAM194</t>
   </si>
   <si>
-    <t>1311962714-SIN_CED-1308724119</t>
-  </si>
-  <si>
-    <t>PAREDES MERA JENNIFER, PAREDES BARCIA JENNIFER, SANTANA DUENAS HUMBERTO</t>
+    <t>1311744609-1311749533</t>
+  </si>
+  <si>
+    <t>YEPEZ PINCAY ALEJANDRO, MERO MERA SUSANA</t>
   </si>
   <si>
     <t>FAM195</t>
   </si>
   <si>
-    <t>1311744609-1311749533</t>
-  </si>
-  <si>
-    <t>YEPEZ PINCAY ALEJANDRO, MERO MERA SUSANA</t>
+    <t>1206299370-1720619558</t>
+  </si>
+  <si>
+    <t>VARGAS MANCILLA GEOVANNY JAVIER, LUCA CEDENO ELIZABETH</t>
   </si>
   <si>
     <t>FAM196</t>
   </si>
   <si>
-    <t>1206299370-1720619558</t>
-  </si>
-  <si>
-    <t>VARGAS MANCILLA GEOVANNY JAVIER, LUCA CEDENO ELIZABETH</t>
+    <t>802193243-1317466629-804567121-1317466637-1723917801</t>
+  </si>
+  <si>
+    <t>MACIAS MONTIEL JORGE ENRIQUE, ALCIVAR CEDENO JENIFFER KARINA, CEVALLOS CAICEDO ANNER EULICER, ALCIVAR CEDENO JHON PEDRO, CEDENO PACHECO VERONICA ALEXANDRA</t>
   </si>
   <si>
     <t>FAM197</t>
   </si>
   <si>
-    <t>804567121-802193243-1317466629-1723917801-1317466637</t>
-  </si>
-  <si>
-    <t>CEVALLOS CAICEDO ANNER EULICER, MACIAS MONTIEL JORGE ENRIQUE, ALCIVAR CEDENO JENIFFER KARINA, CEDENO PACHECO VERONICA ALEXANDRA, ALCIVAR CEDENO JHON PEDRO</t>
+    <t>803246230-1758514242-1760516813</t>
+  </si>
+  <si>
+    <t>PINCAY VERA MAYRA ELIZABETH, TOVAR ANGULO IVAN ALBERTO, TOVAR VILLOTA HERNANDO</t>
   </si>
   <si>
     <t>FAM198</t>
   </si>
   <si>
-    <t>1758514242-1760516813-803246230</t>
-  </si>
-  <si>
-    <t>TOVAR ANGULO IVAN ALBERTO, TOVAR VILLOTA HERNANDO, PINCAY VERA MAYRA ELIZABETH</t>
+    <t>1004794358-803628783-SIN_CED-1004761738-805018090-803919026-SIN_CED-803273127-805479532-SIN_CED-803708965-940287378-803634120-850183815-850450842-SIN_CED-SIN_CED-SIN_CED-1002374963-803331362-1001860582-SIN_CED-920798501-850482613-850473703-804275238-803708973-804010841-803573351-802764142-SIN_CED-SIN_CED-SIN_CED-850265877-803331776</t>
+  </si>
+  <si>
+    <t>CAICEDO PASCAL ALEXIS, VALENCIA CASTILLO JUAN GABRIEL, VALENCIA CASTILLO SAMUEL LEONARDO, ORTIZ QUINTERO MARIA FERNANDA, PINCAY SABANDO BRANDOR CHRISTOPHER, ORTIZ CEDENO FRANKLIN ALEXANDER, CASTILLO GONZALES FAUSTO YOMAR, PINARGOTE VELEZ MARCELO, CASTILLO GONZALES JEFFERSON HEBEL, ORTIZ CASTILLO MARIA FERNANDA, CASTILLO ORTIZ HAROL GERMAN, CASTILLO NAZARENO EDISON WALNER, MINA CASTILLO WANNER LINIS, ORMAZA VELEZ DARIO CELESTINO, PINCAY VELEZ ABEL ARIEL, MONTOYA PINCAY ARIEL SEBASTIAN, CARVAJAL CASTILLO MERY DAYANA, MONTOYA PINCAY JESUS LEOPOLDO, CAICEDO ORTIZ FAVIO, CASTILLO ORTIZ DIEGO EDISON, ORTIZ QUINONES WASHINGTON, CASTILLO GONZALES YIXON JULIAN, CASTILLO GARCES ROSA LAURA, PINCAY VELEZ JHON ERICK, VELEZ SABANDO WILTER ADRIAN, VELEZ SABANDO KLEBER RUBEN, CASTILLO ORTIZ FARY VANESSA, PINARGOTE ARTEAGA DAYRON DAVID, PINARGOTE VELEZ HECTOR ANTONIO, DELGADO GONZALES LUIS ALIRIO, CAICEDO CANTICUZ ANGEL ROBERTO, LASTRA RIVERA DUMIR EDIES, SANCHEZ ORTIZ MAICKOOL DAVID, ORMAZA VELEZ JIMMY GABRIEL, CANTICUZ JACKSON PATRICIO CAICEDO</t>
   </si>
   <si>
     <t>FAM199</t>
   </si>
   <si>
-    <t>1004761738-920798501-850450842-804010841-SIN_CED-803573351-803331776-803273127-805479532-850482613-SIN_CED-802764142-850265877-803708973-SIN_CED-850183815-803331362-SIN_CED-805018090-SIN_CED-804275238-803708965-850473703-SIN_CED-940287378-803634120-SIN_CED-SIN_CED-SIN_CED-1001860582-SIN_CED-803628783-803919026-1002374963-1004794358</t>
-  </si>
-  <si>
-    <t>ORTIZ QUINTERO MARIA FERNANDA, CASTILLO GARCES ROSA LAURA, PINCAY VELEZ ABEL ARIEL, PINARGOTE ARTEAGA DAYRON DAVID, LASTRA RIVERA DUMIR EDIES, VELEZ PINARGOTE HECTOR ANTONIO, CANTICUZ JACKSON PATRICIO CAICEDO, PINARGOTE VELEZ MARCELO, CASTILLO GONZALES JEFFERSON HEBEL, PINCAY VELEZ JHON ERICK, MONTOYA PINCAY JESUS LEOPOLDO, DELGADO GONZALES LUIS ALIRIO, ORMAZA VELEZ JIMMY GABRIEL, CASTILLO ORTIZ FARY VANESSA, CASTILLO GONZALES FAUSTO YOMAR, ORMAZA VELEZ DARIO CELESTINO, CASTILLO ORTIZ DIEGO EDISON, CARVAJAL CASTILLO MERY DAYANA, PINCAY SABANDO BRANDOR CHRISTOPHER, VALENCIA CASTILLO SAMUEL LEONARDO, VELEZ SABANDO KLEBER RUBEN, CASTILLO ORTIZ HAROL GERMAN, VELEZ SABANDO WILTER ADRIAN, ORTIZ CASTILLO MARIA FERNANDA, CASTILLO NAZARENO EDISON WALNER, MINA CASTILLO WANNER LINIS, CASTILLO GONZALES YIXON JULIAN, MONTOYA PINCAY ARIEL SEBASTIAN, CAICEDO CANTICUZ ANGEL ROBERTO, ORTIZ QUINONES WASHINGTON, SANCHEZ ORTIZ MAICKOOL DAVID, VALENCIA CASTILLO JUAN GABRIEL, ORTIZ CEDENO FRANKLIN ALEXANDER, CAICEDO ORTIZ FAVIO, CAICEDO PASCAL ALEXIS</t>
+    <t>SIN_CED-803946326-803945922-SIN_CED-1712675907-SIN_CED-802396044-1003398755-802631465-1002645388-803946474-SIN_CED-803849322-SIN_CED-83849272-926095282</t>
+  </si>
+  <si>
+    <t>VALENCIA PINEIRO LEONCIO, LASTRA PACHITO ORLANDO LUIS, LASTRA CAICEDO ROLANDO EDWIN, VALENCIA PINEIRO OHUER, VALENCIA PINEIRO DAVID VEDER, RENTERIA OSCAR DAVID, LARA MINA ROGER GENALDO, MINA RENDON NELVER, LASTRA QUINTERO ALEJANDRO GUALBERTO, MINA RENDON NEICER ANTONIO, VALENCIA LASTRA OBER DAVID, LASTRA CAICEDO MARCO ANTONIO, LASTRA MACUASE OSCAR JHONATAN, HOGUER LENY PINEIRO, PADILLA RENTERIA DANILO JAVIER, GODOY LASTRA JUAN MIGUEL</t>
   </si>
   <si>
     <t>FAM200</t>
   </si>
   <si>
-    <t>802396044-SIN_CED-803946474-SIN_CED-802631465-926095282-SIN_CED-1712675907-SIN_CED-83849272-1002645388-1003398755-SIN_CED-803946326-803849322-803945922</t>
-  </si>
-  <si>
-    <t>LARA MINA ROGER GENALDO, VALENCIA PINEIRO OHUER, VALENCIA LASTRA OBER DAVID, LASTRA CAICEDO MARCO ANTONIO, LASTRA QUINTERO ALEJANDRO GUALBERTO, GODOY LASTRA JUAN MIGUEL, RENTERIA OSCAR DAVID, VALENCIA PINEIRO DAVID VEDER, VALENCIA PINEIRO LEONCIO, PADILLA RENTERIA DANILO JAVIER, MINA RENDON NEISER ANTONIO, MINA RENDON NELVER, HOGUER LENY PINEIRO, LASTRA PACHITO ORLANDO LUIS, LASTRA MACUASE OSCAR JHONATAN, LASTRA CAICEDO ROLANDO EDWIN</t>
+    <t>805474822-1760959864-SIN_CED</t>
+  </si>
+  <si>
+    <t>OSCAR EDUARDO GARCES, RUIZ GARCES ROMAN, OSCAR EDUARDO VALENCIA</t>
   </si>
   <si>
     <t>FAM201</t>
   </si>
   <si>
-    <t>1760959864-805474822-SIN_CED</t>
-  </si>
-  <si>
-    <t>RUIZ GARCES ROMAN, OSCAR EDUARDO GARCES, OSCAR EDUARDO VALENCIA</t>
+    <t>804563997-803449164-803244375</t>
+  </si>
+  <si>
+    <t>BRAVO ZAMBRANO JUAN FERNANDO, BAILON ZAMBRANO MANUEL ALEXANDER, MEZA ZAMBRANO OSCAR SEBASTIAN</t>
   </si>
   <si>
     <t>FAM202</t>
   </si>
   <si>
-    <t>804563997-803244375-803449164</t>
-  </si>
-  <si>
-    <t>BRAVO ZAMBRANO JUAN FERNANDO, MEZA ZAMBRANO OSCAR SEBASTIAN, BAILON ZAMBRANO MANUEL ALEXANDER</t>
+    <t>802766055-803233923-1002410718-SIN_CED-1004010268-803331305-SIN_CED-1001504313-803626704-803918838-802990671-SIN_CED-SIN_CED-803914167-803940220-850442435-SIN_CED-1725010803-802993246-804540078-803626720-SIN_CED-803756436-802763813-802427682-SIN_CED-SIN_CED-SIN_CED-920909694-1717684433-803953686-801941873-SIN_CED-803938232-SIN_CED-SIN_CED-SIN_CED-803940196</t>
+  </si>
+  <si>
+    <t>CUAGIBOY RODRIGUEZ CLAUDIO ENRIQUE, BANGUERA BANGUERA JOSE LUIS, CUAGIBOY RODRIGUEZ EDDIN HUMBERTO, PALOMINO CAICEDO LUIS EDGAR, PRECIADO CASTILLO MARIA JOSE, CANTICUS GARCIA JOSE FREDDY, COROZO GONZALEZ SONIA FELIZA, IZQUIERDO CAICEDO DOVER OLMEDO, MORANTE LUQUE JOHN DAVID, CANTICUS CUAJIVOY ROSA ELENA, COROZO GONZALEZ GUILLERMO JAVIER, GONZALEZ CASTILLO JEAN CARLOS, CANTICUS CUAJIVOY JOSE ADRIAN, PALOMINO CASTILLO JAKSON LEONEL, LUQUE CUAJIVOY JULIA ANDREINA, LUQUE CUAJIVOY JIXON, PALOMINO CAICEDO LEDER EDWIN, CANTICUZ ANGULO SEGUNDO FERNANDO, CAICEDO BENNETT JULIA ESTHER, RODRIGUEZ QUINTERO ANGEL CLEMENTE, CANTICUS CUAJIVOY JACKSON ELIAS, CAICEDO IZQUIERDO SEGUNDO AMADO, GONZALEZ CASTILLO CHARLY AGUSTIN, CAICEDO IZQUIERDO CARMEN INES, CAICEDO BENNET MARIA DAPCIA, CANTICUS CUAJIVOY MARIA FERNANDA, QUINTERO GONZALEZ JAIDER MAURICIO, CUAGIBOY RODRIGUEZ JOSE LUIS, CASTILLO IZQUIERDO MARY SOL, CALLE HIDROVO JOSE ANIBAL, QUINTERO GONZALEZ RENE EZEQUIEL, IZQUIERDO CAICEDO JOSE ELCIN, MINA LUQUE DENNIS BRANLEY, CANTICUS CUAJIVOY NARCISA PILAR, CUAGIBOY RODRIGUEZ SOBEIDA, CAICEDO VUENOSAIRES ISQUIERDO, CASTILLO BENNETT MISHEL WLADIMIR, GONZALEZ CUAJIVOY YIMY JAVIER</t>
   </si>
   <si>
     <t>FAM203</t>
   </si>
   <si>
-    <t>803938232-803953686-SIN_CED-803918838-SIN_CED-920909694-802763813-803331305-1004010268-SIN_CED-803940220-SIN_CED-802993246-SIN_CED-803626704-802427682-802766055-803626720-801941873-803940196-SIN_CED-SIN_CED-804540078-802990671-SIN_CED-SIN_CED-803914167-850442435-1717684433-1001504313-SIN_CED-803756436-SIN_CED-1725010803-1002410718-803233923-SIN_CED</t>
-  </si>
-  <si>
-    <t>CANTICUS CUAJIVOY NARCISA PILAR, QUINTERO GONZALEZ RENE EZEQUIEL, PALOMINO CAICEDO LUIS EDGAR, CANTICUS CUAJIVOY ROSA ELENA, PALOMINO CAICEDO LEDER EDWIN, CASTILLO IZQUIERDO MARY SOL, CAICEDO IZQUIERDO CARMEN INES, CANTICUS GARCIA JOSE FREDDY, PRECIADO CASTILLO MARIA JOSE, CASTILLO BENNETT MISHEL WLADIMIR, LUQUE CUAJIVOY JULIA ANDREINA, CUAGIBOY RODRIGUEZ JOSE LUIS, CAICEDO BENNETT JULIA ESTHER, QUINTERO GONZALEZ JAIDER MAURICIO, MORANTE LUQUE JOHN DAVID, CAICEDO BENNET MARIA DAPCIA, CUAGIBOY RODRIGUEZ CLAUDIO ENRIQUE, CANTICUS CUAJIVOY JACKSON ELIAS, IZQUIERDO CAICEDO JOSE ELCIN, GONZALEZ CUAJIVOY YIMY JAVIER, CUAJIVOY RODRIGUEZ SOBEIDA, COROZO GONZALEZ SONIA FELIZA, RODRIGUEZ QUINTERO ANGEL CLEMENTE, COROZO GONZALEZ GUILLERMO JAVIER, GONZALEZ CASTILLO JEAN CARLOS, CAICEDO VUENOSAIRES ISQUIERDO, PALOMINO CASTILLO JAKSON LEONEL, LUQUE CUAJIVOY JIXON, CALLE HIDROVO JOSE ANIBAL, IZQUIERDO CAICEDO DOVER OLMEDO, CANTICUS CUAJIVOY JOSE ADRIAN, GONZALEZ CASTILLO CHARLY AGUSTIN, CAICEDO IZQUIERDO SEGUNDO AMADO, CANTICUZ ANGULO SEGUNDO FERNANDO, CUAGIBOY RODRIGUEZ EDDIN HUMBERTO, BANGUERA BANGUERA JOSE LUIS, MINA LUQUE DENNIS BRANLEY</t>
+    <t>1004621296-803911510</t>
+  </si>
+  <si>
+    <t>CAICEDO BOLANO KEVIN, CAICEDO BOLANO CHRISTIAN JOEL</t>
   </si>
   <si>
     <t>FAM204</t>
   </si>
   <si>
-    <t>1004621296-803911510</t>
-  </si>
-  <si>
-    <t>CAICEDO BOLANO KEVIN, CAICEDO BOLANO CHRISTIAN JOEL</t>
+    <t>SIN_CED-805177417-803918994-1002571402-SIN_CED-801682048-SIN_CED-1004602213-804273167-1718066846-SIN_CED-SIN_CED-803918531-802236737-SIN_CED-SIN_CED-SIN_CED-803107507-1004602155-803824150-804271427-804922649-SIN_CED-802286153-SIN_CED-1004611826-802387381-SIN_CED-800894776-SIN_CED-SIN_CED-804280022-SIN_CED-803944701-1718066838-SIN_CED-2100915657-804271369-2250256076-SIN_CED-SIN_CED-SIN_CED-SIN_CED-SIN_CED-SIN_CED-SIN_CED-SIN_CED-803848845-1707034888-804280030-SIN_CED</t>
+  </si>
+  <si>
+    <t>MONTANO CANGA ELIAS EDUARDO, ANGULO CORTEZ BRYAN JOAO, CAZANOBA ANGULO MONICA ANDREINA, QUINTERO GUISAMANO MARCO SANTO, MARIN CANGA PEDRO JULIO, CAICEDO CAICEDO FANNY EMELDA, QUINTERO GUISAMANO EMILIO ALEJANDRO, PACHITO CAICEDO JOSE MIGUEL, MINA VIVERO YEISON AGUSTIN, QUIJIJE VIVERO POLONIA PAULA, CABEZA VIVERO DIEGO JAVIER, RAFAEL TEOFILO VIVERO, CAZANOBA ANGULO CARLOS MARCOS, MONTANO CHICHANDE HENRY EDUARDO, PACHITO CAICEDO GERMAN ELADIO, VIVERO MINA GILBER MARIO, MAICO GALO VIVERO, PACHITO CAICEDO SOLEDAD, MINA PACHITO ANDY DENNIS, ANGULO VIVERO BISMARCK EDISON, MINA QUINONEZ JOSIMAR BLADIMIR, ANGULO ZABEDRA HERLIN DARIO, QUINONEZ VIVERO JUAN CARLOS, GUAGUA RUIZ NIXON SIMON, QUINONEZ VIVERO ELIA BENJAMIN, PACHITO CAICEDO JEILER GENARO, ARROYO VIVERO ELIVER INACIO, TELLO PACHITO JOSE CAMILO, ARROYO VIVERO EVER ANDRES, PACHITO CAICEDO CARLOS ALBERTO, MINA QUINONEZ NIXON DAVID, MINA QUINONEZ YINZON BRYAN, QUINTERO CASANOBA JOSEPH JEINER, QUINTERO PACHITO FIGO ZIDANE, VIVERO MINA DALIA ADALINDA, QUINTERO GUISAMANO ISIDRO FERNANDO, ANGULO PRECIADO WILLIAM ENGNER, TENORIO VIVERO YULENA ALEXANDRA, ANGULO ZABRDRA EDWIN PATRICIO, TENORIO VIVERO JOSE YANER, MINA PACHITO JHON GLEY, QUIGIGE GODOY JAVIER, PACHITO CAICEDO JUANA GERMANIA, PACHITO VIVERO ESTALIN GERARDO, ARCE ANGULO ANDRESON ALEXANDER, ARROYO FRANCIS JOSE LEONARDO, MINA PACHITO LUIS, MARIN CANGA YARITZA MARILU, PACHITO BARAHONA GERMAN, QUIJIGE MINA DEIVI JONATHAN, ARROYO FRANCIS JORGE ENRIQUE</t>
   </si>
   <si>
     <t>FAM205</t>
   </si>
   <si>
-    <t>SIN_CED-SIN_CED-2250256076-804280030-1004602155-803848845-802387381-SIN_CED-800894776-SIN_CED-804273167-SIN_CED-804922649-2100915657-802286153-1718066846-SIN_CED-803824150-1004611826-SIN_CED-804280022-SIN_CED-1002571402-SIN_CED-803918994-SIN_CED-804271369-SIN_CED-SIN_CED-803944701-SIN_CED-805177417-SIN_CED-804271427-SIN_CED-SIN_CED-1718066838-SIN_CED-SIN_CED-1707034888-803107507-SIN_CED-SIN_CED-801682048-SIN_CED-802236737-SIN_CED-803918531-1004602213-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>MINA PACHITO LUIS, MARIN CANGA PEDRO JULIO, ANGULO ZABEDRA EDWIN PATRICIO, QUIJIGE MINA DEIVI JONATHAN, MINA PACHITO ANDY DENNIS, MARIN CANGA YARITZA MARILU, ARROYO VIVERO ELIVER INACIO, MINA QUINONEZ NIXON DAVID, ARROYO VIVERO EVER ANDRES, RAFAEL TEOFILO VIVERO, MINA VIVERO YEISON AGUSTIN, ARCE ANGULO ANDRESON ALEXANDER, ANGULO ZABEDRA HERLIN DARIO, ANGULO PRECIADO WILLIAM ENGNER, GUAGUA RUIZ NIXON SIMON, QUIJIJE VIVERO POLONIA PAULA, PACHITO CAICEDO GERMAN ELADIO, ANGULO VIVERO BISMARCK EDISON, PACHITO CAICEDO JEILER GENARO, PACHITO VIVERO ESTALIN GERARDO, MINA QUINONEZ YINZON BRYAN, TENORIO VIVERO JOSE YANER, QUINTERO GUISAMANO MARCO SANTO, QUINONEZ VIVERO ELIA BENJAMIN, CAZANOBA ANGULO MONICA ANDREINA, MINA PACHITO JHON GLEY, TENORIO VIVERO YULENA ALEXANDRA, MAICO GALO VIVERO, MONTANO CANGA ELIAS EDUARDO, QUINTERO PACHITO FIGO ZIDANE, PACHITO CAICEDO JUANA GERMANIA, ANGULO CORTEZ BRYAN JOAO, ARROYO FRANCIS JORGE ENRIQUE, MINA QUINONEZ JOSIMAR BLADIMIR, QUINTERO CASANOBA JOSEPH JEINER, QUIGIGE GODOY JAVIER, VIVERO MINA DALIA ADALINDA, ARROYO FRANCIS JOSE LEONARDO, CABEZA VIVERO DIEGO JAVIER, BARAHONA GERMAN PACHITO, PACHITO CAICEDO SOLEDAD, QUINTERO GUISAMANO EMILIO ALEJANDRO, PACHITO CAICEDO CARLOS ALBERTO, CAICEDO CAICEDO FANNY EMELDA, VIVERO MINA GILBER MARIO, MONTANO CHICHANDE HENRY EDUARDO, TELLO PACHITO JOSE CAMILO, CAZANOBA ANGULO CARLOS MARCOS, PACHITO CAICEDO JOSE MIGUEL, QUINTERO GUISAMANO ISIDRO FERNANDO, QUINONEZ VIVERO JUAN CARLOS</t>
+    <t>SIN_CED-SIN_CED-SIN_CED-804767820-SIN_CED-SIN_CED-1004553705-1004847768-804988798-803629617-SIN_CED</t>
+  </si>
+  <si>
+    <t>CHURTA ANGULO JORDY, CHURTA ANGULO GEOVANNY YORDY, CORTEZ CORTEZ JHON JAIRO, CHURTA SEVILLANO CRISTIAN RENE, CORTEZ CHURTA EDISON, CASTILLO CORTEZ ERMIN JESUS, CORTEZ CORTEZ LIZANDRO, CORTEZ CORTEZ OLVER LUIS, CHURTA ANGULO JORGE LUIS, CASTILLO CHURTA GABRIEL, CHURTA ANGULO FAVIAN NIXON</t>
   </si>
   <si>
     <t>FAM206</t>
   </si>
   <si>
-    <t>803629617-SIN_CED-SIN_CED-SIN_CED-SIN_CED-1004553705-804767820-SIN_CED-1004847768-804988798-SIN_CED</t>
-  </si>
-  <si>
-    <t>CASTILLO CHURTA GABRIEL, CHURTA ANGULO GEOVANNY YORDY, CHURTA ANGULO JORDY, CORTEZ CHURTA EDISON, CORTEZ CORTEZ JONH JAIRO, CORTEZ CORTEZ LIZANDRO, CHURTA SEVILLANO CRISTIAN RENE, CHURTA ANGULO FABIAN NIXON, CORTEZ CORTEZ OLVER LUIS, CHURTA ANGULO JORGE LUIS, CASTILLO CORTEZ ERMIN JESUS</t>
+    <t>803969393-1308713716-SIN_CED</t>
+  </si>
+  <si>
+    <t>GARCIA QUINONEZ PEDRO ARCENIO, CEDENO CEDENO ANDRES MARIA, CEDENO QUINONEZ JHONNY YOBARDO</t>
   </si>
   <si>
     <t>FAM207</t>
   </si>
   <si>
-    <t>803969393-SIN_CED-1308713716</t>
-  </si>
-  <si>
-    <t>GARCIA QUINONEZ PEDRO ARCENIO, CEDENO QUINONEZ JHONNY YOBARDO, CEDENO CEDENO ANDRES MARIA</t>
+    <t>803377118-SIN_CED</t>
+  </si>
+  <si>
+    <t>RUIZ MAIRONGO TANIA SILVANA, CANTICUS VICTOR MAIRONGO</t>
   </si>
   <si>
     <t>FAM208</t>
   </si>
   <si>
-    <t>SIN_CED-803377118</t>
-  </si>
-  <si>
-    <t>CANTICUS VICTOR MAIRONGO, RUIZ MAIRONGO TANIA SILVANA</t>
+    <t>803629823-SIN_CED-1005130818</t>
+  </si>
+  <si>
+    <t>DUARTE JIMBO JAZMIN, SOSA VERA FREDDY GREGORIO, DUARTE JIMBO KARINA RAQUEL</t>
   </si>
   <si>
     <t>FAM209</t>
   </si>
   <si>
-    <t>1005130818-SIN_CED-803629823</t>
-  </si>
-  <si>
-    <t>DUARTE JIMBO KARINA RAQUEL, SOSA VERA FREDDY GREGORIO, DUARTE JIMBO JAZMIN</t>
+    <t>SIN_CED-803210467-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>PAIS CORTEZ JOSUE SIPRIANO, QUINONEZ CORTEZ JHOAN SEBASTIAN, CORTEZ PAIS JOSUE CIPRIANO, PAIS CORTEZ ESTIBEN</t>
   </si>
   <si>
     <t>FAM210</t>
   </si>
   <si>
-    <t>SIN_CED-803210467-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>CORTEZ PAIS JOSUE CIPRIANO, QUINONEZ CORTEZ JHOAN SEBASTIAN, PAIS CORTEZ ESTIBEN, PAIS CORTEZ JOSUE SIPRIANO</t>
+    <t>SIN_CED-2100639588-2150095558</t>
+  </si>
+  <si>
+    <t>MORA PARRA ROSALIA, MORA PARRA YOMAYRA GISELA, MORA PARRA KEVIN RENE</t>
   </si>
   <si>
     <t>FAM211</t>
   </si>
   <si>
-    <t>SIN_CED-2150095558-2100639588</t>
-  </si>
-  <si>
-    <t>MORA PARRA ROSALIA, MORA PARRA KEVIN RENE, MORA PARRA YOMAYRA GISELA</t>
+    <t>SIN_CED-850030495</t>
+  </si>
+  <si>
+    <t>BRAVO VIVERO JHOEL, BRAVO VIVERO HITTER ALEJANDRO</t>
   </si>
   <si>
     <t>FAM212</t>
   </si>
   <si>
-    <t>SIN_CED-850030495</t>
-  </si>
-  <si>
-    <t>BRAVO VIVERO JHOEL, BRAVO VIVERO HITTER ALEJANDRO</t>
+    <t>803635580-802661165-SIN_CED</t>
+  </si>
+  <si>
+    <t>BATALLA OBANDO DAVID, BATALLA PERLAZA JOHHNY AURELIO, BATALLA BEDOYA DENNIS</t>
   </si>
   <si>
     <t>FAM213</t>
   </si>
   <si>
-    <t>803635580-SIN_CED-802661165</t>
-  </si>
-  <si>
-    <t>BATALLA OBANDO DAVID, BATALLA BEDOYA DENNIS, BATALLA PERLAZA JOHHNY AURELIO</t>
+    <t>1312047671-1713681391-803791862-803791854</t>
+  </si>
+  <si>
+    <t>CEDENO VELEZ EDUARDO ANTONIO, MORA TORO HECTOR DAVID, CEDENO VELEZ HECTOR DAVID, CEDENO VELEZ ADRIAN EFRAIN</t>
   </si>
   <si>
     <t>FAM214</t>
   </si>
   <si>
-    <t>1713681391-803791854-1312047671-803791862</t>
-  </si>
-  <si>
-    <t>MORA TORO HECTOR DAVID, CEDENO VELEZ ADRIAN EFRAIN, CEDENO PLAZA EDUARDO ANTONIO, CEDENO VELEZ HECTOR DAVID</t>
+    <t>1304434358-1316890332-1316890340</t>
+  </si>
+  <si>
+    <t>CEVALLOS CASTRO POMPILIO, CEVALLOS ROMERO GENITH, CEVALLOS ROMERO GREGORY JOEL</t>
   </si>
   <si>
     <t>FAM215</t>
   </si>
   <si>
-    <t>1316890332-1304434358-1316890340</t>
-  </si>
-  <si>
-    <t>CEVALLOS ROMERO GENITH, CEVALLOS CASTRO POMPILIO, CEVALLOS ROMERO GREGORY</t>
+    <t>1315713089-1307108231</t>
+  </si>
+  <si>
+    <t>MACIAS CEDENO RONALD RENE, CEDENO CHEVEZ TEMISTOCLE</t>
   </si>
   <si>
     <t>FAM216</t>
   </si>
   <si>
-    <t>1307108231-1315713089</t>
-  </si>
-  <si>
-    <t>CEDENO CHEVEZ TEMISTOCLE, MACIAS CEDENO RONALD RENE</t>
+    <t>1307547560-SIN_CED</t>
+  </si>
+  <si>
+    <t>MOREIRA SORNOZA RAMON WILFRIDO, MOREIRA JULIO</t>
   </si>
   <si>
     <t>FAM217</t>
   </si>
   <si>
-    <t>1307547560-SIN_CED</t>
-  </si>
-  <si>
-    <t>MOREIRA SORNOZA RAMON WILFRIDO, MOREIRA JULIO</t>
+    <t>SIN_CED-803104207-SIN_CED</t>
+  </si>
+  <si>
+    <t>GIRON PATINO HUMBERTO, GIRON PATINO JOSE LUIS, GIRON HERNANDEZ JUNIOR DAVID</t>
   </si>
   <si>
     <t>FAM218</t>
   </si>
   <si>
-    <t>803104207-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>GIRON PATINO JOSE LUIS, GIRON PATINO HUMBERTO, GIRON HERNANDEZ JUNIOR DAVID</t>
+    <t>802898486-940897846</t>
+  </si>
+  <si>
+    <t>AYOVI JURADO DAVID VINICIO, CUASQUER AYOVI JONATHAN</t>
   </si>
   <si>
     <t>FAM219</t>
   </si>
   <si>
-    <t>940897846-802898486</t>
-  </si>
-  <si>
-    <t>CUASQUER AYOVI JONATHAN, AYOVI JURADO DAVID VINICIO</t>
+    <t>802012054-703902015</t>
+  </si>
+  <si>
+    <t>CASTILLO GUERRERO ANGELA CATALINA, AYOVI TENORIO YONNY DAVID</t>
   </si>
   <si>
     <t>FAM220</t>
   </si>
   <si>
-    <t>802012054-703902015</t>
-  </si>
-  <si>
-    <t>CASTILLO GUERRERO ANGELA CATALINA, AYOVI TENORIO YONNY DAVID</t>
+    <t>SIN_CED-803281674-803914514-803629773-SIN_CED-804361475-SIN_CED-SIN_CED-803630888-SIN_CED</t>
+  </si>
+  <si>
+    <t>MICOLTA POROZO AGNER YENER, OROZO VALENCIA NILBERT CESAR, CAICEDO MINA EDISON FREDY, MINA POROZO WILBER JAKSON, MINA MICOLTA STALINO JUNIOR, MINA MINA WASIN PATRICIO, POROZO VALENCIA RAMIRO, PACHITO NAZARENO DOMINGO IDALGO, POROZO CAICEDO ARMANDO MIGUEL, MINA POROZO PETER JAIRO</t>
   </si>
   <si>
     <t>FAM221</t>
   </si>
   <si>
-    <t>SIN_CED-803629773-SIN_CED-804361475-803281674-SIN_CED-803630888-SIN_CED-SIN_CED-803914514</t>
-  </si>
-  <si>
-    <t>POROZO VALENCIA RAMIRO, MINA POROZO WILBER JAKSON, MINA POROZO PETER JAIRO, MINA MINA WASIN PATRICIO, OROZO VALENCIA NILBERT CESAR, PACHITO NAZARENO DOMINGO IDALGO, POROZO CAICEDO ARMANDO MIGUEL, MICOLTA POROZO AGNER YENER, MINA MICOLTA STALINO JUNIOR, CAICEDO MINA EDISON FREDY</t>
+    <t>1310997547-803846054-803054105</t>
+  </si>
+  <si>
+    <t>MARQUEZ VILELA SAMUEL JOSUE, VILELA VERA ALBERTO, VERA RIOFRIO CARLOS ALBERTO</t>
   </si>
   <si>
     <t>FAM222</t>
   </si>
   <si>
-    <t>1310997547-803054105-803846054</t>
-  </si>
-  <si>
-    <t>MARQUEZ VILELA SAMUEL JOSUE, VERA RIOFRIO CARLOS ALBERTO, VILELA VERA ALBERTO</t>
+    <t>804125664-SIN_CED-SIN_CED-1204642746-SIN_CED-1204159295-SIN_CED-800874729-803946516-804125649-803628643-803628759-1203142938-803540335-1206273235-SIN_CED-SIN_CED-800944787-SIN_CED-803975598-2100060512-1717362402-1720497450-SIN_CED-803978410-2100285242-804320000-SIN_CED-803940154-804991230-2350956229-803946912</t>
+  </si>
+  <si>
+    <t>DE LEON CAICEDO VICTOR, CARBO SIMISTERRA ANDERLO AZAEL, QUINONEZ ARROYO CARLOS ANDRES, CARBO MOSQUERA WILSON MANUEL, SIMISTERRA MINA MERCEDES YALIBETH, VILLACIS VERA NESTOR EDINSON, QUINTERO ARROYO ANTHONY ANDRES, QUINTERO QUINONEZ CALIXTO NIGINS, SIMISTERRA ROSALES WAGNER MICHELLE, ARROYO MINA JUAN CARLOS, QUINTERO ARROYO LISTON YAMPIERRT, ARROYO ARROYO JAIRO STEVEN, HOLGUIN ARMANDO CARBO, ARROYO DE LEON CRISTINA VIRGINIA, VILLAVICENCIO VERA MANUEL, ARROYO ARROYO LINTON ANTONIO, ARROYO UALNER SIMISTERRA, CAICEDO DE LEON LAUREANO ISIDRO, CARBOS IMISTERRA WIDINSON MANUEL, VELEZ SORNOZA MARCOS ANTONIO, ARROYO ARCE ANA MARLA, ANGULO MINA LUZ OLINDA, ARROYO MINA WALTER SEGUNDO, ROSALES ARROYO MARIA, VILLACIS VELEZ ANDERSON ERNESTO, ARROYO TEOFILO SIMISTERRA, ARROYO MINA JOHNNY OMAR, CAICEDO DE LEON NORMAN ISELA, SIMISTERRA CASTILLO STIVEN BRANDO, SIMISTERRA MINA ALEJANDRO YOSUE, SORNOZA SORNOZA ADONIS ALEJANDRO, ARROYO ARROYO KLEVER WASHINGTON</t>
   </si>
   <si>
     <t>FAM223</t>
   </si>
   <si>
-    <t>2100285242-803978410-SIN_CED-1717362402-SIN_CED-804991230-1203142938-1720497450-1204642746-800874729-SIN_CED-SIN_CED-SIN_CED-1206273235-804125649-1204159295-803975598-800944787-804125664-SIN_CED-804320000-803540335-2350956229-2100060512-SIN_CED-803628759-803940154-803946912-803628643-SIN_CED-803946516-SIN_CED</t>
-  </si>
-  <si>
-    <t>ARROYO TEOFILO SIMISTERRA, VILLACIS VELEZ ANDERSON ERNESTO, QUINONEZ ARROYO CARLOS ANDRES, ANGULO MINA LUZ OLINDA, QUINTERO ARROYO ANTHONY ANDRES, SIMISTERRA MINA ALEJANDRO YOSUE, HOLGUIN ARMANDO CARBO, ARROYO MINA WALTER SEGUNDO, CARBO MOSQUERA WILSON MANUEL, QUINTERO QUINONEZ CALIXTO NIGINS, ARROYO UALNER SIMISTERRA, CARBOS IMISTERRA WIDINSON MANUEL, CAICEDO DE LEON NORMAN ISELA, VILLAVICENCIO VERA MANUEL, ARROYO MINA JUAN CARLOS, VILLACIS VERA NESTOR EDINSON, VELEZ SORNOZA MARCOS ANTONIO, CAICEDO DE LEON LAUREANO ISIDRO, DE LEON CAICEDO VICTOR, ARROYO ARROYO LINTON ANTONIO, ARROYO MINA JOHNNY OMAR, ARROYO DE LEON CRISTINA VIRGINIA, SORNOZA SORNOZA ADONIS ALEJANDRO, ARCE ARROYO ANA MARLA, SIMISTERRA MINA MERCEDES YALIBETH, ARROYO ARROYO JAIRO STEVEN, SIMISTERRA CASTILLO STIVEN BRANDO, ARROYO ARROYO KLEVER WASHINGTON, QUINTERO ARROYO LISTON YAMPIERRT, CARBO SIMISTERRA ANDERLO AZAEL, SIMISTERRA ROSALES WAGNER MICHELLE, ROSALES ARROYO MARIA</t>
+    <t>1706556717-803632744-SIN_CED</t>
+  </si>
+  <si>
+    <t>PARDO LEON DIMAS VINICIO, PARDO MINA GONZALO VINICIO, OBANDO MINA JAVIER ANDRES</t>
   </si>
   <si>
     <t>FAM224</t>
   </si>
   <si>
-    <t>1706556717-SIN_CED-803632744</t>
-  </si>
-  <si>
-    <t>PARDO LEON DIMAS VINICIO, OBANDO MINA JAVIER ANDRES, PARDO MINA GONZALO VINICIO</t>
+    <t>1758605925-601632037</t>
+  </si>
+  <si>
+    <t>CARRASCAL CEDENO DAVID, CARRASCAL ROSERO GERARDO</t>
   </si>
   <si>
     <t>FAM225</t>
   </si>
   <si>
-    <t>1758605925-601632037</t>
-  </si>
-  <si>
-    <t>CARRASCAL CEDENO DAVID, CARRASCAL ROSERO GERARDO</t>
+    <t>1311059644-SIN_CED</t>
+  </si>
+  <si>
+    <t>CAGUA PORTILLA FREDDY ALBERTO, CAGUA VERGARA ALEJANDRO</t>
   </si>
   <si>
     <t>FAM226</t>
   </si>
   <si>
-    <t>1311059644-SIN_CED</t>
-  </si>
-  <si>
-    <t>CAGUA PORTILLA FREDDY ALBERTO, CAGUA VERGARA ALEJANDRO</t>
+    <t>SIN_CED-1309077004</t>
+  </si>
+  <si>
+    <t>QUIROZ JUNIOR, MENDOZA SUAREZ BYRON RENE</t>
   </si>
   <si>
     <t>FAM227</t>
   </si>
   <si>
-    <t>SIN_CED-1309077004</t>
-  </si>
-  <si>
-    <t>QUIROZ JUNIOR, MENDOZA SUAREZ BYRON RENE</t>
+    <t>1308259694-SIN_CED</t>
+  </si>
+  <si>
+    <t>ZAMORA VILLAFUERTE JESUS NAZARENO, ZAMORA BAILON MEDARDO</t>
   </si>
   <si>
     <t>FAM228</t>
   </si>
   <si>
-    <t>1308259694-SIN_CED</t>
-  </si>
-  <si>
-    <t>ZAMORA VILLAFUERTE JESUS NAZARENO, ZAMORA BAILON MEDARDO</t>
+    <t>802312660-SIN_CED-1312310640-1312601998-1311424285</t>
+  </si>
+  <si>
+    <t>MORALES REZABALA ERY ALEXANDER, REZABALA CRISTIAN, REZABALA CENTENO ANGEL JAVIER, ANCHUNDIA REZABALA DANNY ARIEL, VELEZ MORALES RUBEN</t>
   </si>
   <si>
     <t>FAM229</t>
   </si>
   <si>
-    <t>1312601998-802312660-SIN_CED-1312310640-1311424285</t>
-  </si>
-  <si>
-    <t>ANCHUNDIA REZABALA DANNY ARIEL, MORALES REZABALA ERY ALEXANDER, REZABALA CRISTIAN, REZABALA CENTENO ANGEL JAVIER, VELEZ MORALES RUBEN</t>
+    <t>951402635-959303942</t>
+  </si>
+  <si>
+    <t>ANDRADE ALMAZAN MARIA JOSE, ANDRADE ALMAZAN RICARDO</t>
   </si>
   <si>
     <t>FAM230</t>
   </si>
   <si>
-    <t>959303942-951402635</t>
-  </si>
-  <si>
-    <t>ANDRADE ALMAZAN RICARDO, ANDRADE ALMAZAN MARIA JOSE</t>
+    <t>1718748096-803577337</t>
+  </si>
+  <si>
+    <t>MENDOZA ESCALADA ALEXANDER, PALOMINO LANDAZURI FABRICIO</t>
   </si>
   <si>
     <t>FAM231</t>
   </si>
   <si>
-    <t>803577337-1718748096</t>
-  </si>
-  <si>
-    <t>PALOMINO LANDAZURI FABRICIO, MENDOZA ENCALADA ALEXANDER</t>
+    <t>803302082-1721240834-1313664649-802891721</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RAMIREZ ARMANDO RAFAEL, RODRIGUEZ MENESES JOSE LUIS, ROMERO VERA JOHN GREGORIO, RODRIGUEZ SOLORZANO HENRY JESUS</t>
   </si>
   <si>
     <t>FAM232</t>
   </si>
   <si>
-    <t>803302082-1721240834-1313664649-802891721</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ RAMIREZ ARMANDO RAFAEL, RODRIGUEZ MENESES JOSE LUIS, ROMERO VERA JOHN GREGORIO, RODRIGUEZ SOLORZANO HENRY JESUS</t>
+    <t>803633031-1713050886</t>
+  </si>
+  <si>
+    <t>CALAPINA LUCAS DAVID, CALAPINA GUAITA ALFREDO</t>
   </si>
   <si>
     <t>FAM233</t>
   </si>
   <si>
-    <t>1713050886-803633031</t>
-  </si>
-  <si>
-    <t>CALAPINA GUAITA ALFREDO, CALAPINA LUCAS DAVID</t>
+    <t>1718767989-1758336711-1758299620</t>
+  </si>
+  <si>
+    <t>BRIONES RENGIFO ANA LEIDA, CHAVES MEZA FERNANDO NEWTON, CHAVES MEZA LUIS CARLOS</t>
   </si>
   <si>
     <t>FAM234</t>
   </si>
   <si>
-    <t>1758299620-1758336711-1718767989</t>
-  </si>
-  <si>
-    <t>CHAVES MEZA LUIS CARLOS, CHAVES MEZA FERNANDO NEWTON, BRIONES RENGIFO ANA LEIDA</t>
+    <t>1803488269-1804928263-1803790110</t>
+  </si>
+  <si>
+    <t>TOAPANTA JAYA EDWIN HERIBERTO, CHICAIZA SANGUCHO EDWIN RICARDO, CHICAIZA SANGUCHO LUIS</t>
   </si>
   <si>
     <t>FAM235</t>
   </si>
   <si>
-    <t>1803488269-1804928263-1803790110</t>
-  </si>
-  <si>
-    <t>TOAPANTA JAYA EDWIN HERIBERTO, CHICAIZA SANGUCHO EDWIN RICARDO, CHICAIZA SANGUCHO LUIS</t>
+    <t>SIN_CED-1722767942-1003008545-SIN_CED-801187881</t>
+  </si>
+  <si>
+    <t>MERCHANCANO RODRIGUEZ DARIO VINICIO, MERCHANCANO RODRIGUEZ ARCESIO IPOLITO, MERCHANCANO RODRIGUEZ OLGA INES, MERCHANCANO RODRIGUEZ LIBARDO LUIS, ANGULO CHARCOPA JOSE</t>
   </si>
   <si>
     <t>FAM236</t>
   </si>
   <si>
-    <t>SIN_CED-1722767942-SIN_CED-1003008545-801187881</t>
-  </si>
-  <si>
-    <t>MERCHANCANO RODRIGUEZ LIBARDO LUIS, MERCHANCANO RODRIGUEZ ARCESIO IPOLITO, MERCHANCANO RODRIGUEZ DARIO VINICIO, MERCHANCANO RODRIGUEZ OLGA INES, ANGULO CHARCOPA JOSE</t>
+    <t>1004163125-SIN_CED</t>
+  </si>
+  <si>
+    <t>VERGARA MERLIN ELIAS, VERGARA MERLIN EDUARDO</t>
   </si>
   <si>
     <t>FAM237</t>
   </si>
   <si>
-    <t>1004163125-SIN_CED</t>
-  </si>
-  <si>
-    <t>VERGARA MERLIN ELIAS, VERGARA MERLIN EDUARDO</t>
+    <t>852220532-1759520172</t>
+  </si>
+  <si>
+    <t>BANGUERA REDIN DIVIER FABIAN, BANGUERA PALACIO OLIVEROS</t>
   </si>
   <si>
     <t>FAM238</t>
   </si>
   <si>
-    <t>1759520172-852220532</t>
-  </si>
-  <si>
-    <t>BANGUERA PALACIO OLIVEROS, BANGUERA REDIN DIVIER FABIAN</t>
+    <t>1002988507-1003387204</t>
+  </si>
+  <si>
+    <t>GODOY PAI NICARIO, GODOY PAI WILLIAN</t>
   </si>
   <si>
     <t>FAM239</t>
   </si>
   <si>
-    <t>1002988507-1003387204</t>
-  </si>
-  <si>
-    <t>GODOY PAI NICARIO, GODOY PAI WILLIAN</t>
+    <t>804976199-SIN_CED-850860768-955257209-850406562-851071233-850844598-802685735-804888659</t>
+  </si>
+  <si>
+    <t>ALARCON NAZARENO CRISTHIAN JONATHAN, NAZARENO ORTIZ JONATHAN ORLANDO, NAZARENO QUEBEDO JOEL VISMARK, NAZARENO VALENCIA GENER, PAREDES NAZARENO RICARDO, NAZARENO QUEBEDO STALIN JAVIER, NAZARENO QUEBEDO JORDAN HAROL, NAZARENO VALENCIA JUAN AGUSTIN, NAZARENO QUEBEDO JEFFERSON JOSE</t>
   </si>
   <si>
     <t>FAM240</t>
   </si>
   <si>
-    <t>SIN_CED-850844598-850860768-804976199-955257209-850406562-851071233-802685735-804888659</t>
-  </si>
-  <si>
-    <t>NAZARENO ORTIZ JONATHAN ORLANDO, NAZARENO QUEBEDO JORDAN HAROL, NAZARENO QUEBEDO JOEL VISMARK, ALARCON NAZARENO CRISTHIAN JONATHAN, NAZARENO VALENCIA GENER, PAREDES NAZARENO RICARDO, NAZARENO QUEBEDO STALIN JAVIER, NAZARENO VALENCIA JUAN AGUSTIN, NAZARENO QUEBEDO JEFFERSON JOSE</t>
+    <t>920414844-801866823-SIN_CED</t>
+  </si>
+  <si>
+    <t>BARREIRO CORTEZ SEGUNDO ENRIQUE, CORTEZ CAICEDO JERNER LEONIS, CORTEZ CAICEDO HICTER MIGUEL</t>
   </si>
   <si>
     <t>FAM241</t>
   </si>
   <si>
-    <t>920414844-SIN_CED-801866823</t>
-  </si>
-  <si>
-    <t>BARREIRO CORTEZ SEGUNDO ENRIQUE, CORTEZ CAICEDO HICTER MIGUEL, CORTEZ CAICEDO JERNER LEONIS</t>
+    <t>1251233258-802006452</t>
+  </si>
+  <si>
+    <t>MAYORGA PARRAGA KENNETH JULIAN, ANGEL JULIA MAYORGA</t>
   </si>
   <si>
     <t>FAM242</t>
   </si>
   <si>
-    <t>1251233258-802006452</t>
-  </si>
-  <si>
-    <t>MAYORGA PARRAGA KENNETH JULIAN, ANGEL JULIA MAYORGA</t>
+    <t>2350673345-802739821-SIN_CED</t>
+  </si>
+  <si>
+    <t>CANDELARIO TORRES JORGE DARIO, CANDELARIO MORENO DANIEL, NASARENO JOSE LAURO</t>
   </si>
   <si>
     <t>FAM243</t>
   </si>
   <si>
-    <t>SIN_CED-2350673345-802739821</t>
-  </si>
-  <si>
-    <t>NASARENO JOSE LAURO, CANDELARIO TORRES JORGE DARIO, CANDELARIO MORENO DANIEL</t>
+    <t>1761176401-SIN_CED-852201938</t>
+  </si>
+  <si>
+    <t>BONILLA VIVEROS KATERINE, BONILLA CARVAJAL ALBERTO, MINA BONILLA EMERSON ANDRES</t>
   </si>
   <si>
     <t>FAM244</t>
   </si>
   <si>
-    <t>852201938-SIN_CED-1761176401</t>
-  </si>
-  <si>
-    <t>MINA BONILLA EMERSON ANDRES, BONILLA CARVAJAL ALBERTO, BONILLA VIVEROS KATERINE</t>
+    <t>925670184-805223799</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ SALGADO MARCOS RAFAEL, RODRIGUEZ MONTANO JEREMY</t>
   </si>
   <si>
     <t>FAM245</t>
   </si>
   <si>
-    <t>925670184-805223799</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ SALGADO MARCOS RAFAEL, RODRIGUEZ MONTANO JEREMY</t>
+    <t>801311358-803214618</t>
+  </si>
+  <si>
+    <t>GONZALEZ PANEZO MANUEL AMABLE, GONZALEZ NAZARENO LUIS MANUEL</t>
   </si>
   <si>
     <t>FAM246</t>
   </si>
   <si>
-    <t>801311358-803214618</t>
-  </si>
-  <si>
-    <t>GONZALEZ PANEZO MANUEL AMABLE, GONZALEZ NAZARENO LUIS MANUEL</t>
+    <t>1714796396-1710154566-0</t>
+  </si>
+  <si>
+    <t>OLIVES SANTANA RICARDO, OLIVES SANTANA GUSTAVO, OLIVES CAICEDO CARLOS DANIEL</t>
   </si>
   <si>
     <t>FAM247</t>
   </si>
   <si>
-    <t>1714796396-0-1710154566</t>
-  </si>
-  <si>
-    <t>OLIVES SANTANA RICARDO, OLIVES CAICEDO CARLOS DANIEL, OLIVES SANTANA GUSTAVO</t>
+    <t>1003988696-850279936-1003435318</t>
+  </si>
+  <si>
+    <t>ESTACIO AYOVI LUIS DIEGO, EDWIN ESTACIO CHILLAMBO, ESTACIO CUENUD DIECITA</t>
   </si>
   <si>
     <t>FAM248</t>
   </si>
   <si>
-    <t>1003435318-1003988696-850279936</t>
-  </si>
-  <si>
-    <t>ESTACIO CUENUD DIECITA, ESTACIO AYOVI LUIS DIEGO, EDWIN ESTACIO CHILLAMBO</t>
+    <t>802750059-801565102</t>
+  </si>
+  <si>
+    <t>CABEZAS QUINONEZ WALTER LEONARDO, GREGORIO ERNESTO QUINONEZ</t>
   </si>
   <si>
     <t>FAM249</t>
   </si>
   <si>
-    <t>801565102-802750059</t>
-  </si>
-  <si>
-    <t>QUINONEZ ERNESTO GREGORIO, CABEZAS QUINONEZ WALTER LEONARDO</t>
+    <t>SIN_CED-803918523-1726589839-SIN_CED-SIN_CED-SIN_CED-923508238-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>QUINTERO MINA LUCIA, ANGULO QUINTERO BEDER SULIBAN, GUERRERO QUINTERO YIMIS ISAIAS, QUINTERO NAZARENO JACKSON JOFFRE, QUINTERO NAZARENO YONATAN RONNY, MINA QUINTERO JACQUELINE REMIGIA, QUINTERO MINA MARIBEL SOFIA, ARCE QUINTERO DARIO LUIS, GUERRERO QUINTERO DARWIN JOSUE</t>
   </si>
   <si>
     <t>FAM250</t>
   </si>
   <si>
-    <t>SIN_CED-1726589839-923508238-SIN_CED-SIN_CED-SIN_CED-803918523-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>ARCE QUINTERO DARIO LUIS, GUERRERO QUINTERO YIMIS ISAIAS, QUINTERO MINA MARIBEL SOFIA, MINA QUINTERO JACQUELINE REMIGIA, QUINTERO NAZARENO JACKSON JOFFRE, GUERRERO QUINTERO DARWIN JOSUE, ANGULO QUINTERO BEDER SULIBAN, QUINTERO MINA LUCIA, QUINTERO NAZARENO YONATAN RONNY</t>
+    <t>802273557-SIN_CED</t>
+  </si>
+  <si>
+    <t>CARABALI JARAMILLO TRUDY EDIO, CARABALI HURTADO EDDY MARIO</t>
   </si>
   <si>
     <t>FAM251</t>
   </si>
   <si>
-    <t>802273557-SIN_CED</t>
-  </si>
-  <si>
-    <t>CARABALI JARAMILLO TRUDY EDIO, CARABALI HURTADO EDDY MARIO</t>
+    <t>850602244-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>GARCIA CANTICUS LUIS ANTONIO, GARCIA CANTICUS GERMAN DIONIRES, GARCIA CANTICUS ERASMO</t>
   </si>
   <si>
     <t>FAM252</t>
   </si>
   <si>
-    <t>SIN_CED-SIN_CED-850602244</t>
-  </si>
-  <si>
-    <t>GARCIA CANTICUS GERMAN DIONIRES, GARCIA CANTICUS ERASMO, GARCIA CANTICUS LUIS ANTONIO</t>
+    <t>1207922780-1205549940</t>
+  </si>
+  <si>
+    <t>CORONEL MUNOZ SOFIA, MUNOZ MERO LIZANDRO</t>
   </si>
   <si>
     <t>FAM253</t>
   </si>
   <si>
-    <t>1205549940-1207922780</t>
-  </si>
-  <si>
-    <t>MUNOZ MERO LIZANDRO, CORONEL MUNOZ SOFIA</t>
+    <t>2100940424-1202181424</t>
+  </si>
+  <si>
+    <t>TUAREZ YANEZ JANDRY RAMON, TUAREZ PALMA CAYETANO</t>
   </si>
   <si>
     <t>FAM254</t>
   </si>
   <si>
-    <t>2100940424-1202181424</t>
-  </si>
-  <si>
-    <t>TUAREZ YANEZ JANDRY RAMON, TUAREZ PALMA CAYETANO</t>
+    <t>2300645757-1718465212</t>
+  </si>
+  <si>
+    <t>CEVALLOS LUNA WLADIMIR, SACAN QUISHPE ALBERTO</t>
   </si>
   <si>
     <t>FAM255</t>
   </si>
   <si>
-    <t>1718465212-2300645757</t>
-  </si>
-  <si>
-    <t>SACAN QUISHPE ALBERTO, CEVALLOS LUNA WLADIMIR</t>
+    <t>802928846-801497579-SIN_CED</t>
+  </si>
+  <si>
+    <t>QUINTERO CUERO JORGE EDGAR, QUINTERO PRADO EDGAR JOFFRE, QUINTERO CUERO NIXON JAVIER</t>
   </si>
   <si>
     <t>FAM256</t>
   </si>
   <si>
-    <t>801497579-SIN_CED-802928846</t>
-  </si>
-  <si>
-    <t>QUINTERO PRADO EDGAR JOFFRE, QUINTERO CUERO NIXON JAVIER, QUINTERO CUERO JORGE EDGAR</t>
+    <t>1724773716-804658151</t>
+  </si>
+  <si>
+    <t>CEDENO ALBAN GABRIEL, CEDENO ALBAN GEOVANNA GABRIELA</t>
   </si>
   <si>
     <t>FAM257</t>
   </si>
   <si>
-    <t>804658151</t>
-  </si>
-  <si>
-    <t>CEDENO ALBAN GABRIEL</t>
+    <t>SIN_CED-1313663757</t>
+  </si>
+  <si>
+    <t>LOPEZ ZAMBRANO PEDRO PABLO, VITE LUCAS VICTOR MANUEL</t>
   </si>
   <si>
     <t>FAM258</t>
   </si>
   <si>
-    <t>1313663757-SIN_CED</t>
-  </si>
-  <si>
-    <t>VITE LUCAS VICTOR MANUEL, LOPEZ ZAMBRANO PEDRO PABLO</t>
+    <t>804260826-802899070</t>
+  </si>
+  <si>
+    <t>SANTANA ARANA MARCELO, VINCES ARANA PEDRO PABLO</t>
   </si>
   <si>
     <t>FAM259</t>
   </si>
   <si>
-    <t>802899070-804260826</t>
-  </si>
-  <si>
-    <t>VINCES ARANA PEDRO PABLO, SANTANA ARANA MARCELO</t>
+    <t>2350092496-801853805</t>
+  </si>
+  <si>
+    <t>MARTINEZ ZAMBRANO NICOLE MARICELA, ZAMBRANO ZAMBRANO ENRIQUE</t>
   </si>
   <si>
     <t>FAM260</t>
   </si>
   <si>
-    <t>430738-1758085235</t>
-  </si>
-  <si>
-    <t>CABEZAS ESCOBAR SEGUNDO ABEL, MAIRONGO PAYAN FRANCISCO</t>
+    <t>1758085235-430738</t>
+  </si>
+  <si>
+    <t>MAIRONGO PAYAN FRANCISCO, CABEZAS ESCOBAR SEGUNDO ABEL</t>
   </si>
   <si>
     <t>FAM261</t>
@@ -2410,55 +2410,55 @@
     <t>FAM263</t>
   </si>
   <si>
-    <t>2300690597-850735267-801460114-803631399-SIN_CED</t>
-  </si>
-  <si>
-    <t>SACON VARGAS LUIS GUSTAVO, VELEZ MERA ALEJANDRO EZEQUIEL, MERA ZAMBRANO OSCAR FILAMIL, BRIONES SACON PEDRO CESAR, PONCE VARGAS EDWIN GEOVANNY</t>
+    <t>801460114-803631399-SIN_CED-850735267-2300690597</t>
+  </si>
+  <si>
+    <t>MERA ZAMBRANO OSCAR FILAMIL, BRIONES SACON PEDRO CESAR, PONCE VARGAS EDWIN GEOVANNY, VELEZ MERA ALEJANDRO EZEQUIEL, SACON VARGAS LUIS GUSTAVO</t>
   </si>
   <si>
     <t>FAM264</t>
   </si>
   <si>
-    <t>803978311-850680976-SIN_CED</t>
-  </si>
-  <si>
-    <t>CAICEDO SIMISTERRA VICTOR ANTONIO, CHARCOPA ARROYO ROBERTO DANILO, CAICEDO SIMISTERRA ALEJANDRO</t>
+    <t>850680976-SIN_CED-803978311</t>
+  </si>
+  <si>
+    <t>CHARCOPA ARROYO ROBERTO DANILO, CAICEDO SIMISTERRA ALEJANDRO, CAICEDO SIMISTERRA VICTOR ANTONIO</t>
   </si>
   <si>
     <t>FAM265</t>
   </si>
   <si>
-    <t>951892652-SIN_CED-SIN_CED-951123306-SIN_CED-850021932</t>
-  </si>
-  <si>
-    <t>VALENCIA JAMA STEVEN REMBERTO, CHURTA CORTEZ KEVIN FRANK, CHURTA JAMA EDERSON ENETO, VALENCIA JAMA DIXON MICHAEL, CORTEZ CHURTA ITER ALEXI, CHURTA CORTEZ HUMBERTO DANIEL</t>
+    <t>951123306-951892652-850021932-SIN_CED-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>VALENCIA JAMA DIXON MICHAEL, VALENCIA JAMA STEVEN REMBERTO, CHURTA CORTEZ HUMBERTO DANIEL, CHURTA CORTEZ KEVIN FRANK, CHURTA JAMA EDERSON ENETO, CORTEZ CHURTA ITER ALEXI</t>
   </si>
   <si>
     <t>FAM266</t>
   </si>
   <si>
-    <t>851054353-803628874-804973287</t>
-  </si>
-  <si>
-    <t>CHIRAN MINA FAUSTO YOEL, VALENCIA MINA YORDAN JAHIR, CHIRAN MINA CONTY</t>
+    <t>851054353-804973287-803628874</t>
+  </si>
+  <si>
+    <t>CHIRAN MINA FAUSTO YOEL, CHIRAN MINA CONTY, VALENCIA MINA YORDAN JAHIR</t>
   </si>
   <si>
     <t>FAM267</t>
   </si>
   <si>
-    <t>943903914-SIN_CED</t>
-  </si>
-  <si>
-    <t>GARCIA VELASCO CHRISTOFER LEONEL, CABEZA CORNELIO GARCIA</t>
+    <t>SIN_CED-943903914</t>
+  </si>
+  <si>
+    <t>CABEZA CORNELIO GARCIA, GARCIA VELASCO CHRISTOFER LEONEL</t>
   </si>
   <si>
     <t>FAM268</t>
   </si>
   <si>
-    <t>804280790-850420464</t>
-  </si>
-  <si>
-    <t>ZAMBRNAO FALCONES PATRICIO, LOOR FALCONES FERNANDO</t>
+    <t>850420464-804280790</t>
+  </si>
+  <si>
+    <t>LOOR FALCONES FERNANDO, ZAMBRNAO FALCONES PATRICIO</t>
   </si>
   <si>
     <t>FAM269</t>
@@ -2473,10 +2473,10 @@
     <t>FAM270</t>
   </si>
   <si>
-    <t>957668080-917932964</t>
-  </si>
-  <si>
-    <t>RENDON ALVAREZ EDINSON ADRIAN, AVILA JORDAN VICENTE HERIBERTO</t>
+    <t>917932964-957668080</t>
+  </si>
+  <si>
+    <t>AVILA JORDAN VICENTE HERIBERTO, RENDON ALVAREZ EDINSON ADRIAN</t>
   </si>
   <si>
     <t>FAM271</t>
@@ -2491,19 +2491,19 @@
     <t>FAM272</t>
   </si>
   <si>
-    <t>401717962-1004593081-450126420-450242771</t>
-  </si>
-  <si>
-    <t>NASTACUAZ MARIN EUSEBIO FRANCO, NASTACUAS NASTACUAS DARWIN FABIAN, NASTACUAZ MARIN OCTAVIO FIDENCIO, NASTACUAZ NASTACUS NESTOR DAVID</t>
+    <t>1004593081-450126420-450242771-401717962</t>
+  </si>
+  <si>
+    <t>NASTACUAS NASTACUAS DARWIN FABIAN, NASTACUAZ MARIN OCTAVIO FIDENCIO, NASTACUAZ NASTACUS NESTOR DAVID, NASTACUAZ MARIN EUSEBIO FRANCO</t>
   </si>
   <si>
     <t>FAM273</t>
   </si>
   <si>
-    <t>850841552-1753176070-850825720</t>
-  </si>
-  <si>
-    <t>REASCOS VICTOR VALENCIA, VALENCIA REASCOS CARLOS, VALENCIA REASCO JULIA ARACELLY</t>
+    <t>1753176070-850825720-850841552</t>
+  </si>
+  <si>
+    <t>VALENCIA REASCOS CARLOS, VALENCIA REASCO JULIA ARACELLY, REASCOS VICTOR VALENCIA</t>
   </si>
   <si>
     <t>FAM274</t>
@@ -2536,46 +2536,46 @@
     <t>FAM277</t>
   </si>
   <si>
-    <t>SIN_CED-1004375422</t>
-  </si>
-  <si>
-    <t>VALENCIA NELFOR NAZARENO, QUINONEZ AYOVI JULIO CESAR</t>
+    <t>1004375422-SIN_CED</t>
+  </si>
+  <si>
+    <t>QUINONEZ AYOVI JULIO CESAR, VALENCIA NELFOR NAZARENO</t>
   </si>
   <si>
     <t>FAM278</t>
   </si>
   <si>
-    <t>1004795827-1752939064-SIN_CED-850813940-850813957-1726849076-805151529-SIN_CED-802766964-803898022</t>
-  </si>
-  <si>
-    <t>TAPULLO TORRES BOLANO FALCONI, DE LA CRUZ TAPULLO ANNER ALFONZO, TAPUYO SAN NICOLAS ANGEL, QUINONEZ TAPUYO JAIRO MAURICIO, QUINONEZ TAPUYO RENI STEVEN, SAN NICOLAS EDISON TAPUYO, PAY SALAZAR JOSE AGNER, TAPULLO TORRES WANNER GUILFRIDO, TAPUYO LEONARDO DE CRUZ, QUINONEZ TAPUYO ANDRES GUSTAVO</t>
+    <t>803898022-1752939064-SIN_CED-SIN_CED-850813957-1726849076-1004795827-802766964-850813940-805151529</t>
+  </si>
+  <si>
+    <t>QUINONEZ TAPUYO ANDRES GUSTAVO, DE LA CRUZ TAPULLO ANNER ALFONZO, TAPUYO SAN NICOLAS ANGEL, TAPULLO TORRES WANNER GUILFRIDO, QUINONEZ TAPUYO RENI STEVEN, SAN NICOLAS EDISON TAPUYO, TAPULLO TORRES BOLANO FALCONI, TAPUYO LEONARDO DE CRUZ, QUINONEZ TAPUYO JAIRO MAURICIO, PAY SALAZAR JOSE AGNER</t>
   </si>
   <si>
     <t>FAM279</t>
   </si>
   <si>
-    <t>805299096-1004332621-852033307-805465200</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ DE LA CRUZ REINALDO, DE LA CRUZ ANAPA NARCILO, DE LA CRUZ DE LA CRUZ LUIS OLGER, DE LA CRUZ ANAPA JOSE MANUEL</t>
+    <t>1004332621-852033307-805465200-805299096</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ ANAPA NARCILO, DE LA CRUZ DE LA CRUZ LUIS OLGER, DE LA CRUZ ANAPA JOSE MANUEL, DE LA CRUZ DE LA CRUZ REINALDO</t>
   </si>
   <si>
     <t>FAM280</t>
   </si>
   <si>
-    <t>850454349-850454315</t>
-  </si>
-  <si>
-    <t>VALDEZ GRACIA BRICEILA EVELINA, VALDEZ GRACIA ANGEL ALEXANDER</t>
+    <t>850454315-850454349</t>
+  </si>
+  <si>
+    <t>VALDEZ GRACIA ANGEL ALEXANDER, VALDEZ GRACIA BRICEILA EVELINA</t>
   </si>
   <si>
     <t>FAM281</t>
   </si>
   <si>
-    <t>801811894-803333053-SIN_CED-1004161152-SIN_CED-SIN_CED-1311762114-958847725-803627850</t>
-  </si>
-  <si>
-    <t>HURTADO CASTILLO YENNER FELIX, MINA CABEZAS MARICELA ROSALINDA, CAISEDO MERCADO PATRICIA, HURTADO CAICEDO NIXON DANIEL, AIDA ELIZABET MERCADO, CAICEDO MINA FRANCISCO, PARRAGA CEVALLOS LUIS EDUARDO, ARCE BOBOY KEVIN ANDRES, CAICEDO CAICEDO LUIS DAVID</t>
+    <t>958847725-SIN_CED-SIN_CED-SIN_CED-801811894-803333053-1004161152-803627850-SIN_CED-1311762114</t>
+  </si>
+  <si>
+    <t>ARCE BOBOY KEVIN ANDRES, CAICEDO MERCADO FRANCISCO BALDEMAR, CAISEDO MERCADO PATRICIA, CAICEDO MINA FRANCISCO, HURTADO CASTILLO YENNER FELIX, MINA CABEZAS MARICELA ROSALINDA, HURTADO CAICEDO NIXON DANIEL, CAICEDO CAICEDO LUIS DAVID, AIDA ELIZABET MERCADO, PARRAGA CEVALLOS LUIS EDUARDO</t>
   </si>
   <si>
     <t>FAM282</t>
@@ -2590,19 +2590,19 @@
     <t>FAM283</t>
   </si>
   <si>
-    <t>802931113-803331131-1005428204</t>
-  </si>
-  <si>
-    <t>LLANOS PASCAL VICTOR HUGO, ANGULO LLANOS OSCAR DANIEL, LLANOS QUINONEZ MILLER JAVIER</t>
+    <t>803331131-803918879-802931113-1005428204</t>
+  </si>
+  <si>
+    <t>LLANOS PASCAL DALMIRO DANIEL, ANGULO LLANOS OSCAR DANIEL, LLANOS PASCAL VICTOR HUGO, LLANOS QUINONEZ MILLER JAVIER</t>
   </si>
   <si>
     <t>FAM284</t>
   </si>
   <si>
-    <t>1004222103-SIN_CED-803922491-1002312526-1005333800-803922079-850797168-803921402-SIN_CED-SIN_CED-805160322-805472206-SIN_CED-850797283-1050109220-803921188-SIN_CED-803921394-803921329-1004222061-1005314206-803921360-SIN_CED</t>
-  </si>
-  <si>
-    <t>NASTACUAZ PAY FAUSTO ENRIQUE, PAIS JAMES NASTACUA, PAYGUANGUA MERLYN LENYN, CANTINCUZ PAY MIGUEL ALFREDO, CANTINCUS EDWIN NASTACUAZ, PASCAL CANTINCUZ JAIME, TARQUINO NASTACUAZ AMED, CANTINCUS NASTACUA FRANKLIN ROVALINO, CANTINCUZ PAI EGNI ALERCIO, PASCAL CANTINCUZ NORBERTO LISANDRO, LUPERCIO ROBERTO PAIZ, CANTINCUS PAIS FERNANDO ALFREDO, CANTICUS PAY WILSON, PASCAL NASTACUAS OMAR DIONISIO, CANTINCUZ GARCIA VLADIMIR HUMBERTO, CANTINCUZ PAY WILSON VINICIO, PASCAL CANTICUZ JOSE RUBEN, CANTINCUZ NASTACUAZ JEFERSON, PAY CANTINCUZ NESINTON ALEXI, PASCAL NASTACUAS JOVANNY, PASCAL NASTACUAZ BYRON GUSTAVO, CANTINCUS NASTACUA ARTEMIO EMILIO, DEISON RENZO CANTINCUZ</t>
+    <t>850797283-SIN_CED-1005333800-803922079-803921360-1002312526-SIN_CED-805472206-SIN_CED-SIN_CED-1004222061-SIN_CED-805160322-SIN_CED-1005314206-803921394-803921329-803921402-1004222103-803922491-850797168-1050109220-803921188</t>
+  </si>
+  <si>
+    <t>PASCAL NASTACUAS OMAR DIONISIO, CANTINCUZ PAI EGNI ALERCIO, CANTINCUS EDWIN NASTACUAZ, PASCAL CANTINCUZ JAIME, CANTINCUS NASTACUA ARTEMIO EMILIO, CANTINCUZ PAY MIGUEL ALFREDO, CANTICUS PAY WILSON, CANTINCUS PAIS FERNANDO ALFREDO, DEISON RENZO CANTINCUZ, PASCAL CANTICUZ JOSE RUBEN, PASCAL NASTACUAS JOVANNY, PASCAL CANTINCUZ NORBERTO LISANDRO, LUPERCIO ROBERTO PAIZ, PAIS JAMES NASTACUA, PASCAL NASTACUAZ BYRON GUSTAVO, CANTINCUZ NASTACUAZ JEFERSON, PAY CANTINCUZ NESINTON ALEXI, CANTINCUS NASTACUA FRANKLIN ROVALINO, NASTACUAZ PAY FAUSTO ENRIQUE, PAYGUANGUA MERLYN LENYN, TARQUINO NASTACUAZ AMED, CANTINCUZ GARCIA VLADIMIR HUMBERTO, CANTINCUZ PAY WILSON VINICIO</t>
   </si>
   <si>
     <t>FAM285</t>
@@ -2626,10 +2626,10 @@
     <t>FAM287</t>
   </si>
   <si>
-    <t>803391051-803632967</t>
-  </si>
-  <si>
-    <t>CANTICUZ URBANO DILSA LUZMARY, CANTICUZ URBANO DIANA JOHANNA</t>
+    <t>803632967-803391051</t>
+  </si>
+  <si>
+    <t>CANTICUZ URBANO DIANA JOHANNA, CANTICUZ URBANO DILSA LUZMARY</t>
   </si>
   <si>
     <t>FAM288</t>
@@ -2644,157 +2644,166 @@
     <t>FAM289</t>
   </si>
   <si>
-    <t>805476074-803404284-804966430-SIN_CED-804937035-804933752-850846684-2350240343-805021789-850218835</t>
-  </si>
-  <si>
-    <t>NAZARENO JOSUE CAICEDO, CAICEDO QUINTERO LUIS ALBERTO, QUINTERO CAICEDO JAROL FRANCO, QUINTERO CAICEDO JONIEL ISAIAS, CAICEDO QUINTERO ANDERSON HERNANDEZ, QUINTERO CAICEDO EDISON YONEY, CAICEDO NAZARENO MAURO GABRIEL, GOMEZ ENGRACIA ANTHONY STEVEN, QUINTERO CAICEDO LUIS GABRIEL, CAICEDO QUINTERO EDGAR LEONEL</t>
+    <t>2350240343-850218835-804933752-850846684-803404284-805476074-804966430-804937035-805021789-SIN_CED</t>
+  </si>
+  <si>
+    <t>GOMEZ ENGRACIA ANTHONY STEVEN, CAICEDO QUINTERO EDGAR LEONEL, QUINTERO CAICEDO EDISON YONEY, CAICEDO NAZARENO MAURO GABRIEL, CAICEDO QUINTERO LUIS ALBERTO, NAZARENO JOSUE CAICEDO, QUINTERO CAICEDO JAROL FRANCO, CAICEDO QUINTERO ANDERSON HERNANDEZ, QUINTERO CAICEDO LUIS GABRIEL, QUINTERO CAICEDO JONIEL ISAIAS</t>
   </si>
   <si>
     <t>FAM290</t>
   </si>
   <si>
-    <t>803499995-SIN_CED-SIN_CED-802686592</t>
-  </si>
-  <si>
-    <t>CORTEZ MINA JULIANA MARTINA, CORTEZ MINA WILFRIDO CLEPER, PERALTA NAZARENO EDIGAR NECTALI, CORTEZ QUINTERO MARIA BIENBENIDA</t>
+    <t>SIN_CED-802686592-SIN_CED-803499995</t>
+  </si>
+  <si>
+    <t>PERALTA NAZARENO EDIGAR NECTALI, CORTEZ QUINTERO MARIA BIENBENIDA, CORTEZ MINA WILFRIDO CLEPER, CORTEZ MINA JULIANA MARTINA</t>
   </si>
   <si>
     <t>FAM291</t>
   </si>
   <si>
-    <t>803946524-803944453</t>
-  </si>
-  <si>
-    <t>QUINTERO MINA KEVIN SOEN, QUINTERO MINA KENIA KELEN</t>
+    <t>803989979-1712543725-802990440-SIN_CED-SIN_CED-802942987-915352454</t>
+  </si>
+  <si>
+    <t>SANTOS GONZALEZ RICARDO ALBERTO, DELGADO MINA HILDA YANET, RUA CAICEDO FREEDY ALBERTO, DELGADO MINA LANDYS YOJANA, DELGADO MINA EDUARDO LUIS, VACA ANGULO GUIDO FERNANDO, SANTOS CASTRO JOEL ALBERTO</t>
   </si>
   <si>
     <t>FAM292</t>
   </si>
   <si>
+    <t>803944453-803946524</t>
+  </si>
+  <si>
+    <t>QUINTERO MINA KENIA KELEN, QUINTERO MINA KEVIN SOEN</t>
+  </si>
+  <si>
+    <t>FAM293</t>
+  </si>
+  <si>
     <t>803627843-803375195</t>
   </si>
   <si>
     <t>NAZARENO CAICEDO MARIA BELEN, CAICEDO NAZARENO MARIA CRISTINA</t>
   </si>
   <si>
-    <t>FAM293</t>
-  </si>
-  <si>
-    <t>802880997-850907007</t>
-  </si>
-  <si>
-    <t>ARBOLEDA ROBERTO CASQUETE, CHERE MICOLTA LUIS ANGEL</t>
-  </si>
-  <si>
     <t>FAM294</t>
   </si>
   <si>
+    <t>850907007-802880997</t>
+  </si>
+  <si>
+    <t>CHERE MICOLTA LUIS ANGEL, CASQUETE ARBOLEDA ROBERTO</t>
+  </si>
+  <si>
+    <t>FAM295</t>
+  </si>
+  <si>
     <t>802936765-803940188</t>
   </si>
   <si>
     <t>RODRIGUEZ MINA MARTIN REMBERTO, CAICEDO RODRIGUEZ RICARDO</t>
   </si>
   <si>
-    <t>FAM295</t>
-  </si>
-  <si>
-    <t>1309300562-1003040662</t>
-  </si>
-  <si>
-    <t>QUEVEDO MARCILLO MANUEL ARTURO, VARAS RIZO JEFFERSON ANDRES</t>
-  </si>
-  <si>
     <t>FAM296</t>
   </si>
   <si>
+    <t>1003040662-1309300562</t>
+  </si>
+  <si>
+    <t>VARAS RIZO JEFFERSON ANDRES, QUEVEDO MARCILLO MANUEL ARTURO</t>
+  </si>
+  <si>
+    <t>FAM297</t>
+  </si>
+  <si>
     <t>805222437-850421595</t>
   </si>
   <si>
     <t>CABEZAS BAGUI JEFFERSON RICARDO, RAMIREZ CUERO LIMBER</t>
   </si>
   <si>
-    <t>FAM297</t>
-  </si>
-  <si>
-    <t>SIN_CED-1759840901-928746528</t>
-  </si>
-  <si>
-    <t>ROSALES VIVEROS HENRRY, VIVERO ROSALES JORGE, ROSALES VIVERO HENRY FABRICIO</t>
-  </si>
-  <si>
     <t>FAM298</t>
   </si>
   <si>
-    <t>SIN_CED-803554450</t>
-  </si>
-  <si>
-    <t>MERA(HERMANO CARLOS MONTANO, MONTANO MERA JORGE JUNIOR</t>
+    <t>928746528-SIN_CED-1759840901</t>
+  </si>
+  <si>
+    <t>ROSALES VIVERO HENRY FABRICIO, ROSALES VIVEROS HENRRY, VIVERO ROSALES JORGE</t>
   </si>
   <si>
     <t>FAM299</t>
   </si>
   <si>
-    <t>953150687-1755087515</t>
-  </si>
-  <si>
-    <t>VEGA VEGA JINSON ARIEL, VEGA BALOY ALEXIS GILBERTO</t>
+    <t>803554450-SIN_CED</t>
+  </si>
+  <si>
+    <t>MONTANO MERA JORGE JUNIOR, MERA(HERMANO CARLOS MONTANO</t>
   </si>
   <si>
     <t>FAM300</t>
   </si>
   <si>
-    <t>1004659577-SIN_CED-803818707</t>
-  </si>
-  <si>
-    <t>ARROYO MOREANO SALOMON JEANCARLO, ARROYO MOREANO ULOGIO MARTIN, ARROYO MOREANO ELLEN VALERIA</t>
+    <t>1755087515-953150687</t>
+  </si>
+  <si>
+    <t>VEGA BALOY ALEXIS GILBERTO, VEGA VEGA JINSON ARIEL</t>
   </si>
   <si>
     <t>FAM301</t>
   </si>
   <si>
+    <t>803818707-1004659577-SIN_CED</t>
+  </si>
+  <si>
+    <t>ARROYO MOREANO ELLEN VALERIA, ARROYO MOREANO SALOMON JEANCARLO, ARROYO MOREANO ULOGIO MARTIN</t>
+  </si>
+  <si>
+    <t>FAM302</t>
+  </si>
+  <si>
     <t>1311685521-803786599</t>
   </si>
   <si>
     <t>CANOLA RIVERA LUIS ALBERTO, CANOLA RIVERA LUIS FERNANDO</t>
   </si>
   <si>
-    <t>FAM302</t>
-  </si>
-  <si>
-    <t>1004144703-802766949-1004516363-1004692842</t>
-  </si>
-  <si>
-    <t>PALMA CHUQUIAN MARIA FERNANDA, DE JESUS CHUQUIAN MARCIANA, CHUQUIAN GUAMANTAQUI SUSANA, CHICANGO GUAMANTAQUI JEISON JOANDRE</t>
-  </si>
-  <si>
     <t>FAM303</t>
   </si>
   <si>
-    <t>SIN_CED-803958487-805005816</t>
-  </si>
-  <si>
-    <t>VERA VERA JONATHAN RAMON, VERA DEL VALLE ANDERSON DANILO, VERA VERA ALEXANDER AGUSTIN</t>
+    <t>1004692842-1004144703-802766949-1004516363</t>
+  </si>
+  <si>
+    <t>CHICANGO GUAMANTAQUI JEISON JOANDRE, PALMA CHUQUIAN MARIA FERNANDA, DE JESUS CHUQUIAN MARCIANA, CHUQUIAN GUAMANTAQUI SUSANA</t>
   </si>
   <si>
     <t>FAM304</t>
   </si>
   <si>
-    <t>805328374-803936426</t>
-  </si>
-  <si>
-    <t>CORTEZ SIMISTERRA GREYBI YAMILSON, CORTEZ SEGURA SEGUNDO TIETRIS</t>
+    <t>803958487-805005816-SIN_CED</t>
+  </si>
+  <si>
+    <t>VERA DEL VALLE ANDERSON DANILO, VERA VERA ALEXANDER AGUSTIN, VERA VERA JONATHAN RAMON</t>
   </si>
   <si>
     <t>FAM305</t>
   </si>
   <si>
+    <t>803936426-805328374</t>
+  </si>
+  <si>
+    <t>CORTEZ SEGURA SEGUNDO TIETRIS, CORTEZ SIMISTERRA GREYBI YAMILSON</t>
+  </si>
+  <si>
+    <t>FAM306</t>
+  </si>
+  <si>
     <t>803761493-943935023</t>
   </si>
   <si>
     <t>VALENCIA MEDINA FERNANDO DIMAS, LEDESMA MARQUEZ WILBER JOSUE</t>
   </si>
   <si>
-    <t>FAM306</t>
+    <t>FAM307</t>
   </si>
   <si>
     <t>803167451-803914399</t>
@@ -2803,7 +2812,7 @@
     <t>SOLIS VALENCIA NELFOR NERLIN, SOLIS MINA NILER ESTEBAN</t>
   </si>
   <si>
-    <t>FAM307</t>
+    <t>FAM308</t>
   </si>
   <si>
     <t>803432228-SIN_CED</t>
@@ -2812,7 +2821,7 @@
     <t>FALCONES CANGA RENZO JAVIER, CUERO SOLIS LUCIA</t>
   </si>
   <si>
-    <t>FAM308</t>
+    <t>FAM309</t>
   </si>
   <si>
     <t>SIN_CED-1004385132-1712799525</t>
@@ -2821,7 +2830,7 @@
     <t>MAICON ROLANDO MEZA, CAICEDO QUINONEZ SOFIA VANESSA, QUINONEZ DEISIS CAICEDO</t>
   </si>
   <si>
-    <t>FAM309</t>
+    <t>FAM310</t>
   </si>
   <si>
     <t>803200542-801423682</t>
@@ -2830,124 +2839,124 @@
     <t>NAZARENO SEVILLANO WILASON, NAZARENO CORTEZ MARTIN</t>
   </si>
   <si>
-    <t>FAM310</t>
-  </si>
-  <si>
-    <t>1004645725-1004282024</t>
-  </si>
-  <si>
-    <t>CANTINCUZ PAEZ JOSELO OSWALDO, CANTINCUZ PAEZ FIDEL</t>
-  </si>
-  <si>
     <t>FAM311</t>
   </si>
   <si>
-    <t>SIN_CED-804590982-SIN_CED-1003976006</t>
-  </si>
-  <si>
-    <t>MOREANO CORTEZ CRISTHIAN, ULLAURI CAICEDO MILLER JEFFERSON, ULLAURI CAICEDO DIEGO, VIVERO CAICEDO JOSE LUIS</t>
+    <t>1004282024-1004645725</t>
+  </si>
+  <si>
+    <t>CANTINCUZ PAEZ FIDEL, CANTINCUZ PAEZ JOSELO OSWALDO</t>
   </si>
   <si>
     <t>FAM312</t>
   </si>
   <si>
-    <t>851844787-1003421169-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>CAICEDO MINA ANYELO DAVID, CAICEDO MINA ALEJANDRO OSCAR, CAICEDO MINA DANIS ELIAS, CAICEDO ARROYO MAURA</t>
+    <t>804590982-1003976006-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>ULLAURI CAICEDO MILLER JEFFERSON, VIVERO CAICEDO JOSE LUIS, ULLAURI CAICEDO DIEGO, MOREANO CORTEZ CRISTHIAN</t>
   </si>
   <si>
     <t>FAM313</t>
   </si>
   <si>
-    <t>1003749734-1003733878</t>
-  </si>
-  <si>
-    <t>GUANGA CASALUZAN ROBERTO MAURICIO, GUANGA CASALUZAN MERY ALICIA</t>
+    <t>1003421169-SIN_CED-851844787-SIN_CED</t>
+  </si>
+  <si>
+    <t>CAICEDO MINA ALEJANDRO OSCAR, CAICEDO ARROYO MAURA, CAICEDO MINA ANYELO DAVID, CAICEDO MINA DANIS ELIAS</t>
   </si>
   <si>
     <t>FAM314</t>
   </si>
   <si>
-    <t>804452100-926660168-SIN_CED-SIN_CED-803629450</t>
-  </si>
-  <si>
-    <t>VALENCIA VIVERO YUNIOR DAVID, ARROYO MINA JAVIER RICARDO, PRECIADO MINA ALONZO ANDRES, VALENCIA CESAR PATRICIO, CASTILLO VALENCIA ANGEL STIVEN</t>
+    <t>1003733878-1003749734</t>
+  </si>
+  <si>
+    <t>GUANGA CASALUZAN MERY ALICIA, GUANGA CASALUZAN ROBERTO MAURICIO</t>
   </si>
   <si>
     <t>FAM315</t>
   </si>
   <si>
+    <t>803629450-SIN_CED-804452100-SIN_CED-926660168</t>
+  </si>
+  <si>
+    <t>CASTILLO VALENCIA ANGEL STIVEN, VALENCIA CESAR PATRICIO, VALENCIA VIVERO YUNIOR DAVID, PRECIADO MINA ALONZO ANDRES, ARROYO MINA JAVIER RICARDO</t>
+  </si>
+  <si>
+    <t>FAM316</t>
+  </si>
+  <si>
     <t>1003953062-SIN_CED</t>
   </si>
   <si>
     <t>TAICUZ NASTACUAZ LUIS WILSON, NASTACUAZ HOMERO TAICUZ</t>
   </si>
   <si>
-    <t>FAM316</t>
-  </si>
-  <si>
-    <t>450030457-1004678593-401163662-1004448898-SIN_CED</t>
-  </si>
-  <si>
-    <t>PASCAL PAI JIMMY GEOVANNY, TAICUZ CANTINCUZ CORINA MARINA, PASCAL FABIOLA TAICUZ, CANTINCUS TAICUZ KLEBER FERNANDO, NASTACUAS CANTINCUZ ORLANDO</t>
-  </si>
-  <si>
     <t>FAM317</t>
   </si>
   <si>
-    <t>1004572457-1004572465</t>
-  </si>
-  <si>
-    <t>TAICUS MARIN JAKSON MAURICIO, TAICUS MARIN LUIS ALIRIO</t>
+    <t>450030457-1004678593-1004448898-SIN_CED-401163662</t>
+  </si>
+  <si>
+    <t>PASCAL PAI JIMMY GEOVANNY, TAICUZ CANTINCUZ CORINA MARINA, CANTINCUS TAICUZ KLEBER FERNANDO, NASTACUAS CANTINCUZ ROBERTO, PASCAL FABIOLA TAICUZ</t>
   </si>
   <si>
     <t>FAM318</t>
   </si>
   <si>
-    <t>1004615819-1005057771-1004706865</t>
-  </si>
-  <si>
-    <t>GUERRON PASCAL MILLER SEBASTIAN, CANTINCUZ PASCAL JHONY ANDRES, PASCAL PAI ALEXANDER</t>
+    <t>1004572465-1004572457</t>
+  </si>
+  <si>
+    <t>TAICUS MARIN LUIS ALIRIO, TAICUS MARIN JAKSON MAURICIO</t>
   </si>
   <si>
     <t>FAM319</t>
   </si>
   <si>
+    <t>1005057771-1004706865-1004615819</t>
+  </si>
+  <si>
+    <t>CANTINCUZ PASCAL JHONY ANDRES, PASCAL PAI ALEXANDER, GUERRON PASCAL MILLER SEBASTIAN</t>
+  </si>
+  <si>
+    <t>FAM320</t>
+  </si>
+  <si>
     <t>SIN_CED-1004609184</t>
   </si>
   <si>
     <t>CAICEDO QUINTERO SACARIAS, CAICEDO QUINTERO RUTH ESTELA</t>
   </si>
   <si>
-    <t>FAM320</t>
-  </si>
-  <si>
-    <t>SIN_CED-SIN_CED-SIN_CED-1002784211-SIN_CED</t>
-  </si>
-  <si>
-    <t>PAY LLANOS GUILLERMO, LLANOS NASTACUAZ JERSON LLANOS, NASTACUAZ PAY JUMMY, PAY LLANOS MARTA CECILIA, PAY LLANOS CARLOS XAVIER</t>
-  </si>
-  <si>
     <t>FAM321</t>
   </si>
   <si>
-    <t>1050244332-SIN_CED-1050368982</t>
-  </si>
-  <si>
-    <t>REVELO PORTILLA DANY ALEXIS, PASCAL PASCAL ANDERSON ALEXANDER, PASCAL PASCAL JOHN BRYAN</t>
+    <t>1002784211-SIN_CED-SIN_CED-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>PAY LLANOS MARTA CECILIA, NASTACUAZ PAY JUMMY, LLANOS NASTACUAZ JERSON LLANOS, PAY LLANOS GUILLERMO, PAY LLANOS CARLOS XAVIER</t>
   </si>
   <si>
     <t>FAM322</t>
   </si>
   <si>
+    <t>1050368982-1050244332-SIN_CED</t>
+  </si>
+  <si>
+    <t>PASCAL PASCAL JOHN BRYAN, REVELO PORTILLA DANY ALEXIS, PASCAL PASCAL ANDERSON ALEXANDER</t>
+  </si>
+  <si>
+    <t>FAM323</t>
+  </si>
+  <si>
     <t>850531211-SIN_CED</t>
   </si>
   <si>
     <t>RODRIGUEZ LASTRA JORDAN XAVIER, ALFRESO ENRIQ LASTRA</t>
   </si>
   <si>
-    <t>FAM323</t>
+    <t>FAM324</t>
   </si>
   <si>
     <t>SIN_CED-803954908</t>
@@ -2956,16 +2965,16 @@
     <t>NINO ANAPA JUAN ANDRES, ANAPA CAICEDO EDGAR FELIPE</t>
   </si>
   <si>
-    <t>FAM324</t>
+    <t>FAM325</t>
   </si>
   <si>
     <t>SIN_CED-1050091394-SIN_CED</t>
   </si>
   <si>
-    <t>GUANGA PAY DIEGO ARMANDO, CANTINCUZ PAY PEDRO JUAN, UANGA PAY FRANCISCO RAMIRO</t>
-  </si>
-  <si>
-    <t>FAM325</t>
+    <t>UANGA PAY FRANCISCO RAMIRO, CANTINCUZ PAY PEDRO JUAN, GUANGA PAY DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>FAM326</t>
   </si>
   <si>
     <t>SIN_CED-1005069107</t>
@@ -2974,52 +2983,52 @@
     <t>QUELO MERLIN GONZALEZ, MONTENEGRO LOOR LIBETH EVELYN</t>
   </si>
   <si>
-    <t>FAM326</t>
-  </si>
-  <si>
-    <t>605888221-602243610</t>
-  </si>
-  <si>
-    <t>INCA TAPIA ALEXANDER, INCA GUANULEMA MARTIN EURO</t>
-  </si>
-  <si>
     <t>FAM327</t>
   </si>
   <si>
-    <t>SIN_CED-SIN_CED-SIN_CED-1729845063</t>
-  </si>
-  <si>
-    <t>GUZMAN DELGADO GERARDO FABIAN, GUZMAN DELGADO PASCUAL GREGORIO, GUZMAN DELGADO JOSE ADRIAN, GUZMAN DELGADO ANNER BENJAMIN</t>
+    <t>602243610-605888221</t>
+  </si>
+  <si>
+    <t>INCA GUANULEMA MARTIN EURO, INCA TAPIA ALEXANDER</t>
   </si>
   <si>
     <t>FAM328</t>
   </si>
   <si>
-    <t>850517814-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>MINA QUINONEZ EDISON FERNANDO, MINA QUINONEZ JOHN JOAO, MINA QUINONEZ YORLIN ZEDIFERSON</t>
+    <t>1729845063-SIN_CED-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>GUZMAN DELGADO ANNER BENJAMIN, GUZMAN DELGADO PASCUAL GREGORIO, GUZMAN DELGADO GERARDO FABIAN, GUZMAN DELGADO JOSE ADRIAN</t>
   </si>
   <si>
     <t>FAM329</t>
   </si>
   <si>
-    <t>1001295946-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>QUINTERO VALENCIA JUAN PEDRO PABLO, QUINTERO PERALTA MENADIER, QUINTERO PERALTA JOE BINSEM</t>
+    <t>SIN_CED-SIN_CED-850517814</t>
+  </si>
+  <si>
+    <t>MINA QUINONEZ JOHN JOAO, MINA QUINONEZ YORLIN ZEDIFERSON, MINA QUINONEZ EDISON FERNANDO</t>
   </si>
   <si>
     <t>FAM330</t>
   </si>
   <si>
+    <t>SIN_CED-SIN_CED-1001295946</t>
+  </si>
+  <si>
+    <t>QUINTERO PERALTA JOE BINSEM, QUINTERO PERALTA MENADIER, QUINTERO VALENCIA JUAN PEDRO PABLO</t>
+  </si>
+  <si>
+    <t>FAM331</t>
+  </si>
+  <si>
     <t>SIN_CED-2350421836</t>
   </si>
   <si>
     <t>ALVARADO BRAVO JAIME ARIOSTO, ALVARADO BRAVO JIPSON MIGUEL</t>
   </si>
   <si>
-    <t>FAM331</t>
+    <t>FAM332</t>
   </si>
   <si>
     <t>1051187498-SIN_CED</t>
@@ -3028,7 +3037,7 @@
     <t>GETIAL ORDONEZ HERNANDO ALEXIS, GETIAL ORDONEZ ROYMA YESITH</t>
   </si>
   <si>
-    <t>FAM332</t>
+    <t>FAM333</t>
   </si>
   <si>
     <t>1306339639-1803735008</t>
@@ -3037,7 +3046,7 @@
     <t>CEDENO VELEZ CARLOS ORLANDO, OYAQUE MONCAYO MONICA</t>
   </si>
   <si>
-    <t>FAM333</t>
+    <t>FAM334</t>
   </si>
   <si>
     <t>106970239-SIN_CED</t>
@@ -3046,25 +3055,25 @@
     <t>BUESTAN LALVAY PEDRO ANDRES, BUESTAN FAREZ CARLOS</t>
   </si>
   <si>
-    <t>FAM334</t>
-  </si>
-  <si>
-    <t>1313318030-1306714245</t>
-  </si>
-  <si>
-    <t>FERNANDO DIAZ JOSE, ALAVA CEDENO MANUEL DE JESUS</t>
-  </si>
-  <si>
     <t>FAM335</t>
   </si>
   <si>
+    <t>1306714245-1313318030</t>
+  </si>
+  <si>
+    <t>ALAVA CEDENO MANUEL DE JESUS, FERNANDO DIAZ JOSE</t>
+  </si>
+  <si>
+    <t>FAM336</t>
+  </si>
+  <si>
     <t>1312579418-1314212356</t>
   </si>
   <si>
     <t>ACOSTA PINCAY ALLISSON JAEL, RICARDO FABIAN ACOSTA</t>
   </si>
   <si>
-    <t>FAM336</t>
+    <t>FAM337</t>
   </si>
   <si>
     <t>102453958-914733597</t>
@@ -3073,97 +3082,97 @@
     <t>GUANOQUIZA SISALIMA LUIS GUILLERMO, SUCONOTA SISALMA MARIO MODESTO</t>
   </si>
   <si>
-    <t>FAM337</t>
-  </si>
-  <si>
-    <t>SIN_CED-401719471</t>
-  </si>
-  <si>
-    <t>NASTACUAZ CASANOVA FRANKLIN ARMANDO, NASTACUAZ CASANOVA RICHARD BRAYAN</t>
-  </si>
-  <si>
     <t>FAM338</t>
   </si>
   <si>
-    <t>803915313-803372861</t>
-  </si>
-  <si>
-    <t>PRECIADO TORRES KATHERINE NAYELI, PRECIADO TORRES BYRON ALIRIO</t>
+    <t>401719471-SIN_CED</t>
+  </si>
+  <si>
+    <t>NASTACUAZ CASANOVA RICHARD BRAYAN, NASTACUAZ CASANOVA FRANKLIN ARMANDO</t>
   </si>
   <si>
     <t>FAM339</t>
   </si>
   <si>
+    <t>803372861-803915313</t>
+  </si>
+  <si>
+    <t>PRECIADO TORRES BYRON ALIRIO, PRECIADO TORRES KATHERINE NAYELI</t>
+  </si>
+  <si>
+    <t>FAM340</t>
+  </si>
+  <si>
     <t>1308500089-1308500048</t>
   </si>
   <si>
     <t>ANCHUNDIA QUIJIJE KLEVER ALBERTO, ANCHUNDIA QUIJIJE CECILIO FRANCISCO</t>
   </si>
   <si>
-    <t>FAM340</t>
-  </si>
-  <si>
-    <t>1310141435-1309480059</t>
-  </si>
-  <si>
-    <t>ALVIA DELGADO JAIME ENRIQUE, LOPEZ VICTOR MANUEL</t>
-  </si>
-  <si>
     <t>FAM341</t>
   </si>
   <si>
-    <t>957634967-932573991</t>
-  </si>
-  <si>
-    <t>CALDERON ALVARADO NICOLE, CAMPUZANO ALVARADO ISMAEL</t>
+    <t>1309480059-1310141435</t>
+  </si>
+  <si>
+    <t>LOPEZ VICTOR MANUEL, ALVIA DELGADO JAIME ENRIQUE</t>
   </si>
   <si>
     <t>FAM342</t>
   </si>
   <si>
+    <t>932573991-957634967</t>
+  </si>
+  <si>
+    <t>CAMPUZANO ALVARADO ISMAEL, CALDERON ALVARADO NICOLE</t>
+  </si>
+  <si>
+    <t>FAM343</t>
+  </si>
+  <si>
     <t>1004600134-804373405</t>
   </si>
   <si>
     <t>BARAHONA QUINTERO GABRIELA ROSAURA, BARAHONA QUINTERO YILDA KATHERINE</t>
   </si>
   <si>
-    <t>FAM343</t>
-  </si>
-  <si>
-    <t>SIN_CED-750600280</t>
-  </si>
-  <si>
-    <t>GALI JAVIER WILA, COROZO VALDEZ GILBERT FERNANDO</t>
-  </si>
-  <si>
     <t>FAM344</t>
   </si>
   <si>
-    <t>955116710-804272631</t>
-  </si>
-  <si>
-    <t>COROZO JEFERSON MERCADO, MERCADO MAIFREN YEI MAICOL</t>
+    <t>750600280-SIN_CED</t>
+  </si>
+  <si>
+    <t>COROZO VALDEZ GILBERT FERNANDO, GALI JAVIER WILA</t>
   </si>
   <si>
     <t>FAM345</t>
   </si>
   <si>
-    <t>1004091276-549644</t>
-  </si>
-  <si>
-    <t>MINA COROZO ANGEL LUIS, QUINONEZ RIASCOS EDNIO ALBERTO</t>
+    <t>804272631-955116710</t>
+  </si>
+  <si>
+    <t>MERCADO MAIFREN YEI MAICOL, COROZO JEFERSON MERCADO</t>
   </si>
   <si>
     <t>FAM346</t>
   </si>
   <si>
+    <t>549644-1004091276</t>
+  </si>
+  <si>
+    <t>QUINONEZ RIASCOS EDNIO ALBERTO, MINA COROZO ANGEL LUIS</t>
+  </si>
+  <si>
+    <t>FAM347</t>
+  </si>
+  <si>
     <t>SIN_CED-802752691</t>
   </si>
   <si>
     <t>MARCHI CORTEZ JHAROLD LIZANDRO, MARCHI RIVERA LIZARDO</t>
   </si>
   <si>
-    <t>FAM347</t>
+    <t>FAM348</t>
   </si>
   <si>
     <t>805193430-803374602</t>
@@ -3172,7 +3181,7 @@
     <t>VALENCIA ANGULO JOHN RICHARD, VALENCIA ANGULO ANTHONY GEOVANNY</t>
   </si>
   <si>
-    <t>FAM348</t>
+    <t>FAM349</t>
   </si>
   <si>
     <t>804793685-SIN_CED</t>
@@ -3181,142 +3190,142 @@
     <t>ARRIAGA VELEZ LEONARDO ALEJANDRO, ARRIAGA VELEZ BYRON ORLANDO</t>
   </si>
   <si>
-    <t>FAM349</t>
-  </si>
-  <si>
-    <t>1004524995-SIN_CED</t>
-  </si>
-  <si>
-    <t>WILA SILVA WILLIAN ERNESTO, SILVA EDWIN WILA</t>
-  </si>
-  <si>
     <t>FAM350</t>
   </si>
   <si>
-    <t>SIN_CED-2300740483</t>
-  </si>
-  <si>
-    <t>GONZALES MARQUINEZ ALEXANDER, GONZALES MARQUINEZ ROBINSON NERY</t>
+    <t>SIN_CED-1004524995</t>
+  </si>
+  <si>
+    <t>SILVA EDWIN WILA, WILA SILVA WILLIAN ERNESTO</t>
   </si>
   <si>
     <t>FAM351</t>
   </si>
   <si>
-    <t>1758397499-SIN_CED</t>
-  </si>
-  <si>
-    <t>GORDILLO SIERRA JORGE, GORDILLO RODRIGUEZ DAVID</t>
+    <t>2300740483-SIN_CED</t>
+  </si>
+  <si>
+    <t>GONZALES MARQUINEZ ROBINSON NERY, GONZALES MARQUINEZ ALEXANDER</t>
   </si>
   <si>
     <t>FAM352</t>
   </si>
   <si>
-    <t>SIN_CED-1002641817</t>
-  </si>
-  <si>
-    <t>RENTERIA QUINTERO PIEDAD, PEREA QUINTERO HERLINDA ESPERANZA</t>
+    <t>SIN_CED-1758397499</t>
+  </si>
+  <si>
+    <t>GORDILLO RODRIGUEZ DAVID, GORDILLO SIERRA JORGE</t>
   </si>
   <si>
     <t>FAM353</t>
   </si>
   <si>
-    <t>1313597690-1317740999</t>
-  </si>
-  <si>
-    <t>CHAVEZ MERO YANDRY JOEL, PAZ CHAVEZ LEONEL</t>
+    <t>1002641817-SIN_CED</t>
+  </si>
+  <si>
+    <t>PEREA QUINTERO HERLINDA ESPERANZA, RENTERIA QUINTERO PIEDAD</t>
   </si>
   <si>
     <t>FAM354</t>
   </si>
   <si>
-    <t>1203721277-SIN_CED-SIN_CED</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ JAMA HUGO DE LOS ANGELES, RODRIGUEZ CARRAZCO LUIS ANTONIO, RODRIGUEZ CARRAZCO CARLOS ALBERTO</t>
+    <t>1317740999-1313597690</t>
+  </si>
+  <si>
+    <t>PAZ CHAVEZ LEONEL, CHAVEZ MERO YANDRY JOEL</t>
   </si>
   <si>
     <t>FAM355</t>
   </si>
   <si>
-    <t>2300245491-SIN_CED</t>
-  </si>
-  <si>
-    <t>ZAMBRANO SABANDO ANLAY AGUSTIN, CEDENO CRISTINA</t>
+    <t>SIN_CED-1203721277-SIN_CED</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CARRAZCO LUIS ANTONIO, RODRIGUEZ JAMA HUGO DE LOS ANGELES, RODRIGUEZ CARRAZCO CARLOS ALBERTO</t>
   </si>
   <si>
     <t>FAM356</t>
   </si>
   <si>
-    <t>SIN_CED-SIN_CED-801688169-SIN_CED</t>
-  </si>
-  <si>
-    <t>RUA VALDEZ ANGEL FERNANDO, RUA VALDEZ MANUEL ANDERSON, RUA RODRIGUEZ ANGEL MARCONE, RUA VALDEZ ALFONSO</t>
+    <t>SIN_CED-2300245491</t>
+  </si>
+  <si>
+    <t>CEDENO CRISTINA, ZAMBRANO SABANDO ANLAY AGUSTIN</t>
   </si>
   <si>
     <t>FAM357</t>
   </si>
   <si>
+    <t>SIN_CED-801688169-SIN_CED-SIN_CED</t>
+  </si>
+  <si>
+    <t>RUA VALDEZ MANUEL ANDERSON, RUA RODRIGUEZ ANGEL MARCONE, RUA VALDEZ ANGEL FERNANDO, RUA VALDEZ ALFONSO</t>
+  </si>
+  <si>
+    <t>FAM358</t>
+  </si>
+  <si>
     <t>1310894702-850973041</t>
   </si>
   <si>
     <t>CAGUA CHILA BEBSY DEYSI, CORREA CAGUA MILETSY JAZMIN</t>
   </si>
   <si>
-    <t>FAM358</t>
-  </si>
-  <si>
-    <t>1004369284-1004218713</t>
-  </si>
-  <si>
-    <t>NASTACUAZ GUANGA MARIELA CRISTINA, NASTACUAZ GUANGA ROSA LILIANA</t>
-  </si>
-  <si>
     <t>FAM359</t>
   </si>
   <si>
-    <t>850627803-SIN_CED-SIN_CED-804950657</t>
-  </si>
-  <si>
-    <t>QUINTERO GODOY CARLOS ALBERTO, QUINTERO CORTEZ JADER VICENTE, QUINTERO GODOY JOSE LUIS, QUINTERO CORTEZ YADIN OLICETH</t>
+    <t>1004218713-1004369284</t>
+  </si>
+  <si>
+    <t>NASTACUAZ GUANGA ROSA LILIANA, NASTACUAZ GUANGA MARIELA CRISTINA</t>
   </si>
   <si>
     <t>FAM360</t>
   </si>
   <si>
-    <t>804537157-804336659</t>
-  </si>
-  <si>
-    <t>ALDAZ REVELO CARLOS ENRIQUE, ALDAZ REVELO BRYAN DANIEL</t>
+    <t>850627803-SIN_CED-804950657-SIN_CED</t>
+  </si>
+  <si>
+    <t>QUINTERO GODOY CARLOS ALBERTO, QUINTERO CORTEZ JADER VICENTE, QUINTERO CORTEZ YADIN OLICETH, QUINTERO GODOY JOSE LUIS</t>
   </si>
   <si>
     <t>FAM361</t>
   </si>
   <si>
-    <t>SIN_CED-805221207</t>
-  </si>
-  <si>
-    <t>CANTICUZ NASTACUAZ VINICIO ALFONSO, CANTICUZ NASTACUAZ YONER HOVER</t>
+    <t>804336659-804537157</t>
+  </si>
+  <si>
+    <t>ALDAZ REVELO BRYAN DANIEL, ALDAZ REVELO CARLOS ENRIQUE</t>
   </si>
   <si>
     <t>FAM362</t>
   </si>
   <si>
-    <t>SIN_CED-1316363249</t>
-  </si>
-  <si>
-    <t>MENDOZA ANGEL LEONARDO, MENDOZA MOREIRA LEONARDO ALEJANDRO</t>
+    <t>805221207-SIN_CED</t>
+  </si>
+  <si>
+    <t>CANTICUZ NASTACUAZ YONER HOVER, CANTICUZ NASTACUAZ VINICIO ALFONSO</t>
   </si>
   <si>
     <t>FAM363</t>
   </si>
   <si>
-    <t>1307482693-1316615663</t>
-  </si>
-  <si>
-    <t>SEGOVIA RUIZ CARLOS ALBERTO, SEGOVIA TARAPUES OSWALDO RAFAEL</t>
+    <t>1316363249-SIN_CED</t>
+  </si>
+  <si>
+    <t>MENDOZA MOREIRA LEONARDO ALEJANDRO, MENDOZA ANGEL LEONARDO</t>
   </si>
   <si>
     <t>FAM364</t>
+  </si>
+  <si>
+    <t>1316615663-1307482693</t>
+  </si>
+  <si>
+    <t>SEGOVIA TARAPUES OSWALDO RAFAEL, SEGOVIA RUIZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>FAM365</t>
   </si>
   <si>
     <t>SIN_CED-1004343164</t>
@@ -3688,16 +3697,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="132.44140625" customWidth="1"/>
+    <col min="3" max="3" width="96.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3717,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3989,7 +3997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -4074,7 +4082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -4159,24 +4167,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>87</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -4227,7 +4235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -4261,7 +4269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -4329,7 +4337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -4340,10 +4348,10 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4357,13 +4365,13 @@
         <v>121</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4374,13 +4382,13 @@
         <v>124</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4397,7 +4405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4408,10 +4416,10 @@
         <v>130</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4425,13 +4433,13 @@
         <v>133</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -4442,13 +4450,13 @@
         <v>136</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4493,13 +4501,13 @@
         <v>145</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -4510,13 +4518,13 @@
         <v>148</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -4527,13 +4535,13 @@
         <v>151</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -4544,13 +4552,13 @@
         <v>154</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -4567,7 +4575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -4584,7 +4592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -4595,13 +4603,13 @@
         <v>163</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4629,13 +4637,13 @@
         <v>169</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -4686,7 +4694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -4697,13 +4705,13 @@
         <v>181</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -4714,13 +4722,13 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -4771,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -4788,7 +4796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -4805,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -4839,7 +4847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -4850,13 +4858,13 @@
         <v>208</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -4867,13 +4875,13 @@
         <v>211</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -4890,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -4918,13 +4926,13 @@
         <v>220</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -4935,13 +4943,13 @@
         <v>223</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -4952,13 +4960,13 @@
         <v>226</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -4969,13 +4977,13 @@
         <v>229</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -5020,13 +5028,13 @@
         <v>238</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -5037,13 +5045,13 @@
         <v>241</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -5054,13 +5062,13 @@
         <v>244</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -5077,7 +5085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -5094,7 +5102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>251</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -5128,7 +5136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -5145,7 +5153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -5179,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -5196,7 +5204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -5213,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -5247,7 +5255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>278</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>287</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -5332,7 +5340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>293</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -5360,13 +5368,13 @@
         <v>298</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -5394,13 +5402,13 @@
         <v>304</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>308</v>
       </c>
@@ -5445,13 +5453,13 @@
         <v>313</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>317</v>
       </c>
@@ -5485,7 +5493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -5502,7 +5510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -5519,7 +5527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>326</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>329</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -5587,7 +5595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>338</v>
       </c>
@@ -5604,7 +5612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>341</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -5638,7 +5646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>350</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>353</v>
       </c>
@@ -5689,7 +5697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>356</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>359</v>
       </c>
@@ -5723,7 +5731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>365</v>
       </c>
@@ -5757,7 +5765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>368</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>374</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -5825,7 +5833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>380</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>383</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>386</v>
       </c>
@@ -5876,7 +5884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>389</v>
       </c>
@@ -5893,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -5904,13 +5912,13 @@
         <v>394</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>395</v>
       </c>
@@ -5921,13 +5929,13 @@
         <v>397</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>398</v>
       </c>
@@ -5944,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>404</v>
       </c>
@@ -5972,13 +5980,13 @@
         <v>406</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>407</v>
       </c>
@@ -5989,13 +5997,13 @@
         <v>409</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>410</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>413</v>
       </c>
@@ -6029,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -6040,13 +6048,13 @@
         <v>418</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>419</v>
       </c>
@@ -6057,13 +6065,13 @@
         <v>421</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>422</v>
       </c>
@@ -6080,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -6091,13 +6099,13 @@
         <v>427</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>428</v>
       </c>
@@ -6108,13 +6116,13 @@
         <v>430</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>431</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>434</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>437</v>
       </c>
@@ -6159,10 +6167,10 @@
         <v>439</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -6176,13 +6184,13 @@
         <v>442</v>
       </c>
       <c r="D146">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>443</v>
       </c>
@@ -6199,7 +6207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>446</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -6233,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -6244,10 +6252,10 @@
         <v>454</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -6261,13 +6269,13 @@
         <v>457</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -6278,10 +6286,10 @@
         <v>460</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -6295,13 +6303,13 @@
         <v>463</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -6312,13 +6320,13 @@
         <v>466</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>467</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -6346,13 +6354,13 @@
         <v>472</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>473</v>
       </c>
@@ -6363,13 +6371,13 @@
         <v>475</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -6380,13 +6388,13 @@
         <v>478</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>479</v>
       </c>
@@ -6403,7 +6411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>482</v>
       </c>
@@ -6414,10 +6422,10 @@
         <v>484</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -6431,13 +6439,13 @@
         <v>487</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>488</v>
       </c>
@@ -6448,13 +6456,13 @@
         <v>490</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>491</v>
       </c>
@@ -6465,13 +6473,13 @@
         <v>493</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>494</v>
       </c>
@@ -6482,10 +6490,10 @@
         <v>496</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -6499,13 +6507,13 @@
         <v>499</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>500</v>
       </c>
@@ -6516,13 +6524,13 @@
         <v>502</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>503</v>
       </c>
@@ -6533,13 +6541,13 @@
         <v>505</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>506</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>509</v>
       </c>
@@ -6567,13 +6575,13 @@
         <v>511</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>512</v>
       </c>
@@ -6584,13 +6592,13 @@
         <v>514</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>515</v>
       </c>
@@ -6601,13 +6609,13 @@
         <v>517</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>518</v>
       </c>
@@ -6618,13 +6626,13 @@
         <v>520</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>521</v>
       </c>
@@ -6635,13 +6643,13 @@
         <v>523</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>524</v>
       </c>
@@ -6652,13 +6660,13 @@
         <v>526</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>527</v>
       </c>
@@ -6669,13 +6677,13 @@
         <v>529</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>530</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -6703,13 +6711,13 @@
         <v>535</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>536</v>
       </c>
@@ -6720,13 +6728,13 @@
         <v>538</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>539</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>542</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>545</v>
       </c>
@@ -6777,7 +6785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>548</v>
       </c>
@@ -6794,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>551</v>
       </c>
@@ -6805,13 +6813,13 @@
         <v>553</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>554</v>
       </c>
@@ -6822,13 +6830,13 @@
         <v>556</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>557</v>
       </c>
@@ -6845,7 +6853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>560</v>
       </c>
@@ -6862,7 +6870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>563</v>
       </c>
@@ -6879,7 +6887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>566</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>569</v>
       </c>
@@ -6913,7 +6921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -6930,7 +6938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>575</v>
       </c>
@@ -6947,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>578</v>
       </c>
@@ -6964,7 +6972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>581</v>
       </c>
@@ -6975,13 +6983,13 @@
         <v>583</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>584</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>587</v>
       </c>
@@ -7009,13 +7017,13 @@
         <v>589</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>590</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>593</v>
       </c>
@@ -7043,10 +7051,10 @@
         <v>595</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -7060,27 +7068,27 @@
         <v>598</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>599</v>
       </c>
       <c r="B199" t="s">
         <v>600</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>601</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -7094,7 +7102,7 @@
         <v>604</v>
       </c>
       <c r="D200">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E200" t="s">
         <v>88</v>
@@ -7111,13 +7119,13 @@
         <v>607</v>
       </c>
       <c r="D201">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>608</v>
       </c>
@@ -7134,7 +7142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>611</v>
       </c>
@@ -7145,10 +7153,10 @@
         <v>613</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -7162,13 +7170,13 @@
         <v>616</v>
       </c>
       <c r="D204">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>617</v>
       </c>
@@ -7179,10 +7187,10 @@
         <v>619</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -7196,7 +7204,7 @@
         <v>622</v>
       </c>
       <c r="D206">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
         <v>88</v>
@@ -7213,13 +7221,13 @@
         <v>625</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>626</v>
       </c>
@@ -7230,13 +7238,13 @@
         <v>628</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>629</v>
       </c>
@@ -7247,13 +7255,13 @@
         <v>631</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>632</v>
       </c>
@@ -7264,13 +7272,13 @@
         <v>634</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>635</v>
       </c>
@@ -7281,13 +7289,13 @@
         <v>637</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>638</v>
       </c>
@@ -7298,13 +7306,13 @@
         <v>640</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>641</v>
       </c>
@@ -7315,13 +7323,13 @@
         <v>643</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>644</v>
       </c>
@@ -7332,13 +7340,13 @@
         <v>646</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>647</v>
       </c>
@@ -7349,13 +7357,13 @@
         <v>649</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>650</v>
       </c>
@@ -7366,13 +7374,13 @@
         <v>652</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>653</v>
       </c>
@@ -7389,7 +7397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>656</v>
       </c>
@@ -7400,13 +7408,13 @@
         <v>658</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>659</v>
       </c>
@@ -7417,13 +7425,13 @@
         <v>661</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>662</v>
       </c>
@@ -7440,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>665</v>
       </c>
@@ -7451,10 +7459,10 @@
         <v>667</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -7468,13 +7476,13 @@
         <v>670</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>671</v>
       </c>
@@ -7485,10 +7493,10 @@
         <v>673</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -7502,13 +7510,13 @@
         <v>676</v>
       </c>
       <c r="D224">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>677</v>
       </c>
@@ -7519,13 +7527,13 @@
         <v>679</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>680</v>
       </c>
@@ -7542,7 +7550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>683</v>
       </c>
@@ -7559,7 +7567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>686</v>
       </c>
@@ -7576,7 +7584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>689</v>
       </c>
@@ -7587,10 +7595,10 @@
         <v>691</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -7604,13 +7612,13 @@
         <v>694</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>695</v>
       </c>
@@ -7627,7 +7635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -7638,13 +7646,13 @@
         <v>700</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>701</v>
       </c>
@@ -7655,13 +7663,13 @@
         <v>703</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -7672,13 +7680,13 @@
         <v>706</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>707</v>
       </c>
@@ -7695,7 +7703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>710</v>
       </c>
@@ -7706,10 +7714,10 @@
         <v>712</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -7723,13 +7731,13 @@
         <v>715</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>716</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>719</v>
       </c>
@@ -7763,7 +7771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>722</v>
       </c>
@@ -7774,10 +7782,10 @@
         <v>724</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -7791,13 +7799,13 @@
         <v>727</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>728</v>
       </c>
@@ -7808,13 +7816,13 @@
         <v>730</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>731</v>
       </c>
@@ -7825,13 +7833,13 @@
         <v>733</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>734</v>
       </c>
@@ -7848,7 +7856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>737</v>
       </c>
@@ -7859,13 +7867,13 @@
         <v>739</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>740</v>
       </c>
@@ -7882,7 +7890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>743</v>
       </c>
@@ -7893,13 +7901,13 @@
         <v>745</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>746</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>749</v>
       </c>
@@ -7927,13 +7935,13 @@
         <v>751</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>752</v>
       </c>
@@ -7944,10 +7952,10 @@
         <v>754</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -7961,13 +7969,13 @@
         <v>757</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -7978,13 +7986,13 @@
         <v>760</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>761</v>
       </c>
@@ -7995,13 +8003,13 @@
         <v>763</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>764</v>
       </c>
@@ -8018,7 +8026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>767</v>
       </c>
@@ -8035,7 +8043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>770</v>
       </c>
@@ -8046,13 +8054,13 @@
         <v>772</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>773</v>
       </c>
@@ -8063,13 +8071,13 @@
         <v>775</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>776</v>
       </c>
@@ -8080,13 +8088,13 @@
         <v>778</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>779</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>782</v>
       </c>
@@ -8120,7 +8128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>785</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>788</v>
       </c>
@@ -8154,7 +8162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>791</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>797</v>
       </c>
@@ -8222,7 +8230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>803</v>
       </c>
@@ -8239,7 +8247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>806</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>809</v>
       </c>
@@ -8273,7 +8281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>812</v>
       </c>
@@ -8290,7 +8298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>815</v>
       </c>
@@ -8307,7 +8315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>818</v>
       </c>
@@ -8324,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>821</v>
       </c>
@@ -8341,7 +8349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>824</v>
       </c>
@@ -8358,7 +8366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>827</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>830</v>
       </c>
@@ -8392,7 +8400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>833</v>
       </c>
@@ -8409,7 +8417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>836</v>
       </c>
@@ -8443,7 +8451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>842</v>
       </c>
@@ -8460,7 +8468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>845</v>
       </c>
@@ -8488,13 +8496,13 @@
         <v>850</v>
       </c>
       <c r="D282">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E282" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>851</v>
       </c>
@@ -8511,7 +8519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>854</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>856</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E284" t="s">
         <v>12</v>
@@ -8545,7 +8553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>860</v>
       </c>
@@ -8562,7 +8570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>863</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>866</v>
       </c>
@@ -8596,7 +8604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>869</v>
       </c>
@@ -8630,7 +8638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>875</v>
       </c>
@@ -8647,7 +8655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>878</v>
       </c>
@@ -8658,13 +8666,13 @@
         <v>880</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>881</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>884</v>
       </c>
@@ -8698,7 +8706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>887</v>
       </c>
@@ -8715,7 +8723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>890</v>
       </c>
@@ -8732,7 +8740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>893</v>
       </c>
@@ -8749,7 +8757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>896</v>
       </c>
@@ -8760,13 +8768,13 @@
         <v>898</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>899</v>
       </c>
@@ -8777,13 +8785,13 @@
         <v>901</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>902</v>
       </c>
@@ -8800,7 +8808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>905</v>
       </c>
@@ -8811,13 +8819,13 @@
         <v>907</v>
       </c>
       <c r="D301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>908</v>
       </c>
@@ -8828,13 +8836,13 @@
         <v>910</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>911</v>
       </c>
@@ -8845,13 +8853,13 @@
         <v>913</v>
       </c>
       <c r="D303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>914</v>
       </c>
@@ -8862,13 +8870,13 @@
         <v>916</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E304" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>917</v>
       </c>
@@ -8879,13 +8887,13 @@
         <v>919</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>920</v>
       </c>
@@ -8902,7 +8910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>923</v>
       </c>
@@ -8919,7 +8927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>926</v>
       </c>
@@ -8936,7 +8944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>929</v>
       </c>
@@ -8947,13 +8955,13 @@
         <v>931</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>932</v>
       </c>
@@ -8964,13 +8972,13 @@
         <v>934</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>935</v>
       </c>
@@ -8987,7 +8995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>938</v>
       </c>
@@ -8998,13 +9006,13 @@
         <v>940</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>941</v>
       </c>
@@ -9021,7 +9029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>944</v>
       </c>
@@ -9032,10 +9040,10 @@
         <v>946</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E314" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -9049,13 +9057,13 @@
         <v>949</v>
       </c>
       <c r="D315">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E315" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>950</v>
       </c>
@@ -9066,10 +9074,10 @@
         <v>952</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -9083,13 +9091,13 @@
         <v>955</v>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>956</v>
       </c>
@@ -9100,13 +9108,13 @@
         <v>958</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E318" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>959</v>
       </c>
@@ -9117,13 +9125,13 @@
         <v>961</v>
       </c>
       <c r="D319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>962</v>
       </c>
@@ -9134,10 +9142,10 @@
         <v>964</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -9151,13 +9159,13 @@
         <v>967</v>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E321" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>968</v>
       </c>
@@ -9168,13 +9176,13 @@
         <v>970</v>
       </c>
       <c r="D322">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E322" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>971</v>
       </c>
@@ -9185,13 +9193,13 @@
         <v>973</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>974</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>977</v>
       </c>
@@ -9219,13 +9227,13 @@
         <v>979</v>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>980</v>
       </c>
@@ -9236,13 +9244,13 @@
         <v>982</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E326" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>983</v>
       </c>
@@ -9259,7 +9267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>986</v>
       </c>
@@ -9270,13 +9278,13 @@
         <v>988</v>
       </c>
       <c r="D328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>989</v>
       </c>
@@ -9287,13 +9295,13 @@
         <v>991</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E329" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>992</v>
       </c>
@@ -9310,7 +9318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>995</v>
       </c>
@@ -9321,13 +9329,13 @@
         <v>997</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>998</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1001</v>
       </c>
@@ -9361,7 +9369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1004</v>
       </c>
@@ -9378,7 +9386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1007</v>
       </c>
@@ -9395,7 +9403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1010</v>
       </c>
@@ -9412,7 +9420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1013</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1016</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1019</v>
       </c>
@@ -9463,7 +9471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1022</v>
       </c>
@@ -9480,7 +9488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1025</v>
       </c>
@@ -9497,7 +9505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1028</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1031</v>
       </c>
@@ -9531,7 +9539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1034</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1037</v>
       </c>
@@ -9565,7 +9573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1040</v>
       </c>
@@ -9582,7 +9590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1043</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1046</v>
       </c>
@@ -9616,7 +9624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1049</v>
       </c>
@@ -9633,7 +9641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1052</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1055</v>
       </c>
@@ -9667,7 +9675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1058</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1061</v>
       </c>
@@ -9701,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1064</v>
       </c>
@@ -9718,7 +9726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1067</v>
       </c>
@@ -9729,13 +9737,13 @@
         <v>1069</v>
       </c>
       <c r="D355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1070</v>
       </c>
@@ -9746,13 +9754,13 @@
         <v>1072</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E356" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1073</v>
       </c>
@@ -9763,13 +9771,13 @@
         <v>1075</v>
       </c>
       <c r="D357">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E357" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1076</v>
       </c>
@@ -9780,13 +9788,13 @@
         <v>1078</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E358" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1079</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1082</v>
       </c>
@@ -9814,13 +9822,13 @@
         <v>1084</v>
       </c>
       <c r="D360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E360" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1085</v>
       </c>
@@ -9831,13 +9839,13 @@
         <v>1087</v>
       </c>
       <c r="D361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E361" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1088</v>
       </c>
@@ -9854,7 +9862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1091</v>
       </c>
@@ -9871,7 +9879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1094</v>
       </c>
@@ -9888,7 +9896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1097</v>
       </c>
@@ -9905,14 +9913,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D366">
+        <v>2</v>
+      </c>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E365" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ALTO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E366" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>